--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="373" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="277" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="D_T10" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="D_T10" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="T1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Ngay</t>
   </si>
@@ -186,7 +186,19 @@
     <t>76;66;07;41;53;92;18;59;47;46;69;97;75;95;93;80;50;38;98;37;20;69;81;98;38;36;17</t>
   </si>
   <si>
-    <t>696 &gt;</t>
+    <t>696 &gt; xit</t>
+  </si>
+  <si>
+    <t>29;62;33;10;81;71;41;29;99;45;02;03;66;59;40;55;04;23;53;27;09;76;92;20;17;31;95 </t>
+  </si>
+  <si>
+    <t>292 &gt; xit</t>
+  </si>
+  <si>
+    <t>67;48;54;89;73;91;40;62;73;87;74;74;72;32;79;54;12;11;45;66;44;90;79;57;44;87;68</t>
+  </si>
+  <si>
+    <t>474 &gt;</t>
   </si>
   <si>
     <t>14 / 12</t>
@@ -407,19 +419,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.9372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.94901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.92549019607843"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.1607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2862745098039"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2148,26 +2161,24 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.60392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.09803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.2627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.13725490196079"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="16.5333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="10" width="16.8509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="16.6156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="10" width="16.9411764705882"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2286,7 +2297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>53</v>
       </c>
@@ -2365,7 +2376,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="14" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
         <v>7</v>
       </c>
@@ -2377,109 +2388,119 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
         <v>7</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="14" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
         <v>9</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="P6" s="11" t="n">
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="6" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="P7" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="14" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="6" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="P8" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
@@ -2853,7 +2874,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -3409,7 +3430,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -3595,7 +3616,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="277" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="180" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T10" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Ngay</t>
   </si>
@@ -189,7 +189,7 @@
     <t>696 &gt; xit</t>
   </si>
   <si>
-    <t>29;62;33;10;81;71;41;29;99;45;02;03;66;59;40;55;04;23;53;27;09;76;92;20;17;31;95 </t>
+    <t>29;62;33;10;81;71;41;29;99;45;02;03;66;59;40;55;04;23;53;27;09;76;92;20;17;31;95</t>
   </si>
   <si>
     <t>292 &gt; xit</t>
@@ -198,7 +198,13 @@
     <t>67;48;54;89;73;91;40;62;73;87;74;74;72;32;79;54;12;11;45;66;44;90;79;57;44;87;68</t>
   </si>
   <si>
-    <t>474 &gt;</t>
+    <t>474 &gt; xit</t>
+  </si>
+  <si>
+    <t>57;42;04;83;21;15;87;46;90;60;67;92;28;66;34;72;60;72;09;89;89;54;82;90;76;65;72 </t>
+  </si>
+  <si>
+    <t>262 &gt;</t>
   </si>
   <si>
     <t>14 / 12</t>
@@ -329,7 +335,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -381,6 +387,9 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
@@ -419,20 +428,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2862745098039"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.0156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.4156862745098"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2161,24 +2170,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
+      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.2627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.13725490196079"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.6156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.67450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.72156862745098"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="16.6156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="10" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="16.6941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="10" width="17.0196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2498,57 +2509,64 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="15" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="16"/>
+      <c r="B9" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="18" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9" s="17" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
       <c r="C10" s="6" t="n">
@@ -2874,7 +2892,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -2964,9 +2982,9 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
@@ -3334,7 +3352,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="22"/>
+      <c r="P26" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="C27" s="6" t="n">
@@ -3430,7 +3448,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -3616,7 +3634,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="180" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="40" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D_T10" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Ngay</t>
   </si>
@@ -201,10 +201,22 @@
     <t>474 &gt; xit</t>
   </si>
   <si>
-    <t>57;42;04;83;21;15;87;46;90;60;67;92;28;66;34;72;60;72;09;89;89;54;82;90;76;65;72 </t>
-  </si>
-  <si>
-    <t>262 &gt;</t>
+    <t>57;42;04;83;21;15;87;46;90;60;67;92;28;66;34;72;60;72;09;89;89;54;82;90;76;65;72</t>
+  </si>
+  <si>
+    <t>262 &gt; 62</t>
+  </si>
+  <si>
+    <t>45;24;73;44;32;62;85;74;54;79;14;47;01;69;21;37;51;91;76;24;29;25;43;69;77;99;57</t>
+  </si>
+  <si>
+    <t>474 &gt; 74</t>
+  </si>
+  <si>
+    <t>91;33;99;50;19;74;02;73;30;68;33;15;44;79;32;49;51;79;22;52;53;72;03;97;46;58;69</t>
+  </si>
+  <si>
+    <t>393 &gt;</t>
   </si>
   <si>
     <t>14 / 12</t>
@@ -398,7 +410,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
@@ -428,20 +440,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.0156862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.4156862745098"/>
-    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.6"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.74509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="16" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2170,26 +2182,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+      <selection activeCell="O13" activeCellId="0" pane="topLeft" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.6156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.3411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.7921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="16.6941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="10" width="17.0196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="9" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="10" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2568,97 +2580,109 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+      <c r="B10" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="14" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="14" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="6" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="P10" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="C11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="6" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
+      <c r="O11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
       <c r="C12" s="6" t="n">
@@ -2892,7 +2916,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -3448,7 +3472,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -3634,7 +3658,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="125" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="59" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>Ngay</t>
   </si>
@@ -315,10 +315,13 @@
     <t>454 &gt; 45</t>
   </si>
   <si>
-    <t>72;18;56;59;40;02;14;24;61;16;58;31;17;94;60;19;45;32;13;78;25;30;03;64;46;88;82 </t>
-  </si>
-  <si>
-    <t>141 &gt;</t>
+    <t>72;18;56;59;40;02;14;24;61;16;58;31;17;94;60;19;45;32;13;78;25;30;03;64;46;88;82</t>
+  </si>
+  <si>
+    <t>65;02;13;96;29;72;18;25;24;84;20;59;67;17;38;27;31;40;38;21;72;26;02;23;51;25;52 </t>
+  </si>
+  <si>
+    <t>Nghi (252)</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -331,7 +334,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -402,6 +405,13 @@
       <color rgb="000000FF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +461,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -521,6 +531,9 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -551,22 +564,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.2862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.67450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.70980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.65882352941177"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.75686274509804"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6352941176471"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.0196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2300,26 +2313,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O16" activeCellId="0" pane="topLeft" sqref="O16"/>
+      <selection activeCell="O15" activeCellId="0" pane="topLeft" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.76862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.443137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.80392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.90196078431373"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="17.0196078431373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2853,7 +2866,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>95</v>
       </c>
@@ -2906,7 +2919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
         <v>97</v>
       </c>
@@ -3003,55 +3016,60 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+      <c r="B16" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="25" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="P16" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
@@ -3148,7 +3166,7 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="26"/>
       <c r="P18" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
@@ -3516,7 +3534,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="C27" s="7" t="n">
@@ -3798,7 +3816,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="59" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="216" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Ngay</t>
   </si>
@@ -318,10 +318,16 @@
     <t>72;18;56;59;40;02;14;24;61;16;58;31;17;94;60;19;45;32;13;78;25;30;03;64;46;88;82</t>
   </si>
   <si>
-    <t>65;02;13;96;29;72;18;25;24;84;20;59;67;17;38;27;31;40;38;21;72;26;02;23;51;25;52 </t>
-  </si>
-  <si>
-    <t>Nghi (252)</t>
+    <t>65;02;13;96;29;72;18;25;24;84;20;59;67;17;38;27;31;40;38;21;72;26;02;23;51;25;52</t>
+  </si>
+  <si>
+    <t>Nghi (252 &gt; 52)</t>
+  </si>
+  <si>
+    <t>74;74;52;45;86;54;83;81;87;88;28;29;89;40;99;83;75;91;42;03;55;19;61;18;82;78;55</t>
+  </si>
+  <si>
+    <t>585 &gt;</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -521,15 +527,15 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -557,29 +563,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="E41" activeCellId="0" pane="topLeft" sqref="E41"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O39" activeCellId="0" pane="topLeft" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.678431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.70980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.65882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.24313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.7921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7607843137255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2293,6 +2299,9 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
         <v>7</v>
       </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="O37" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2313,26 +2322,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O15" activeCellId="0" pane="topLeft" sqref="O15"/>
+      <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.443137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.80392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.58823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.84313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.93725490196078"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="17.1019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.1843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2704,10 +2713,10 @@
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2970,7 +2979,7 @@
       </c>
       <c r="P14" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>99</v>
       </c>
@@ -3072,54 +3081,61 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>102</v>
+      </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="19"/>
+      <c r="O17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="11"/>
@@ -3816,7 +3832,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="216" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="267" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>Ngay</t>
   </si>
@@ -327,7 +327,25 @@
     <t>74;74;52;45;86;54;83;81;87;88;28;29;89;40;99;83;75;91;42;03;55;19;61;18;82;78;55</t>
   </si>
   <si>
-    <t>585 &gt;</t>
+    <t>585 &gt; 58 85</t>
+  </si>
+  <si>
+    <t>70;54;16;20;69;77;01;78;61;47;19;85;16;58;35;15;21;48;45;28;74;95;75;06;09;92;94</t>
+  </si>
+  <si>
+    <t>151 &gt; xit</t>
+  </si>
+  <si>
+    <t>26;66;97;91;87;94;07;32;54;03;76;70;13;17;60;79;59;81;06;37;33;79;74;82;74;57;07</t>
+  </si>
+  <si>
+    <t>Nghi (373 xit)</t>
+  </si>
+  <si>
+    <t>39;60;44;55;61;25;21;28;85;28;82;19;54;87;97;88;07;55;42;17;63;69;90;51;32;26;57</t>
+  </si>
+  <si>
+    <t>252 &gt;</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -467,7 +485,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -540,9 +558,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -565,27 +580,27 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O39" activeCellId="0" pane="topLeft" sqref="O39"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O25" activeCellId="0" pane="topLeft" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.24313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.81960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.76862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.86274509803922"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7607843137255"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8862745098039"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2322,26 +2337,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
+      <selection activeCell="O19" activeCellId="0" pane="topLeft" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.8156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.5568627450981"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.0078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.1843137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -3030,7 +3045,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>100</v>
       </c>
@@ -3081,7 +3096,7 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
@@ -3139,142 +3154,156 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="13" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="26"/>
+      <c r="O18" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
+      <c r="B19" s="0" t="s">
+        <v>106</v>
+      </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="25" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="8" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
+      <c r="B20" s="0" t="s">
+        <v>108</v>
+      </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
@@ -3550,7 +3579,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="27"/>
+      <c r="P26" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="C27" s="7" t="n">
@@ -3832,7 +3861,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="267" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="309" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
   <si>
     <t>Ngay</t>
   </si>
@@ -345,7 +345,25 @@
     <t>39;60;44;55;61;25;21;28;85;28;82;19;54;87;97;88;07;55;42;17;63;69;90;51;32;26;57</t>
   </si>
   <si>
-    <t>252 &gt;</t>
+    <t>252 &gt; 52</t>
+  </si>
+  <si>
+    <t>65;19;83;40;64;96;01;15;55;22;52;96;03;30;30;50;40;76;22;70;89;48;22;82;80;73;91</t>
+  </si>
+  <si>
+    <t>020 &gt; xit</t>
+  </si>
+  <si>
+    <t>53;82;74;83;70;03;79;47;91;07;86;53;57;21;61;27;87;61;74;68;69;13;00;87;54;86;65</t>
+  </si>
+  <si>
+    <t>787 &gt; 87</t>
+  </si>
+  <si>
+    <t>98;91;79;12;38;12;76;71;53;07;44;27;37;93;26;25;36;75;38;60;82;28;87;61;96;71;03</t>
+  </si>
+  <si>
+    <t>272 &gt;</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -580,27 +598,27 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O25" activeCellId="0" pane="topLeft" sqref="O25"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O39" activeCellId="0" pane="topLeft" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.81960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.76862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.84313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.93725490196078"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8862745098039"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2337,26 +2355,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O19" activeCellId="0" pane="topLeft" sqref="O19"/>
+      <selection activeCell="P22" activeCellId="0" pane="topLeft" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.5568627450981"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.08235294117647"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.5294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -3204,7 +3222,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>106</v>
       </c>
@@ -3255,7 +3273,7 @@
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>108</v>
       </c>
@@ -3306,142 +3324,159 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
-      <c r="C21" s="7" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="21">
+      <c r="B21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+      <c r="O21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="22">
+      <c r="B22" s="0" t="s">
+        <v>112</v>
+      </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" s="8" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="8" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="P22" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="23">
+      <c r="B23" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="8" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="P23" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -3861,7 +3896,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="309" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="145" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
   <si>
     <t>Ngay</t>
   </si>
@@ -363,7 +363,25 @@
     <t>98;91;79;12;38;12;76;71;53;07;44;27;37;93;26;25;36;75;38;60;82;28;87;61;96;71;03</t>
   </si>
   <si>
-    <t>272 &gt;</t>
+    <t>272 &gt; 72</t>
+  </si>
+  <si>
+    <t>72;47;81;51;13;08;91;89;06;41;51;11;99;47;71;78;18;12;80;86;49;91;79;12;38;88;39 </t>
+  </si>
+  <si>
+    <t>181 &gt; 18</t>
+  </si>
+  <si>
+    <t>58;48;90;18;67;31;39;09;64;38;57;67;91;51;43;15;47;71;21;46;56;11;12;78;69;75;82 </t>
+  </si>
+  <si>
+    <t>171 &gt; xit</t>
+  </si>
+  <si>
+    <t>02;39;24;86;53;57;72;30;64;22;06;13;04;28;53;40;98;14;39;92;41;35;96;31;28;65;05 </t>
+  </si>
+  <si>
+    <t>232 &gt;</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -503,7 +521,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -566,7 +584,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
@@ -575,9 +593,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -603,22 +618,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.89019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.6156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.91764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.87843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.64313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.97254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.5294117647059"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2354,30 +2369,29 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="P22" activeCellId="0" pane="topLeft" sqref="P22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.6941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.73333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.11764705882353"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.5294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.9803921568627"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.8" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2451,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -2493,7 +2507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>81</v>
       </c>
@@ -2544,7 +2558,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>85</v>
       </c>
@@ -2648,7 +2662,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>86</v>
       </c>
@@ -2699,7 +2713,7 @@
       </c>
       <c r="P8" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>88</v>
@@ -2753,7 +2767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>90</v>
       </c>
@@ -2804,7 +2818,7 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
         <v>92</v>
       </c>
@@ -2857,7 +2871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>93</v>
       </c>
@@ -2908,7 +2922,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>95</v>
       </c>
@@ -2961,7 +2975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
         <v>97</v>
       </c>
@@ -3012,7 +3026,7 @@
       </c>
       <c r="P14" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>99</v>
       </c>
@@ -3063,7 +3077,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>100</v>
       </c>
@@ -3114,7 +3128,7 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
@@ -3222,7 +3236,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>106</v>
       </c>
@@ -3273,7 +3287,7 @@
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>108</v>
       </c>
@@ -3479,142 +3493,160 @@
       </c>
       <c r="P23" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="B24" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" s="8" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="25">
+      <c r="B25" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="8" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
+      <c r="O25" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="26">
+      <c r="B26" s="0" t="s">
+        <v>120</v>
+      </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="26"/>
+      <c r="O26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="C27" s="7" t="n">
@@ -3803,7 +3835,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
         <v>0</v>
@@ -3896,7 +3928,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -3989,7 +4021,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="145" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="68" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
   <si>
     <t>Ngay</t>
   </si>
@@ -366,22 +366,28 @@
     <t>272 &gt; 72</t>
   </si>
   <si>
-    <t>72;47;81;51;13;08;91;89;06;41;51;11;99;47;71;78;18;12;80;86;49;91;79;12;38;88;39 </t>
+    <t>72;47;81;51;13;08;91;89;06;41;51;11;99;47;71;78;18;12;80;86;49;91;79;12;38;88;39</t>
   </si>
   <si>
     <t>181 &gt; 18</t>
   </si>
   <si>
-    <t>58;48;90;18;67;31;39;09;64;38;57;67;91;51;43;15;47;71;21;46;56;11;12;78;69;75;82 </t>
+    <t>58;48;90;18;67;31;39;09;64;38;57;67;91;51;43;15;47;71;21;46;56;11;12;78;69;75;82</t>
   </si>
   <si>
     <t>171 &gt; xit</t>
   </si>
   <si>
-    <t>02;39;24;86;53;57;72;30;64;22;06;13;04;28;53;40;98;14;39;92;41;35;96;31;28;65;05 </t>
-  </si>
-  <si>
-    <t>232 &gt;</t>
+    <t>02;39;24;86;53;57;72;30;64;22;06;13;04;28;53;40;98;14;39;92;41;35;96;31;28;65;05</t>
+  </si>
+  <si>
+    <t>232 &gt; xit</t>
+  </si>
+  <si>
+    <t>51;92;59;01;34;66;26;76;67;56;77;73;42;71;36;13;06;95;44;44;11;11;37;22;25;29;06</t>
+  </si>
+  <si>
+    <t>161 &gt;</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -618,22 +624,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.91764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.87843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.64313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.62352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.67058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.0078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2370,28 +2376,28 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O27" activeCellId="0" pane="topLeft" sqref="O27"/>
+      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.6941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.73333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.09803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.76862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.15294117647059"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.0705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.8" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2457,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>81</v>
       </c>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>83</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>85</v>
       </c>
@@ -2662,7 +2668,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>86</v>
       </c>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="P8" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>88</v>
@@ -2767,7 +2773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>90</v>
       </c>
@@ -2818,7 +2824,7 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
         <v>92</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>93</v>
       </c>
@@ -2922,7 +2928,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>95</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
         <v>97</v>
       </c>
@@ -3026,7 +3032,7 @@
       </c>
       <c r="P14" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>99</v>
       </c>
@@ -3077,7 +3083,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>100</v>
       </c>
@@ -3128,7 +3134,7 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
@@ -3236,7 +3242,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>106</v>
       </c>
@@ -3287,7 +3293,7 @@
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>108</v>
       </c>
@@ -3338,7 +3344,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
         <v>110</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
         <v>112</v>
       </c>
@@ -3442,7 +3448,7 @@
       </c>
       <c r="P22" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="B23" s="0" t="s">
         <v>114</v>
       </c>
@@ -3544,7 +3550,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
         <v>118</v>
       </c>
@@ -3641,45 +3647,48 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="8" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
@@ -3687,12 +3696,16 @@
       </c>
       <c r="L27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="19"/>
+      <c r="O27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="C28" s="7" t="n">
@@ -3928,7 +3941,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="68" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
   <si>
     <t>Ngay</t>
   </si>
@@ -387,7 +387,19 @@
     <t>51;92;59;01;34;66;26;76;67;56;77;73;42;71;36;13;06;95;44;44;11;11;37;22;25;29;06</t>
   </si>
   <si>
-    <t>161 &gt;</t>
+    <t>161 &gt; xit</t>
+  </si>
+  <si>
+    <t>84;78;00;97;83;64;74;28;89;45;33;39;68;92;90;82;69;87;55;15;28;15;63;13;62;33;46 </t>
+  </si>
+  <si>
+    <t>58;62;89;80;66;84;75;75;11;19;57;45;73;59;62;17;02;51;43;16;63;24;82;72;50;86;13</t>
+  </si>
+  <si>
+    <t>63;40;31;12;80;88;09;77;43;46;21;74;45;65;01;75;08;55;26;22;41;97;21;72;91;63;80</t>
+  </si>
+  <si>
+    <t>121 &gt;</t>
   </si>
   <si>
     <t>30 / 12</t>
@@ -624,22 +636,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.62352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.65882352941177"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.69803921568628"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.04705882352941"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1411764705882"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2039215686275"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2375,26 +2387,31 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O30" activeCellId="0" pane="topLeft" sqref="O30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" topLeftCell="B8" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A8" activeCellId="0" pane="bottomLeft" sqref="A8"/>
+      <selection activeCell="B31" activeCellId="0" pane="bottomRight" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.09803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.76862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.4666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.13725490196079"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.80392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.1921568627451"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.0705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.8"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.1607843137255"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -3242,7 +3259,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>106</v>
       </c>
@@ -3288,7 +3305,7 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="9" t="s">
         <v>107</v>
       </c>
       <c r="P19" s="19"/>
@@ -3650,8 +3667,8 @@
       <c r="O26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="5" t="s">
-        <v>49</v>
+      <c r="P26" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
@@ -3700,152 +3717,169 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
+      <c r="B28" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
+      <c r="O28" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>125</v>
+      </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="O29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="P30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
@@ -3941,7 +3975,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="98" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="T1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="T2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
   <si>
     <t>Ngay</t>
   </si>
@@ -390,7 +391,7 @@
     <t>161 &gt; xit</t>
   </si>
   <si>
-    <t>84;78;00;97;83;64;74;28;89;45;33;39;68;92;90;82;69;87;55;15;28;15;63;13;62;33;46 </t>
+    <t>84;78;00;97;83;64;74;28;89;45;33;39;68;92;90;82;69;87;55;15;28;15;63;13;62;33;46</t>
   </si>
   <si>
     <t>58;62;89;80;66;84;75;75;11;19;57;45;73;59;62;17;02;51;43;16;63;24;82;72;50;86;13</t>
@@ -399,10 +400,82 @@
     <t>63;40;31;12;80;88;09;77;43;46;21;74;45;65;01;75;08;55;26;22;41;97;21;72;91;63;80</t>
   </si>
   <si>
-    <t>121 &gt;</t>
+    <t>121 &gt; xit</t>
+  </si>
+  <si>
+    <t>62;09;25;50;28;17;95;55;33;02;94;82;40;83;29;42;36;14;06;98;55;55;80;78;07;44;23</t>
+  </si>
+  <si>
+    <t>99;58;15;71;64;37;86;98;54;63;27;85;22;00;88;74;79;95;78;69;42;67;16;00;26;72;39</t>
   </si>
   <si>
     <t>30 / 12</t>
+  </si>
+  <si>
+    <t>01 / 2</t>
+  </si>
+  <si>
+    <t>16;81;98;93;86;68;12;55;25;47;36;96;02;02;29;23;81;12;75;70;39;66;15;22;61;75;38 </t>
+  </si>
+  <si>
+    <t>262 &gt; 26 62</t>
+  </si>
+  <si>
+    <t>24;02;15;90;81;94;19;25;26;49;41;72;87;09;25;16;15;21;59;60;66;37;62;64;55;91;67 </t>
+  </si>
+  <si>
+    <t>66;09;29;95;03;83;44;03;57;10;31;52;10;97;27;62;34;74;29;90;32;13;40;26;85;35;71 </t>
+  </si>
+  <si>
+    <t>030 &gt; 30</t>
+  </si>
+  <si>
+    <t>33;98;57;99;16;31;67;68;30;73;42;73;92;49;73;91;17;43;33;34;72;53;17;96;74;62;18 </t>
+  </si>
+  <si>
+    <t>373 &gt; 73</t>
+  </si>
+  <si>
+    <t>14;96;35;47;18;81;48;27;73;87;07;23;84;65;15;09;34;34;97;65;72;56;17;68;33;66;52 </t>
+  </si>
+  <si>
+    <t>676 &gt; 67</t>
+  </si>
+  <si>
+    <t>45;67;72;74;97;15;12;12;33;42;01;45;19;32;01;56;26;25;52;06;94;02;45;65;61;53;25 </t>
+  </si>
+  <si>
+    <t>48;00;49;24;35;03;32;16;45;82;91;17;07;26;33;05;74;60;42;50;02;05;62;79;21;28;53 </t>
+  </si>
+  <si>
+    <t>29;05;43;49;51;04;16;32;94;41;16;72;94;94;52;27;43;48;22;25;03;15;66;05;22;72;83 </t>
+  </si>
+  <si>
+    <t>242 &gt; 24</t>
+  </si>
+  <si>
+    <t>01;15;59;16;47;90;32;23;26;37;24;17;39;58;54;05;99;21;70;13;32;09;60;57;09;00;32 </t>
+  </si>
+  <si>
+    <t>030 &gt; 03 03 30</t>
+  </si>
+  <si>
+    <t>95;82;48;29;47;18;01;27;39;03;27;28;70;42;17;64;94;03;21;02;60;44;85;30;79;68;20 </t>
+  </si>
+  <si>
+    <t>020 &gt; 02</t>
+  </si>
+  <si>
+    <t>08;23;52;84;10;26;62;00;28;80;94;08;02;04;26;23;78;22;96;69;88;96;24;58;59;33;63</t>
+  </si>
+  <si>
+    <t>282 &gt; </t>
+  </si>
+  <si>
+    <t>14 / 2</t>
+  </si>
+  <si>
+    <t>26 / 2</t>
   </si>
 </sst>
 </file>
@@ -539,7 +612,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -612,6 +685,13 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -636,22 +716,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.65882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.49803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.17647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.69803921568628"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.7098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.06274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.73333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.75294117647059"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.11764705882353"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2039215686275"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.9803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2387,31 +2465,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B8" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A8" activeCellId="0" pane="bottomLeft" sqref="A8"/>
-      <selection activeCell="B31" activeCellId="0" pane="bottomRight" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.4666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.13725490196079"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.80392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.8078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.243137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.87843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26274509803922"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.1607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.3411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -3259,7 +3333,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>106</v>
       </c>
@@ -3618,7 +3692,7 @@
       </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
         <v>120</v>
       </c>
@@ -3671,7 +3745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
         <v>122</v>
       </c>
@@ -3724,7 +3798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>124</v>
       </c>
@@ -3775,7 +3849,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
         <v>67</v>
       </c>
@@ -3831,7 +3905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>126</v>
       </c>
@@ -3877,96 +3951,105 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="9" t="s">
         <v>127</v>
       </c>
       <c r="P30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+      <c r="B31" s="0" t="s">
+        <v>128</v>
+      </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="8" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
+      <c r="O31" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="P31" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+      <c r="B32" s="0" t="s">
+        <v>129</v>
+      </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
@@ -3975,7 +4058,1652 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
+      <selection activeCell="E11" activeCellId="0" pane="bottomRight" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.19607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1882352941177"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.87843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.3411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+      <c r="B6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+      <c r="B7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
+      <c r="B10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
+      <c r="B11" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
+      <c r="B12" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+      <c r="B13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="14">
+      <c r="B14" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+      <c r="B15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+      <c r="B16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="98" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="238" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
   <si>
     <t>Ngay</t>
   </si>
@@ -415,52 +415,52 @@
     <t>01 / 2</t>
   </si>
   <si>
-    <t>16;81;98;93;86;68;12;55;25;47;36;96;02;02;29;23;81;12;75;70;39;66;15;22;61;75;38 </t>
+    <t>16;81;98;93;86;68;12;55;25;47;36;96;02;02;29;23;81;12;75;70;39;66;15;22;61;75;38</t>
   </si>
   <si>
     <t>262 &gt; 26 62</t>
   </si>
   <si>
-    <t>24;02;15;90;81;94;19;25;26;49;41;72;87;09;25;16;15;21;59;60;66;37;62;64;55;91;67 </t>
-  </si>
-  <si>
-    <t>66;09;29;95;03;83;44;03;57;10;31;52;10;97;27;62;34;74;29;90;32;13;40;26;85;35;71 </t>
+    <t>24;02;15;90;81;94;19;25;26;49;41;72;87;09;25;16;15;21;59;60;66;37;62;64;55;91;67</t>
+  </si>
+  <si>
+    <t>66;09;29;95;03;83;44;03;57;10;31;52;10;97;27;62;34;74;29;90;32;13;40;26;85;35;71</t>
   </si>
   <si>
     <t>030 &gt; 30</t>
   </si>
   <si>
-    <t>33;98;57;99;16;31;67;68;30;73;42;73;92;49;73;91;17;43;33;34;72;53;17;96;74;62;18 </t>
+    <t>33;98;57;99;16;31;67;68;30;73;42;73;92;49;73;91;17;43;33;34;72;53;17;96;74;62;18</t>
   </si>
   <si>
     <t>373 &gt; 73</t>
   </si>
   <si>
-    <t>14;96;35;47;18;81;48;27;73;87;07;23;84;65;15;09;34;34;97;65;72;56;17;68;33;66;52 </t>
+    <t>14;96;35;47;18;81;48;27;73;87;07;23;84;65;15;09;34;34;97;65;72;56;17;68;33;66;52</t>
   </si>
   <si>
     <t>676 &gt; 67</t>
   </si>
   <si>
-    <t>45;67;72;74;97;15;12;12;33;42;01;45;19;32;01;56;26;25;52;06;94;02;45;65;61;53;25 </t>
-  </si>
-  <si>
-    <t>48;00;49;24;35;03;32;16;45;82;91;17;07;26;33;05;74;60;42;50;02;05;62;79;21;28;53 </t>
-  </si>
-  <si>
-    <t>29;05;43;49;51;04;16;32;94;41;16;72;94;94;52;27;43;48;22;25;03;15;66;05;22;72;83 </t>
+    <t>45;67;72;74;97;15;12;12;33;42;01;45;19;32;01;56;26;25;52;06;94;02;45;65;61;53;25</t>
+  </si>
+  <si>
+    <t>48;00;49;24;35;03;32;16;45;82;91;17;07;26;33;05;74;60;42;50;02;05;62;79;21;28;53</t>
+  </si>
+  <si>
+    <t>29;05;43;49;51;04;16;32;94;41;16;72;94;94;52;27;43;48;22;25;03;15;66;05;22;72;83</t>
   </si>
   <si>
     <t>242 &gt; 24</t>
   </si>
   <si>
-    <t>01;15;59;16;47;90;32;23;26;37;24;17;39;58;54;05;99;21;70;13;32;09;60;57;09;00;32 </t>
+    <t>01;15;59;16;47;90;32;23;26;37;24;17;39;58;54;05;99;21;70;13;32;09;60;57;09;00;32</t>
   </si>
   <si>
     <t>030 &gt; 03 03 30</t>
   </si>
   <si>
-    <t>95;82;48;29;47;18;01;27;39;03;27;28;70;42;17;64;94;03;21;02;60;44;85;30;79;68;20 </t>
+    <t>95;82;48;29;47;18;01;27;39;03;27;28;70;42;17;64;94;03;21;02;60;44;85;30;79;68;20</t>
   </si>
   <si>
     <t>020 &gt; 02</t>
@@ -469,13 +469,91 @@
     <t>08;23;52;84;10;26;62;00;28;80;94;08;02;04;26;23;78;22;96;69;88;96;24;58;59;33;63</t>
   </si>
   <si>
-    <t>282 &gt; </t>
-  </si>
-  <si>
     <t>14 / 2</t>
   </si>
   <si>
+    <t>79;10;36;75;18;24;87;61;11;53;88;76;22;06;88;66;29;02;27;99;03;20;10;47;39;35;19</t>
+  </si>
+  <si>
+    <t>36;73;50;77;83;05;51;67;95;62;41;66;09;52;15;80;50;85;09;09;67;19;62;96;43;32;68</t>
+  </si>
+  <si>
+    <t>565 &gt; xit</t>
+  </si>
+  <si>
+    <t>12;58;36;40;46;44;19;33;13;52;30;67;85;13;75;72;66;78;85;12;11;63;78;76;90;13;97</t>
+  </si>
+  <si>
+    <t>131 &gt; xit</t>
+  </si>
+  <si>
+    <t>12 12</t>
+  </si>
+  <si>
+    <t>96;14;10;22;32;24;47;26;05;42;14;71;76;92;32;28;14;98;10;73;47;39;73;03;45;36;16</t>
+  </si>
+  <si>
+    <t>37;55;82;76;90;87;72;29;14;29;01;36;64;39;54;58;74;87;59;46;58;45;77;56;55;63;08</t>
+  </si>
+  <si>
+    <t>575 &gt; 75</t>
+  </si>
+  <si>
+    <t>64;83;03;30;75;98;18;05;46;45;12;10;84;66;06;82;92;74;16;74;35;97;44;54;64;47;82</t>
+  </si>
+  <si>
+    <t>464 &gt; xit</t>
+  </si>
+  <si>
+    <t>56;66;02;61;65;90;32;19;36;04;41;13;17;17;30;12;92;68;00;76;82;21;50;78;24;86;17</t>
+  </si>
+  <si>
+    <t>89;83;88;38;23;45;05;07;83;73;31;21;48;70;48;82;41;54;92;79;76;63;20;15;74;53;76</t>
+  </si>
+  <si>
+    <t>383 &gt; 83</t>
+  </si>
+  <si>
+    <t>17;30;37;32;47;55;36;72;75;19;66;33;71;11;96;87;06;61;52;82;48;89;83;99;55;97;58 </t>
+  </si>
+  <si>
+    <t>575 &gt; xit</t>
+  </si>
+  <si>
+    <t>14;45;36;05;12;84;84;54;16;54;73;84;69;93;05;56;43;38;78;54;12;80;48;45;80;19;22 </t>
+  </si>
+  <si>
+    <t>484 &gt; 48</t>
+  </si>
+  <si>
+    <t>47;16;03;98;07;57;21;62;47;29;30;44;92;26;80;44;62;60;29;67;87;93;48;37;63;62;52 </t>
+  </si>
+  <si>
+    <t>262 &gt; xit</t>
+  </si>
+  <si>
+    <t>42;67;16;10;43;20;38;20;92;51;90;08;21;43;92;33;16;47;54;51;70;65;19;65;00;06;78 </t>
+  </si>
+  <si>
+    <t>010 &gt; xit</t>
+  </si>
+  <si>
     <t>26 / 2</t>
+  </si>
+  <si>
+    <t>08;52;19;35;62;24;91;45;20;13;64;65;41;84;65;16;61;42;44;16;00;97;68;47;02;21;33 </t>
+  </si>
+  <si>
+    <t>48;70;62;38;58;16;29;65;59;17;86;29;70;62;04;54;12;97;81;67;49;75;92;54;47;73;53 </t>
+  </si>
+  <si>
+    <t>36;41;47;09;17;78;19;68;31;15;98;25;04;28;84;78;54;38;49;07;94;17;74;94;32;30;18 </t>
+  </si>
+  <si>
+    <t>15;35;06;64;94;45;23;35;22;49;95;58;36;01;11;65;96;21;53;52;82;91;22;00;87;07;83 </t>
+  </si>
+  <si>
+    <t>252 &gt; </t>
   </si>
 </sst>
 </file>
@@ -716,20 +794,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.7098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.06274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.73333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.75294117647059"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.84313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.67843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.34117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.22745098039216"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.9803921568627"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2465,27 +2545,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O17" activeCellId="0" pane="topLeft" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.243137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.87843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.37254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="17.9803921568627"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.3411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -3274,7 +3354,7 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="20" t="s">
         <v>103</v>
       </c>
       <c r="P17" s="21" t="s">
@@ -4212,30 +4292,30 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" topLeftCell="B11" xSplit="1" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="E11" activeCellId="0" pane="bottomRight" sqref="E11"/>
+      <selection activeCell="A11" activeCellId="0" pane="bottomLeft" sqref="A11"/>
+      <selection activeCell="G15" activeCellId="0" pane="bottomRight" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.19607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.1882352941177"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.87843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.37254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.3411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4390,7 +4470,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>132</v>
       </c>
@@ -4441,7 +4521,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>134</v>
       </c>
@@ -4492,7 +4572,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>135</v>
       </c>
@@ -4543,7 +4623,7 @@
       </c>
       <c r="P8" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>137</v>
@@ -4595,7 +4675,7 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>139</v>
       </c>
@@ -4648,7 +4728,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
         <v>141</v>
       </c>
@@ -4699,7 +4779,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>142</v>
       </c>
@@ -4750,7 +4830,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>143</v>
       </c>
@@ -4803,7 +4883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
         <v>145</v>
       </c>
@@ -4856,7 +4936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>147</v>
       </c>
@@ -4907,7 +4987,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>149</v>
       </c>
@@ -4953,752 +5033,840 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="21"/>
+      <c r="O17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="13" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="13" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+      <c r="O18" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+      <c r="B19" s="0" t="s">
+        <v>154</v>
+      </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="10" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="O19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+      <c r="B20" s="0" t="s">
+        <v>157</v>
+      </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+      <c r="B21" s="0" t="s">
+        <v>158</v>
+      </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="8" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="8" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+      <c r="O21" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+      <c r="B22" s="0" t="s">
+        <v>160</v>
+      </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="8" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
+      <c r="O22" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="P22" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+      <c r="B23" s="0" t="s">
+        <v>162</v>
+      </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
+      <c r="O23" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="P23" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="B24" s="0" t="s">
+        <v>163</v>
+      </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" s="8" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="25">
+      <c r="B25" s="0" t="s">
+        <v>165</v>
+      </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="8" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="26">
+      <c r="B26" s="0" t="s">
+        <v>167</v>
+      </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="8" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="8" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="P26" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
+        <v>169</v>
+      </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="8" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="P27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
-      <c r="C28" s="7" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
+      <c r="B28" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="8" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>174</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="P29" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
+        <v>175</v>
+      </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" s="8" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" s="8" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="P30" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="31">
+      <c r="B31" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="8" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" s="8" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="26"/>
+      <c r="O31" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="32">
+      <c r="B32" s="0" t="s">
+        <v>177</v>
+      </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="8" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="P32" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="238" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="523" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="T1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="T2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="T3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="190">
   <si>
     <t>Ngay</t>
   </si>
@@ -514,46 +515,79 @@
     <t>383 &gt; 83</t>
   </si>
   <si>
-    <t>17;30;37;32;47;55;36;72;75;19;66;33;71;11;96;87;06;61;52;82;48;89;83;99;55;97;58 </t>
+    <t>17;30;37;32;47;55;36;72;75;19;66;33;71;11;96;87;06;61;52;82;48;89;83;99;55;97;58</t>
   </si>
   <si>
     <t>575 &gt; xit</t>
   </si>
   <si>
-    <t>14;45;36;05;12;84;84;54;16;54;73;84;69;93;05;56;43;38;78;54;12;80;48;45;80;19;22 </t>
+    <t>14;45;36;05;12;84;84;54;16;54;73;84;69;93;05;56;43;38;78;54;12;80;48;45;80;19;22</t>
   </si>
   <si>
     <t>484 &gt; 48</t>
   </si>
   <si>
-    <t>47;16;03;98;07;57;21;62;47;29;30;44;92;26;80;44;62;60;29;67;87;93;48;37;63;62;52 </t>
+    <t>47;16;03;98;07;57;21;62;47;29;30;44;92;26;80;44;62;60;29;67;87;93;48;37;63;62;52</t>
   </si>
   <si>
     <t>262 &gt; xit</t>
   </si>
   <si>
-    <t>42;67;16;10;43;20;38;20;92;51;90;08;21;43;92;33;16;47;54;51;70;65;19;65;00;06;78 </t>
+    <t>42;67;16;10;43;20;38;20;92;51;90;08;21;43;92;33;16;47;54;51;70;65;19;65;00;06;78</t>
   </si>
   <si>
     <t>010 &gt; xit</t>
   </si>
   <si>
+    <t>08;52;19;35;62;24;91;45;20;13;64;65;41;84;65;16;61;42;44;16;00;97;68;47;02;21;33</t>
+  </si>
+  <si>
+    <t>48;70;62;38;58;16;29;65;59;17;86;29;70;62;04;54;12;97;81;67;49;75;92;54;47;73;53</t>
+  </si>
+  <si>
+    <t>28 / 2</t>
+  </si>
+  <si>
+    <t>36;41;47;09;17;78;19;68;31;15;98;25;04;28;84;78;54;38;49;07;94;17;74;94;32;30;18</t>
+  </si>
+  <si>
+    <t>15;35;06;64;94;45;23;35;22;49;95;58;36;01;11;65;96;21;53;52;82;91;22;00;87;07;83</t>
+  </si>
+  <si>
+    <t>252 &gt;</t>
+  </si>
+  <si>
+    <t>01;65;00;36;17;38;67;91;44;84;73;14;34;04;01;11;78;97;00;83;47;37;97;88;23;99;42 </t>
+  </si>
+  <si>
+    <t>373 &gt; 37</t>
+  </si>
+  <si>
+    <t>79;42;23;13;24;87;39;17;38;91;37;09;33;55;88;01;77;30;98;93;69;57;17;19;33;12;87 </t>
+  </si>
+  <si>
+    <t>464 &gt; 64</t>
+  </si>
+  <si>
+    <t>36;55;15;41;31;69;64;12;26;99;90;45;49;72;78;61;54;76;84;67;20;30;47;37;56;06;04 </t>
+  </si>
+  <si>
+    <t>141 &gt; 14</t>
+  </si>
+  <si>
+    <t>82;12;37;70;10;37;48;14;43;17;84;40;05;54;08;74;15;52;70;15;47;82;43;08;16;64;21 </t>
+  </si>
+  <si>
+    <t>494 &gt; 94 94 49</t>
+  </si>
+  <si>
+    <t>60;59;89;13;78;62;57;84;84;58;48;75;94;44;94;14;53;30;76;96;22;21;29;08;63;49;03 </t>
+  </si>
+  <si>
+    <t>484 &gt;</t>
+  </si>
+  <si>
     <t>26 / 2</t>
-  </si>
-  <si>
-    <t>08;52;19;35;62;24;91;45;20;13;64;65;41;84;65;16;61;42;44;16;00;97;68;47;02;21;33 </t>
-  </si>
-  <si>
-    <t>48;70;62;38;58;16;29;65;59;17;86;29;70;62;04;54;12;97;81;67;49;75;92;54;47;73;53 </t>
-  </si>
-  <si>
-    <t>36;41;47;09;17;78;19;68;31;15;98;25;04;28;84;78;54;38;49;07;94;17;74;94;32;30;18 </t>
-  </si>
-  <si>
-    <t>15;35;06;64;94;45;23;35;22;49;95;58;36;01;11;65;96;21;53;52;82;91;22;00;87;07;83 </t>
-  </si>
-  <si>
-    <t>252 &gt; </t>
   </si>
 </sst>
 </file>
@@ -794,22 +828,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.67843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.34117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.3647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.87843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.37647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26274509803922"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.2509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3411764705882"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2551,21 +2585,21 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.4274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.2509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.3411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4291,31 +4325,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B11" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A11" activeCellId="0" pane="bottomLeft" sqref="A11"/>
-      <selection activeCell="G15" activeCellId="0" pane="bottomRight" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.7176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4078431372549"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5458,7 +5488,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
         <v>165</v>
       </c>
@@ -5509,7 +5539,7 @@
       </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
         <v>167</v>
       </c>
@@ -5560,7 +5590,7 @@
       </c>
       <c r="P26" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
         <v>169</v>
       </c>
@@ -5611,7 +5641,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>171</v>
       </c>
@@ -5663,11 +5693,8 @@
       <c r="P28" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -5716,9 +5743,9 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -5768,6 +5795,9 @@
       <c r="P30" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="s">
+        <v>175</v>
+      </c>
       <c r="B31" s="0" t="s">
         <v>176</v>
       </c>
@@ -5818,7 +5848,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
         <v>177</v>
       </c>
@@ -5867,6 +5897,1620 @@
       <c r="O32" s="6" t="s">
         <v>178</v>
       </c>
+      <c r="P32" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.7176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.35294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+      <c r="B3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
+      <c r="B5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+      <c r="B6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+      <c r="B7" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="13" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
       <c r="P32" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="523" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="387" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
   <si>
     <t>Ngay</t>
   </si>
@@ -557,34 +557,58 @@
     <t>252 &gt;</t>
   </si>
   <si>
-    <t>01;65;00;36;17;38;67;91;44;84;73;14;34;04;01;11;78;97;00;83;47;37;97;88;23;99;42 </t>
+    <t>01;65;00;36;17;38;67;91;44;84;73;14;34;04;01;11;78;97;00;83;47;37;97;88;23;99;42</t>
   </si>
   <si>
     <t>373 &gt; 37</t>
   </si>
   <si>
-    <t>79;42;23;13;24;87;39;17;38;91;37;09;33;55;88;01;77;30;98;93;69;57;17;19;33;12;87 </t>
+    <t>79;42;23;13;24;87;39;17;38;91;37;09;33;55;88;01;77;30;98;93;69;57;17;19;33;12;87</t>
   </si>
   <si>
     <t>464 &gt; 64</t>
   </si>
   <si>
-    <t>36;55;15;41;31;69;64;12;26;99;90;45;49;72;78;61;54;76;84;67;20;30;47;37;56;06;04 </t>
+    <t>36;55;15;41;31;69;64;12;26;99;90;45;49;72;78;61;54;76;84;67;20;30;47;37;56;06;04</t>
   </si>
   <si>
     <t>141 &gt; 14</t>
   </si>
   <si>
-    <t>82;12;37;70;10;37;48;14;43;17;84;40;05;54;08;74;15;52;70;15;47;82;43;08;16;64;21 </t>
+    <t>82;12;37;70;10;37;48;14;43;17;84;40;05;54;08;74;15;52;70;15;47;82;43;08;16;64;21</t>
   </si>
   <si>
     <t>494 &gt; 94 94 49</t>
   </si>
   <si>
-    <t>60;59;89;13;78;62;57;84;84;58;48;75;94;44;94;14;53;30;76;96;22;21;29;08;63;49;03 </t>
-  </si>
-  <si>
-    <t>484 &gt;</t>
+    <t>60;59;89;13;78;62;57;84;84;58;48;75;94;44;94;14;53;30;76;96;22;21;29;08;63;49;03</t>
+  </si>
+  <si>
+    <t>90;57;39;66;63;82;48;72;75;57;03;35;14;36;77;98;08;56;20;32;61;86;26;55;79;21;70 </t>
+  </si>
+  <si>
+    <t>11;28;96;70;50;51;47;38;75;50;44;10;90;31;48;90;14;34;08;48;34;47;24;39;79;14;65 </t>
+  </si>
+  <si>
+    <t>25;81;95;23;63;46;12;82;83;25;64;61;65;21;45;40;70;37;69;13;08;10;17;17;49;27;19 </t>
+  </si>
+  <si>
+    <t>57;64;61;94;86;19;43;93;04;43;02;74;57;65;51;65;88;79;59;70;43;76;11;19;64;59;03 </t>
+  </si>
+  <si>
+    <t>30;89;43;10;10;12;14;90;73;04;74;17;86;05;74;75;00;37;80;92;25;44;93;39;61;11;22 </t>
+  </si>
+  <si>
+    <t>95;23;07;04;79;52;73;92;54;58;94;71;08;59;10;25;03;08;18;27;18;64;58;88;30;34;78 </t>
+  </si>
+  <si>
+    <t>34;84;66;45;99;68;52;46;69;15;47;57;93;72;90;58;15;00;08;30;51;17;09;52;09;78;32 </t>
+  </si>
+  <si>
+    <t>27;80;18;85;65;78;83;17;77;50;38;22;76;20;68;73;48;97;14;92;08;39;02;36;79;48;25 </t>
+  </si>
+  <si>
+    <t>65;26;06;25;56;48;87;48;67;54;76;73;54;74;04;41;56;85;40;11;57;37;98;09;45;98;04 </t>
   </si>
   <si>
     <t>26 / 2</t>
@@ -828,22 +852,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.3647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.87843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.37647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.87058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.72156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.24313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.29803921568627"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3411764705882"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4313725490196"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2585,21 +2609,21 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.8235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.2235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.3411764705882"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.4313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4330,22 +4354,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.7176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5692,7 +5716,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>173</v>
       </c>
@@ -5794,7 +5818,7 @@
       </c>
       <c r="P30" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
         <v>175</v>
       </c>
@@ -6052,26 +6076,26 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="O13" activeCellId="0" pane="topLeft" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.7176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.35294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.86666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.52156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6134,7 +6158,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>131</v>
       </c>
@@ -6188,7 +6212,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>179</v>
       </c>
@@ -6239,7 +6263,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>181</v>
       </c>
@@ -6292,7 +6316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>183</v>
       </c>
@@ -6343,7 +6367,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>185</v>
       </c>
@@ -6444,234 +6468,259 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="21"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
+      <c r="B10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="P9" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="O10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
+      <c r="B11" s="0" t="s">
+        <v>189</v>
+      </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="P11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
+      <c r="B12" s="0" t="s">
+        <v>190</v>
+      </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+      <c r="B13" s="0" t="s">
+        <v>191</v>
+      </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="P13" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+      <c r="B14" s="0" t="s">
+        <v>192</v>
+      </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -6679,45 +6728,48 @@
       <c r="P14" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+      <c r="B15" s="0" t="s">
+        <v>193</v>
+      </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
@@ -6725,45 +6777,48 @@
       <c r="P15" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+      <c r="B16" s="0" t="s">
+        <v>194</v>
+      </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
@@ -6774,45 +6829,48 @@
       <c r="A17" s="0" t="s">
         <v>150</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
@@ -6821,46 +6879,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>196</v>
+      </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
@@ -7328,7 +7388,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="387" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="286" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="208">
   <si>
     <t>Ngay</t>
   </si>
@@ -584,31 +584,61 @@
     <t>60;59;89;13;78;62;57;84;84;58;48;75;94;44;94;14;53;30;76;96;22;21;29;08;63;49;03</t>
   </si>
   <si>
-    <t>90;57;39;66;63;82;48;72;75;57;03;35;14;36;77;98;08;56;20;32;61;86;26;55;79;21;70 </t>
-  </si>
-  <si>
-    <t>11;28;96;70;50;51;47;38;75;50;44;10;90;31;48;90;14;34;08;48;34;47;24;39;79;14;65 </t>
-  </si>
-  <si>
-    <t>25;81;95;23;63;46;12;82;83;25;64;61;65;21;45;40;70;37;69;13;08;10;17;17;49;27;19 </t>
-  </si>
-  <si>
-    <t>57;64;61;94;86;19;43;93;04;43;02;74;57;65;51;65;88;79;59;70;43;76;11;19;64;59;03 </t>
-  </si>
-  <si>
-    <t>30;89;43;10;10;12;14;90;73;04;74;17;86;05;74;75;00;37;80;92;25;44;93;39;61;11;22 </t>
-  </si>
-  <si>
-    <t>95;23;07;04;79;52;73;92;54;58;94;71;08;59;10;25;03;08;18;27;18;64;58;88;30;34;78 </t>
-  </si>
-  <si>
-    <t>34;84;66;45;99;68;52;46;69;15;47;57;93;72;90;58;15;00;08;30;51;17;09;52;09;78;32 </t>
-  </si>
-  <si>
-    <t>27;80;18;85;65;78;83;17;77;50;38;22;76;20;68;73;48;97;14;92;08;39;02;36;79;48;25 </t>
-  </si>
-  <si>
-    <t>65;26;06;25;56;48;87;48;67;54;76;73;54;74;04;41;56;85;40;11;57;37;98;09;45;98;04 </t>
+    <t>90;57;39;66;63;82;48;72;75;57;03;35;14;36;77;98;08;56;20;32;61;86;26;55;79;21;70</t>
+  </si>
+  <si>
+    <t>11;28;96;70;50;51;47;38;75;50;44;10;90;31;48;90;14;34;08;48;34;47;24;39;79;14;65</t>
+  </si>
+  <si>
+    <t>25;81;95;23;63;46;12;82;83;25;64;61;65;21;45;40;70;37;69;13;08;10;17;17;49;27;19</t>
+  </si>
+  <si>
+    <t>57;64;61;94;86;19;43;93;04;43;02;74;57;65;51;65;88;79;59;70;43;76;11;19;64;59;03</t>
+  </si>
+  <si>
+    <t>494 &gt; xit</t>
+  </si>
+  <si>
+    <t>30;89;43;10;10;12;14;90;73;04;74;17;86;05;74;75;00;37;80;92;25;44;93;39;61;11;22</t>
+  </si>
+  <si>
+    <t>010 &gt; 10</t>
+  </si>
+  <si>
+    <t>95;23;07;04;79;52;73;92;54;58;94;71;08;59;10;25;03;08;18;27;18;64;58;88;30;34;78</t>
+  </si>
+  <si>
+    <t>585 &gt; 58</t>
+  </si>
+  <si>
+    <t>34;84;66;45;99;68;52;46;69;15;47;57;93;72;90;58;15;00;08;30;51;17;09;52;09;78;32</t>
+  </si>
+  <si>
+    <t>595 &gt; xit</t>
+  </si>
+  <si>
+    <t>27;80;18;85;65;78;83;17;77;50;38;22;76;20;68;73;48;97;14;92;08;39;02;36;79;48;25</t>
+  </si>
+  <si>
+    <t>65;26;06;25;56;48;87;48;67;54;76;73;54;74;04;41;56;85;40;11;57;37;98;09;45;98;04</t>
+  </si>
+  <si>
+    <t>454 &gt; 54</t>
+  </si>
+  <si>
+    <t>36;78;37;18;87;25;39;82;85;72;87;38;54;17;57;85;70;02;48;42;67;03;76;09;50;03;91 </t>
+  </si>
+  <si>
+    <t>787 &gt; xit</t>
+  </si>
+  <si>
+    <t>85;02;18;12;37;70;05;23;00;03;86;80;02;14;62;41;11;28;71;15;27;94;23;43;32;17;41 </t>
+  </si>
+  <si>
+    <t>11;70;51;93;75;02;39;59;89;32;93;56;52;89;78;00;63;88;29;19;80;16;93;31;91;60;14 </t>
+  </si>
+  <si>
+    <t>191 &gt; </t>
   </si>
   <si>
     <t>26 / 2</t>
@@ -852,22 +882,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.24313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.75294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.2078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.28235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.33333333333333"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.4313725490196"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.521568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2609,21 +2639,21 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.2235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.47843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.4313725490196"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.521568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4354,22 +4384,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.4941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.47843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6075,27 +6105,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O13" activeCellId="0" pane="topLeft" sqref="O13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O16" activeCellId="0" pane="topLeft" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.4941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.94901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.93725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.47843137254902"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.8941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6420,7 +6450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>187</v>
@@ -6472,7 +6502,7 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>188</v>
       </c>
@@ -6518,14 +6548,14 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
         <v>189</v>
       </c>
@@ -6576,7 +6606,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>190</v>
       </c>
@@ -6627,7 +6657,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>191</v>
       </c>
@@ -6673,20 +6703,20 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="20" t="s">
-        <v>186</v>
+      <c r="O13" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="P13" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="7" t="n">
+        <v>193</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
         <v>8</v>
       </c>
@@ -6724,12 +6754,14 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="20"/>
+      <c r="O14" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="P14" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -6751,7 +6783,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="8" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
         <v>7</v>
       </c>
@@ -6763,7 +6795,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
         <v>9</v>
       </c>
@@ -6773,12 +6805,14 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -6800,7 +6834,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
         <v>8</v>
       </c>
@@ -6816,21 +6850,25 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
         <v>5</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
         <v>7</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="O16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>150</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -6860,11 +6898,11 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
         <v>4</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
         <v>9</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="8" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
         <v>10</v>
       </c>
@@ -6874,13 +6912,15 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="P17" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -6898,11 +6938,11 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
         <v>2</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="13" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
         <v>10</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="13" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
         <v>9</v>
       </c>
@@ -6924,145 +6964,162 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="O18" s="27" t="s">
+        <v>201</v>
+      </c>
       <c r="P18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
+      <c r="B19" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="8" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="8" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
+      <c r="B20" s="0" t="s">
+        <v>204</v>
+      </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="21">
+      <c r="B21" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="8" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="20"/>
+      <c r="O21" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="P21" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
@@ -7388,7 +7445,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="286" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="212" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="209">
   <si>
     <t>Ngay</t>
   </si>
@@ -554,33 +554,30 @@
     <t>15;35;06;64;94;45;23;35;22;49;95;58;36;01;11;65;96;21;53;52;82;91;22;00;87;07;83</t>
   </si>
   <si>
-    <t>252 &gt;</t>
+    <t>01 / 3</t>
   </si>
   <si>
     <t>01;65;00;36;17;38;67;91;44;84;73;14;34;04;01;11;78;97;00;83;47;37;97;88;23;99;42</t>
   </si>
   <si>
+    <t>79;42;23;13;24;87;39;17;38;91;37;09;33;55;88;01;77;30;98;93;69;57;17;19;33;12;87</t>
+  </si>
+  <si>
     <t>373 &gt; 37</t>
   </si>
   <si>
-    <t>79;42;23;13;24;87;39;17;38;91;37;09;33;55;88;01;77;30;98;93;69;57;17;19;33;12;87</t>
+    <t>36;55;15;41;31;69;64;12;26;99;90;45;49;72;78;61;54;76;84;67;20;30;47;37;56;06;04</t>
   </si>
   <si>
     <t>464 &gt; 64</t>
   </si>
   <si>
-    <t>36;55;15;41;31;69;64;12;26;99;90;45;49;72;78;61;54;76;84;67;20;30;47;37;56;06;04</t>
+    <t>82;12;37;70;10;37;48;14;43;17;84;40;05;54;08;74;15;52;70;15;47;82;43;08;16;64;21</t>
   </si>
   <si>
     <t>141 &gt; 14</t>
   </si>
   <si>
-    <t>82;12;37;70;10;37;48;14;43;17;84;40;05;54;08;74;15;52;70;15;47;82;43;08;16;64;21</t>
-  </si>
-  <si>
-    <t>494 &gt; 94 94 49</t>
-  </si>
-  <si>
     <t>60;59;89;13;78;62;57;84;84;58;48;75;94;44;94;14;53;30;76;96;22;21;29;08;63;49;03</t>
   </si>
   <si>
@@ -626,19 +623,25 @@
     <t>454 &gt; 54</t>
   </si>
   <si>
-    <t>36;78;37;18;87;25;39;82;85;72;87;38;54;17;57;85;70;02;48;42;67;03;76;09;50;03;91 </t>
+    <t>36;78;37;18;87;25;39;82;85;72;87;38;54;17;57;85;70;02;48;42;67;03;76;09;50;03;91</t>
   </si>
   <si>
     <t>787 &gt; xit</t>
   </si>
   <si>
-    <t>85;02;18;12;37;70;05;23;00;03;86;80;02;14;62;41;11;28;71;15;27;94;23;43;32;17;41 </t>
-  </si>
-  <si>
-    <t>11;70;51;93;75;02;39;59;89;32;93;56;52;89;78;00;63;88;29;19;80;16;93;31;91;60;14 </t>
-  </si>
-  <si>
-    <t>191 &gt; </t>
+    <t>85;02;18;12;37;70;05;23;00;03;86;80;02;14;62;41;11;28;71;15;27;94;23;43;32;17;41</t>
+  </si>
+  <si>
+    <t>11;70;51;93;75;02;39;59;89;32;93;56;52;89;78;00;63;88;29;19;80;16;93;31;91;60;14</t>
+  </si>
+  <si>
+    <t>191 &gt; xit</t>
+  </si>
+  <si>
+    <t>58;72;97;05;12;33;32;86;44;06;98;70;51;00;68;29;88;51;22;76;38;17;63;20;31;98;54 </t>
+  </si>
+  <si>
+    <t>282 &gt;</t>
   </si>
   <si>
     <t>26 / 2</t>
@@ -878,26 +881,26 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O39" activeCellId="0" pane="topLeft" sqref="O39"/>
+      <selection activeCell="O39" activeCellId="1" pane="topLeft" sqref="I10:J10 O39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.2078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.28235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.6313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.31764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.48627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.37254901960784"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2633,27 +2636,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O17" activeCellId="0" pane="topLeft" sqref="O17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="C4" activeCellId="1" pane="topLeft" sqref="I10:J10 C4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.6196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.51764705882353"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4379,27 +4382,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="K24" activeCellId="1" pane="topLeft" sqref="I10:J10 K24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.4941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.51764705882353"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -5902,7 +5905,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
         <v>177</v>
       </c>
@@ -5948,9 +5951,7 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="O32" s="6"/>
       <c r="P32" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
@@ -6105,27 +6106,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O16" activeCellId="0" pane="topLeft" sqref="O16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.4941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.94901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.5921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.93725490196078"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.46274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61960784313725"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.97254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.51764705882353"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.9843137254902"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6188,272 +6189,268 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
-        <v>8</v>
-      </c>
       <c r="K4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>4</v>
       </c>
       <c r="L4" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
         <v>5</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
       <c r="O4" s="9" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>179</v>
       </c>
       <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+      <c r="B6" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F6" s="8" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J6" s="8" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
         <v>9</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
         <v>6</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
         <v>8</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="B6" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
-        <v>8</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
-        <v>9</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
-        <v>2</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
-        <v>5</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+      <c r="B7" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
-      <c r="B7" s="0" t="s">
-        <v>183</v>
-      </c>
       <c r="C7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="D7" s="25" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
-        <v>10</v>
-      </c>
       <c r="H7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
         <v>2</v>
       </c>
-      <c r="J7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
-        <v>6</v>
-      </c>
       <c r="L7" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
-        <v>0</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>5</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+      <c r="B8" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
-      <c r="B8" s="0" t="s">
-        <v>185</v>
-      </c>
       <c r="C8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>8</v>
       </c>
       <c r="E8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
         <v>5</v>
       </c>
       <c r="F8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>4</v>
       </c>
       <c r="G8" s="8" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>10</v>
       </c>
       <c r="H8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
         <v>5</v>
       </c>
       <c r="I8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>2</v>
       </c>
       <c r="J8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>7</v>
       </c>
       <c r="K8" s="7" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>0</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>49</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="P8" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -6502,9 +6499,9 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -6530,11 +6527,11 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="8" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
         <v>8</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="8" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
         <v>8</v>
       </c>
@@ -6557,7 +6554,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -6608,7 +6605,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -6657,9 +6654,9 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -6697,20 +6694,20 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
         <v>3</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="8" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
         <v>7</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P13" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="8" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -6755,13 +6752,13 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+      <c r="B15" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
-      <c r="B15" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -6795,7 +6792,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="8" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
         <v>9</v>
       </c>
@@ -6806,13 +6803,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+      <c r="B16" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="P15" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
-      <c r="B16" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -6834,7 +6831,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="8" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
         <v>8</v>
       </c>
@@ -6850,14 +6847,14 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
         <v>5</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="8" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
         <v>7</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>49</v>
@@ -6868,7 +6865,7 @@
         <v>150</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -6920,7 +6917,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -6965,13 +6962,13 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
       <c r="O18" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="P18" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+      <c r="B19" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="P18" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="19">
-      <c r="B19" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -7016,13 +7013,13 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+      <c r="B20" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="P19" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
-      <c r="B20" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -7073,7 +7070,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -7117,56 +7114,63 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P21" s="28"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="22">
+      <c r="B22" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="P21" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="8" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="19"/>
+      <c r="O22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
       <c r="C23" s="7" t="n">
@@ -7445,7 +7449,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="212" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="297" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
   <si>
     <t>Ngay</t>
   </si>
@@ -638,13 +638,52 @@
     <t>191 &gt; xit</t>
   </si>
   <si>
-    <t>58;72;97;05;12;33;32;86;44;06;98;70;51;00;68;29;88;51;22;76;38;17;63;20;31;98;54 </t>
-  </si>
-  <si>
-    <t>282 &gt;</t>
+    <t>58;72;97;05;12;33;32;86;44;06;98;70;51;00;68;29;88;51;22;76;38;17;63;20;31;98;54</t>
+  </si>
+  <si>
+    <t>282 &gt; 28</t>
+  </si>
+  <si>
+    <t>84;60;49;28;13;45;11;32;74;83;01;55;77;22;72;51;62;78;42;97;53;87;52;70;25;18;99</t>
+  </si>
+  <si>
+    <t>53;13;67;31;97;06;72;06;06;16;33;57;31;40;63;86;45;80;35;10;90;41;01;14;36;35;55</t>
+  </si>
+  <si>
+    <t>363 &gt; 63</t>
+  </si>
+  <si>
+    <t>61;28;50;16;02;06;55;34;41;28;88;34;48;03;33;53;93;44;35;33;75;04;63;49;45;47;41</t>
+  </si>
+  <si>
+    <t>343 &gt; 34</t>
+  </si>
+  <si>
+    <t>94;23;47;96;34;11;35;56;57;04;89;17;42;19;01;91;85;79;79;36;92;37;35;55;52;97;96</t>
+  </si>
+  <si>
+    <t>595 &gt; 95</t>
+  </si>
+  <si>
+    <t>17;77;18;95;46;17;48;18;77;29;90;47;06;57;25;91;63;73;54;60;89;13;28;89;99;78;63</t>
+  </si>
+  <si>
+    <t>797 &gt; xit</t>
+  </si>
+  <si>
+    <t>88;45;11;36;02;28;49;40;30;66;62;30;01;07;84;13;43;83;58;38;23;23;84;54;76;75;74 </t>
+  </si>
+  <si>
+    <t>343 &gt; xit</t>
   </si>
   <si>
     <t>26 / 2</t>
+  </si>
+  <si>
+    <t>82;95;84;07;55;36;48;40;53;21;07;85;30;42;67;19;78;07;90;86;02;64;41;94;18;86;27</t>
+  </si>
+  <si>
+    <t>080 &gt;</t>
   </si>
 </sst>
 </file>
@@ -881,26 +920,26 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O39" activeCellId="1" pane="topLeft" sqref="I10:J10 O39"/>
+      <selection activeCell="O39" activeCellId="0" pane="topLeft" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.31764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.37254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.83137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.37254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2637,26 +2676,25 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="1" pane="topLeft" sqref="I10:J10 C4"/>
+      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.0196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.58823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.1725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4383,26 +4421,25 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="K24" activeCellId="1" pane="topLeft" sqref="I10:J10 K24"/>
+      <selection activeCell="K24" activeCellId="0" pane="topLeft" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.58823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.7647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.1725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6107,26 +6144,25 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10:J10"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.46274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.51764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.97254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.51764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.53725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.22745098039216"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.58823529411765"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="18.9843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.7647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.1725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6189,7 +6225,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>178</v>
       </c>
@@ -6243,7 +6279,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>179</v>
       </c>
@@ -6294,7 +6330,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>180</v>
       </c>
@@ -6345,7 +6381,7 @@
       </c>
       <c r="P6" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>182</v>
       </c>
@@ -6396,7 +6432,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>184</v>
       </c>
@@ -6499,7 +6535,7 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>187</v>
       </c>
@@ -6654,7 +6690,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>190</v>
       </c>
@@ -6756,7 +6792,7 @@
       </c>
       <c r="P14" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
         <v>194</v>
       </c>
@@ -6807,7 +6843,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>196</v>
       </c>
@@ -7068,7 +7104,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
       <c r="B21" s="0" t="s">
         <v>204</v>
       </c>
@@ -7119,7 +7155,7 @@
       </c>
       <c r="P21" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
         <v>206</v>
       </c>
@@ -7165,335 +7201,373 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="20" t="s">
         <v>207</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+      <c r="B23" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="8" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="P23" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+      <c r="B24" s="0" t="s">
+        <v>209</v>
+      </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+      <c r="B25" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+      <c r="B26" s="0" t="s">
+        <v>213</v>
+      </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="O26" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
+        <v>215</v>
+      </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="8" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" s="8" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="P27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
+      <c r="B28" s="0" t="s">
+        <v>217</v>
+      </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="7" t="n">
+        <v>219</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="P29" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="297" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="227">
   <si>
     <t>Ngay</t>
   </si>
@@ -671,7 +671,7 @@
     <t>797 &gt; xit</t>
   </si>
   <si>
-    <t>88;45;11;36;02;28;49;40;30;66;62;30;01;07;84;13;43;83;58;38;23;23;84;54;76;75;74 </t>
+    <t>88;45;11;36;02;28;49;40;30;66;62;30;01;07;84;13;43;83;58;38;23;23;84;54;76;75;74</t>
   </si>
   <si>
     <t>343 &gt; xit</t>
@@ -683,7 +683,22 @@
     <t>82;95;84;07;55;36;48;40;53;21;07;85;30;42;67;19;78;07;90;86;02;64;41;94;18;86;27</t>
   </si>
   <si>
-    <t>080 &gt;</t>
+    <t>080 &gt; xit</t>
+  </si>
+  <si>
+    <t>35;24;35;41;53;30;27;39;01;01;73;66;99;33;11;65;68;29;78;76;77;61;37;45;04;68;49</t>
+  </si>
+  <si>
+    <t>11;61;45;98;02;68;89;59;47;24;69;65;50;28;18;30;21;89;59;57;58;80;86;09;90;73;80</t>
+  </si>
+  <si>
+    <t>898 &gt; xit</t>
+  </si>
+  <si>
+    <t>22;41;37;52;76;76;46;81;04;88;60;11;78;40;72;08;75;13;03;10;58;28;00;88;70;20;65 </t>
+  </si>
+  <si>
+    <t>080 &gt; </t>
   </si>
 </sst>
 </file>
@@ -924,22 +939,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.90980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.4901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.90588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.55686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.02352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.08235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.90196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.8039215686274"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.1843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.02352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.64705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.55294117647059"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.9372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.90980392156863"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -2681,20 +2694,21 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.8313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69803921568628"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="18.7960784313725"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.1725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -4425,21 +4439,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69803921568628"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.1725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -6143,26 +6158,27 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
+      <selection activeCell="O33" activeCellId="0" pane="topLeft" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.53725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.6823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.68235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.22745098039216"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.04705882352941"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33725490196079"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.25098039215686"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.15294117647059"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69803921568628"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="15.7647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.1725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
@@ -7414,7 +7430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
       <c r="B27" s="0" t="s">
         <v>215</v>
       </c>
@@ -7465,7 +7481,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>217</v>
       </c>
@@ -7516,7 +7532,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
         <v>219</v>
       </c>
@@ -7568,136 +7584,153 @@
       <c r="O29" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="P29" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+      <c r="P29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="8" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+      <c r="O30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="31">
+      <c r="B31" s="0" t="s">
+        <v>223</v>
+      </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" s="8" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="26"/>
+      <c r="O31" s="26" t="s">
+        <v>224</v>
+      </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
-      <c r="C32" s="7" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="32">
+      <c r="B32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="8" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K32" s="8" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
@@ -7705,7 +7738,9 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="P32" s="19"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,20 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="T1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="T2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="T3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="T4" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="T5" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="T6" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="366">
   <si>
     <t>Ngay</t>
   </si>
@@ -677,7 +681,7 @@
     <t>343 &gt; xit</t>
   </si>
   <si>
-    <t>26 / 2</t>
+    <t>26 / 3</t>
   </si>
   <si>
     <t>82;95;84;07;55;36;48;40;53;21;07;85;30;42;67;19;78;07;90;86;02;64;41;94;18;86;27</t>
@@ -695,10 +699,427 @@
     <t>898 &gt; xit</t>
   </si>
   <si>
-    <t>22;41;37;52;76;76;46;81;04;88;60;11;78;40;72;08;75;13;03;10;58;28;00;88;70;20;65 </t>
-  </si>
-  <si>
-    <t>080 &gt; </t>
+    <t>22;41;37;52;76;76;46;81;04;88;60;11;78;40;72;08;75;13;03;10;58;28;00;88;70;20;65</t>
+  </si>
+  <si>
+    <t>74;23;55;29;82;41;28;81;65;09;46;74;85;81;31;89;55;61;48;95;51;94;79;41;93;40;50;</t>
+  </si>
+  <si>
+    <t>454 &gt; 54 54</t>
+  </si>
+  <si>
+    <t>31 / 3</t>
+  </si>
+  <si>
+    <t>84;10;94;74;27;67;20;74;74;42;10;92;54;63;96;54;17;03;28;18;74;39;14;72;00;17;21;</t>
+  </si>
+  <si>
+    <t>41;58;42;97;25;38;64;34;99;16;93;87;91;35;78;24;04;78;05;03;43;05;40;98;30;96;53;</t>
+  </si>
+  <si>
+    <t>01 / 4</t>
+  </si>
+  <si>
+    <t>343 &gt; 43 34 43</t>
+  </si>
+  <si>
+    <t>67;95;89;68;73;73;92;10;58;87;43;13;44;34;79;56;43;82;83;32;99;26;39;58;55;28;26;</t>
+  </si>
+  <si>
+    <t>76;36;06;59;48;11;19;77;33;26;85;75;74;29;67;99;15;00;06;60;19;03;18;44;72;58;28;</t>
+  </si>
+  <si>
+    <t>93;02;14;31;86;01;89;21;99;40;25;91;80;88;87;92;54;05;84;95;40;43;11;44;39;48;96;</t>
+  </si>
+  <si>
+    <t>55;36;97;43;33;25;40;60;14;18;61;62;27;87;08;40;06;28;66;50;89;43;60;19;42;62;33;</t>
+  </si>
+  <si>
+    <t>363 &gt;</t>
+  </si>
+  <si>
+    <t>09;62;19;14;27;75;69;79;67;51;06;34;26;08;24;93;69;99;25;52;03;98;98;33;30;48;76;</t>
+  </si>
+  <si>
+    <t>696 &gt;</t>
+  </si>
+  <si>
+    <t>68;90;88;22;51;43;04;00;64;66;40;23;41;84;56;04;08;78;42;97;78;95;48;41;20;02;42;</t>
+  </si>
+  <si>
+    <t>484 &gt;</t>
+  </si>
+  <si>
+    <t>12;34;84;44;40;72;36;21;07;29;85;72;36;35;22;04;14;82;59;29;66;63;35;21;56;88;01;</t>
+  </si>
+  <si>
+    <t>242 &gt;</t>
+  </si>
+  <si>
+    <t>41;18;64;78;22;91;55;14;15;16;76;12;49;28;97;29;30;22;96;36;53;63;33;46;74;73;39;</t>
+  </si>
+  <si>
+    <t>131 &gt;</t>
+  </si>
+  <si>
+    <t>74;36;45;04;31;79;09;03;61;98;19;40;55;79;89;39;52;29;10;29;87;79;20;54;29;34;55;</t>
+  </si>
+  <si>
+    <t>595 &gt;</t>
+  </si>
+  <si>
+    <t>33;13;74;11;98;17;80;07;29;87;07;15;37;32;71;04;21;09;03;63;74;95;93;82;94;50;09;</t>
+  </si>
+  <si>
+    <t>373 &gt;</t>
+  </si>
+  <si>
+    <t>34;90;27;88;56;68;10;47;78;38;35;12;53;31;80;63;80;44;42;25;53;35;68;27;70;43;73;</t>
+  </si>
+  <si>
+    <t>383 &gt; </t>
+  </si>
+  <si>
+    <t>67;07;22;03;42;97;00;72;85;23;12;83;58;28;96;29;16;23;32;07;97;78;43;07;69;62;67;</t>
+  </si>
+  <si>
+    <t>272 &gt;</t>
+  </si>
+  <si>
+    <t>14 / 4</t>
+  </si>
+  <si>
+    <t>73;29;64;61;58;61;93;26;76;69;62;86;29;23;94;36;43;68;34;27;85;03;74;35;62;69;03;</t>
+  </si>
+  <si>
+    <t>43;45;11;39;74;88;40;41;21;19;70;28;85;54;64;21;69;65;45;24;30;72;53;85;46;20;36;</t>
+  </si>
+  <si>
+    <t>454 &gt;</t>
+  </si>
+  <si>
+    <t>06;48;85;02;84;58;52;03;79;15;50;21;47;16;53;19;21;08;77;49;30;50;41;60;56;20;25;</t>
+  </si>
+  <si>
+    <t>050 &gt;</t>
+  </si>
+  <si>
+    <t>10;64;42;35;12;69;17;33;56;54;25;13;50;19;91;66;59;60;35;39;75;59;04;93;16;82;35;</t>
+  </si>
+  <si>
+    <t>353 &gt;</t>
+  </si>
+  <si>
+    <t>71;60;52;36;88;48;14;27;98;66;52;98;49;97;48;78;56;79;62;07;78;10;27;79;99;03;32;</t>
+  </si>
+  <si>
+    <t>787 &gt;</t>
+  </si>
+  <si>
+    <t>74;11;45;02;90;17;11;71;98;27;90;30;70;04;77;60;76;20;50;00;20;66;26;27;43;32;25;</t>
+  </si>
+  <si>
+    <t>070 &gt;</t>
+  </si>
+  <si>
+    <t>08;68;12;52;05;99;84;67;63;65;44;09;21;99;86;26;09;97;40;98;11;54;88;84;88;38;83;</t>
+  </si>
+  <si>
+    <t>898 &gt;</t>
+  </si>
+  <si>
+    <t>40;34;37;86;96;84;75;44;44;19;48;41;84;68;97;17;87;64;89;98;69;75;62;18;42;28;93;</t>
+  </si>
+  <si>
+    <t>55;17;66;05;61;87;22;35;22;58;45;14;22;03;63;58;34;35;06;56;73;58;97;81;28;01;16;</t>
+  </si>
+  <si>
+    <t>252 &gt;</t>
+  </si>
+  <si>
+    <t>63;01;45;52;86;94;97;56;75;97;74;41;68;94;37;58;88;22;28;42;94;84;33;54;04;12;73;</t>
+  </si>
+  <si>
+    <t>69;81;82;10;56;12;69;33;33;97;84;47;73;63;12;28;44;96;75;93;19;76;06;49;80;19;53;</t>
+  </si>
+  <si>
+    <t>393 &gt;</t>
+  </si>
+  <si>
+    <t>77;30;26;75;35;49;31;64;59;44;48;58;78;38;24;84;84;55;54;19;40;31;71;30;51;63;03;</t>
+  </si>
+  <si>
+    <t>26 / 4</t>
+  </si>
+  <si>
+    <t>61;75;00;45;02;17;73;52;42;85;61;08;84;49;59;62;30;11;52;61;47;31;16;07;40;28;39;</t>
+  </si>
+  <si>
+    <t>010 &gt;</t>
+  </si>
+  <si>
+    <t>54;03;49;50;65;63;24;27;80;29;05;64;69;32;37;87;01;31;09;25;29;04;98;42;50;78;15;</t>
+  </si>
+  <si>
+    <t>78;11;04;65;58;08;72;51;06;54;24;03;49;88;37;11;71;60;88;57;52;76;97;40;92;83;54;</t>
+  </si>
+  <si>
+    <t>51;08;66;45;47;99;59;66;75;35;86;68;96;89;75;28;47;26;60;39;02;64;44;33;39;31;23;</t>
+  </si>
+  <si>
+    <t>30 / 4</t>
+  </si>
+  <si>
+    <t>68;20;63;13;58;41;75;29;21;86;92;08;64;38;42;19;26;10;35;52;24;88;40;83;09;43;87;</t>
+  </si>
+  <si>
+    <t>282 &gt;</t>
+  </si>
+  <si>
+    <t>94;26;62;15;42;39;96;53;54;69;98;87;70;42;83;70;51;08;31;64;92;04;33;80;87;76;40;</t>
+  </si>
+  <si>
+    <t>01 / 5</t>
+  </si>
+  <si>
+    <t>494 &gt;</t>
+  </si>
+  <si>
+    <t>52;32;58;35;19;23;39;23;09;37;81;86;85;67;39;19;42;20;48;37;98;16;52;98;28;09;01;</t>
+  </si>
+  <si>
+    <t>71;70;28;11;32;97;01;04;11;06;73;20;03;96;41;32;83;29;12;06;68;64;01;60;92;38;04;</t>
+  </si>
+  <si>
+    <t>09;11;93;15;13;23;65;44;73;51;89;42;02;39;30;63;51;82;17;36;67;61;81;18;91;79;29;</t>
+  </si>
+  <si>
+    <t>47;54;94;68;66;96;04;79;40;65;63;33;49;91;79;38;26;93;99;05;01;57;19;75;34;11;14;</t>
+  </si>
+  <si>
+    <t>48;79;93;01;12;94;69;78;50;79;00;91;16;75;74;44;79;57;35;14;69;74;21;37;19;76;14;</t>
+  </si>
+  <si>
+    <t>797 &gt;</t>
+  </si>
+  <si>
+    <t>27;03;86;28;22;02;21;93;44;24;20;85;29;06;00;59;67;72;35;90;54;29;90;46;65;88;75;</t>
+  </si>
+  <si>
+    <t>020 &gt;</t>
+  </si>
+  <si>
+    <t>85;60;83;85;52;32;55;17;44;52;27;31;24;50;08;43;68;92;17;58;96;74;58;50;69;14;88;</t>
+  </si>
+  <si>
+    <t>585 &gt;</t>
+  </si>
+  <si>
+    <t>62;45;86;79;71;21;05;91;79;24;50;95;16;41;17;57;11;49;32;81;27;46;08;54;10;09;41;</t>
+  </si>
+  <si>
+    <t>141 &gt;</t>
+  </si>
+  <si>
+    <t>42;97;98;21;65;39;10;35;76;15;44;70;71;21;54;36;26;74;54;71;72;04;84;39;40;75;93;</t>
+  </si>
+  <si>
+    <t>474 &gt;</t>
+  </si>
+  <si>
+    <t>77;76;84;69;79;04;14;64;92;45;83;69;54;51;17;62;43;71;52;93;89;14;85;63;78;85;61;</t>
+  </si>
+  <si>
+    <t>464 &gt;</t>
+  </si>
+  <si>
+    <t>03;65;15;48;65;26;25;39;27;58;47;96;72;29;93;85;20;40;62;73;05;72;78;75;38;07;18;</t>
+  </si>
+  <si>
+    <t>85;36;61;18;45;71;43;73;84;71;60;11;10;23;36;95;82;89;45;47;57;01;30;42;73;93;56;</t>
+  </si>
+  <si>
+    <t>14 / 5</t>
+  </si>
+  <si>
+    <t>11;94;45;18;51;86;87;88;81;31;87;41;00;88;02;51;89;82;80;05;49;55;04;39;02;34;96;</t>
+  </si>
+  <si>
+    <t>181 &gt;</t>
+  </si>
+  <si>
+    <t>13;99;57;59;87;86;54;28;22;31;09;62;03;22;60;71;78;41;58;71;01;88;43;31;97;43;32;</t>
+  </si>
+  <si>
+    <t>232 &gt;</t>
+  </si>
+  <si>
+    <t>53;68;67;18;77;41;79;30;81;37;75;86;53;68;09;03;82;02;93;06;34;36;38;37;01;76;55;</t>
+  </si>
+  <si>
+    <t>99;70;53;52;99;89;90;49;76;43;96;84;84;03;07;40;36;67;82;74;10;14;61;26;24;02;04;</t>
+  </si>
+  <si>
+    <t>47;72;61;59;70;06;26;40;79;69;97;10;28;85;24;98;61;39;67;17;66;00;87;90;38;89;57;</t>
+  </si>
+  <si>
+    <t>676 &gt;</t>
+  </si>
+  <si>
+    <t>30;84;41;63;10;10;70;31;60;04;79;23;91;40;32;15;28;28;24;48;68;12;02;25;57;31;42;</t>
+  </si>
+  <si>
+    <t>121 &gt;</t>
+  </si>
+  <si>
+    <t>00;00;57;19;52;54;41;81;20;99;41;62;74;50;34;10;00;81;16;09;21;15;52;88;57;51;78;</t>
+  </si>
+  <si>
+    <t>96;94;86;16;83;92;19;67;63;54;72;01;77;14;64;54;08;28;69;47;37;31;60;74;99;19;78;</t>
+  </si>
+  <si>
+    <t>29;92;95;21;56;18;89;43;07;87;90;64;67;24;52;94;02;13;40;96;80;13;47;77;21;59;54;</t>
+  </si>
+  <si>
+    <t>292 &gt;</t>
+  </si>
+  <si>
+    <t>96;43;61;33;26;05;03;85;65;49;02;23;14;05;97;01;42;81;39;21;46;26;55;80;01;61;54;</t>
+  </si>
+  <si>
+    <t>161 &gt;</t>
+  </si>
+  <si>
+    <t>54;54;38;40;76;09;82;52;70;20;61;88;99;92;92;73;65;95;76;62;93;95;00;66;03;83;20;</t>
+  </si>
+  <si>
+    <t>090 &gt;</t>
+  </si>
+  <si>
+    <t>54;87;11;42;81;02;36;44;40;38;40;24;75;77;81;94;16;09;38;34;22;68;97;95;14;83;49;</t>
+  </si>
+  <si>
+    <t>26 / 5</t>
+  </si>
+  <si>
+    <t>45;51;37;29;26;80;33;04;30;47;92;53;09;22;71;68;91;64;24;91;59;95;36;11;56;34;12;</t>
+  </si>
+  <si>
+    <t>66;54;41;03;37;98;95;57;97;99;55;11;10;18;94;45;22;21;88;05;10;01;68;04;54;47;70;</t>
+  </si>
+  <si>
+    <t>97;09;73;96;93;94;99;93;24;36;10;55;31;64;33;19;03;23;51;27;43;08;52;71;64;92;51;</t>
+  </si>
+  <si>
+    <t>14;65;53;31;61;39;99;81;49;90;48;09;45;27;92;14;68;88;41;30;07;98;75;02;47;29;19;</t>
+  </si>
+  <si>
+    <t>22;32;04;40;84;50;61;21;47;28;71;94;42;01;88;04;63;30;91;59;79;11;23;64;09;06;82;</t>
+  </si>
+  <si>
+    <t>31 / 5</t>
+  </si>
+  <si>
+    <t>70;71;63;22;32;99;35;77;80;20;42;09;88;08;80;77;99;41;24;27;27;74;55;21;09;00;45;</t>
+  </si>
+  <si>
+    <t>33;05;38;87;86;68;39;89;21;14;56;03;22;39;77;47;68;03;01;84;58;33;33;03;27;70;57;</t>
+  </si>
+  <si>
+    <t>01 / 6</t>
+  </si>
+  <si>
+    <t>18;81;38;57;41;94;74;30;73;56;79;56;10;95;21;07;08;28;70;90;09;79;64;32;67;45;20;</t>
+  </si>
+  <si>
+    <t>06;49;55;14;31;42;38;78;27;47;57;86;25;39;17;99;66;12;86;72;93;75;09;44;63;98;72;</t>
+  </si>
+  <si>
+    <t>11;00;62;29;78;00;71;67;93;16;80;57;07;26;56;23;44;02;40;03;77;93;17;83;31;92;89;</t>
+  </si>
+  <si>
+    <t>98;01;29;11;49;20;37;08;76;79;44;44;76;75;09;69;53;45;37;87;78;77;18;28;46;48;24;</t>
+  </si>
+  <si>
+    <t>41;96;49;67;61;16;73;78;44;19;69;80;15;70;71;81;66;51;68;87;47;00;15;24;99;07;59;</t>
+  </si>
+  <si>
+    <t>39;90;45;19;82;15;41;46;53;08;18;10;39;68;64;33;62;86;65;13;87;49;62;24;07;56;86;</t>
+  </si>
+  <si>
+    <t>79;08;31;67;60;17;18;32;56;21;67;53;39;85;35;72;63;16;73;96;79;88;17;11;31;86;15;</t>
+  </si>
+  <si>
+    <t>60;28;28;35;75;55;60;23;16;03;46;72;87;93;30;70;15;15;70;11;16;29;96;50;58;47;91;</t>
+  </si>
+  <si>
+    <t>89;79;62;81;18;76;88;70;94;25;07;54;81;56;79;06;11;40;67;57;98;16;64;25;40;93;73;</t>
+  </si>
+  <si>
+    <t>;51;26;65;05;16;32;53;94;40;57;68;32;92;35;46;73;56;31;79;11;09;46;91;82;75;49;46;</t>
+  </si>
+  <si>
+    <t>;52;73;94;23;26;05;86;00;47;20;33;34;22;37;32;87;50;79;21;24;95;54;33;21;29;26;61;</t>
+  </si>
+  <si>
+    <t>;85;82;29;41;04;39;15;14;26;87;14;89;89;09;87;25;26;86;34;17;98;76;90;35;45;69;63;</t>
+  </si>
+  <si>
+    <t>14 / 6</t>
+  </si>
+  <si>
+    <t>39;58;79;29;27;32;02;76;11;40;64;34;17;79;16;99;88;96;64;21;46;87;08;75;00;96;72;</t>
+  </si>
+  <si>
+    <t>;39;21;30;80;29;23;44;30;27;09;48;41;66;76;03;40;11;15;88;13;11;24;48;10;21;94;65;</t>
+  </si>
+  <si>
+    <t>;38;79;28;09;94;72;31;07;77;14;90;26;17;86;00;10;12;89;61;45;77;30;96;87;06;00;27;</t>
+  </si>
+  <si>
+    <t>;63;74;09;76;43;74;93;83;74;23;01;04;81;72;27;21;02;80;45;07;06;18;98;22;00;90;39;</t>
+  </si>
+  <si>
+    <t>43;72;63;37;44;63;47;86;27;70;63;63;69;47;94;70;15;25;87;42;24;85;22;97;61;07;96;</t>
+  </si>
+  <si>
+    <t>44;54;94;40;63;08;65;53;53;55;47;29;67;93;90;59;20;72;03;23;05;52;70;26;29;81;25;</t>
+  </si>
+  <si>
+    <t>60;13;26;48;92;93;80;59;22;69;59;95;82;13;46;20;73;75;08;50;43;73;32;53;37;90;04;</t>
+  </si>
+  <si>
+    <t>12;75;54;68;52;62;34;97;62;83;76;94;64;41;09;51;51;28;97;33;40;95;86;96;51;98;76;</t>
+  </si>
+  <si>
+    <t>38;46;30;16;63;62;21;91;75;28;76;41;98;95;35;82;51;22;91;74;44;37;98;95;90;24;70;</t>
+  </si>
+  <si>
+    <t>42;13;10;67;82;20;82;43;44;90;99;81;45;12;70;47;80;70;36;32;55;74;06;60;41;94;62;</t>
+  </si>
+  <si>
+    <t>;85;48;13;02;79;65;38;57;43;21;87;66;07;05;31;98;03;07;73;95;71;92;42;62;96;17;57;</t>
+  </si>
+  <si>
+    <t>57;17;92;10;80;66;19;65;50;29;64;25;35;23;66;20;80;56;23;65;29;29;54;85;28;53;41;</t>
+  </si>
+  <si>
+    <t>94;09;02;04;96;16;10;07;34;22;73;14;57;62;96;76;54;04;03;05;28;44;47;51;55;79;20;</t>
+  </si>
+  <si>
+    <t>40;85;41;58;23;19;36;54;60;63;73;67;96;92;83;54;63;76;22;88;44;93;99;83;99;41;90;</t>
+  </si>
+  <si>
+    <t>40;42;02;62;87;53;97;62;14;78;38;69;96;78;27;71;72;63;11;91;17;40;75;62;49;08;11;</t>
+  </si>
+  <si>
+    <t>31;38;97;96;37;24;63;41;72;32;92;90;55;78;48;73;47;46;06;61;18;42;19;06;46;43;62;</t>
+  </si>
+  <si>
+    <t>30 / 6</t>
+  </si>
+  <si>
+    <t>44;28;32;32;31;26;64;72;13;73;03;17;37;89;24;27;32;02;74;86;35;42;69;73;99;01;51;</t>
   </si>
 </sst>
 </file>
@@ -706,85 +1127,107 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="000000FF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="000000FF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000CC"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color rgb="000000FF"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color rgb="FF0000CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -796,13 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -811,151 +1254,275 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+  <cellXfs count="35">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000CC"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O39" activeCellId="0" pane="topLeft" sqref="O39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.8039215686274"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.49803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.49489795918367"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.1843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.02352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.0078431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.55294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.17857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.6530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.11734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.18877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.55102040816327"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0823529411765"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1581632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1563,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -1004,7 +1571,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1582,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1636,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1687,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +1791,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>23</v>
       </c>
@@ -1275,7 +1842,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>25</v>
@@ -1327,7 +1894,7 @@
       </c>
       <c r="P9" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
@@ -1378,7 +1945,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1996,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +2047,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>33</v>
       </c>
@@ -1531,7 +2098,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +2149,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +2200,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>39</v>
       </c>
@@ -1684,7 +2251,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
@@ -1738,7 +2305,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>44</v>
@@ -1790,7 +2357,7 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>46</v>
       </c>
@@ -1841,7 +2408,7 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>47</v>
       </c>
@@ -1894,7 +2461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>50</v>
       </c>
@@ -1945,7 +2512,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>52</v>
       </c>
@@ -1998,7 +2565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +2616,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>57</v>
       </c>
@@ -2102,7 +2669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>59</v>
       </c>
@@ -2153,7 +2720,7 @@
       </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>61</v>
       </c>
@@ -2206,7 +2773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2824,7 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>65</v>
       </c>
@@ -2308,7 +2875,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>67</v>
       </c>
@@ -2362,7 +2929,7 @@
       </c>
       <c r="P29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>69</v>
       </c>
@@ -2413,7 +2980,7 @@
       </c>
       <c r="P30" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>71</v>
       </c>
@@ -2464,7 +3031,7 @@
       </c>
       <c r="P31" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>72</v>
       </c>
@@ -2515,7 +3082,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>74</v>
       </c>
@@ -2566,7 +3133,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>76</v>
       </c>
@@ -2622,7 +3189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>79</v>
       </c>
@@ -2667,13 +3234,13 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O37" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2684,34 +3251,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0663265306123"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="19.0823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +3322,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -2760,7 +3330,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>77</v>
       </c>
@@ -2771,7 +3341,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +3397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>81</v>
       </c>
@@ -2878,7 +3448,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>83</v>
       </c>
@@ -2931,7 +3501,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>85</v>
       </c>
@@ -2982,7 +3552,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>86</v>
       </c>
@@ -3033,7 +3603,7 @@
       </c>
       <c r="P8" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>88</v>
@@ -3087,7 +3657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>90</v>
       </c>
@@ -3138,7 +3708,7 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>92</v>
       </c>
@@ -3191,7 +3761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>93</v>
       </c>
@@ -3242,7 +3812,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>95</v>
       </c>
@@ -3295,7 +3865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>97</v>
       </c>
@@ -3346,7 +3916,7 @@
       </c>
       <c r="P14" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>99</v>
       </c>
@@ -3397,7 +3967,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>100</v>
       </c>
@@ -3448,7 +4018,7 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>41</v>
       </c>
@@ -3504,7 +4074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>104</v>
@@ -3556,7 +4126,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>106</v>
       </c>
@@ -3607,7 +4177,7 @@
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>108</v>
       </c>
@@ -3658,7 +4228,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>110</v>
       </c>
@@ -3711,7 +4281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>112</v>
       </c>
@@ -3762,7 +4332,7 @@
       </c>
       <c r="P22" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>114</v>
       </c>
@@ -3813,7 +4383,7 @@
       </c>
       <c r="P23" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>116</v>
       </c>
@@ -3864,7 +4434,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>118</v>
       </c>
@@ -3915,7 +4485,7 @@
       </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>120</v>
       </c>
@@ -3968,7 +4538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>122</v>
       </c>
@@ -4021,7 +4591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>124</v>
       </c>
@@ -4072,7 +4642,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>67</v>
       </c>
@@ -4128,7 +4698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>126</v>
       </c>
@@ -4179,7 +4749,7 @@
       </c>
       <c r="P30" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>128</v>
       </c>
@@ -4230,7 +4800,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>129</v>
       </c>
@@ -4279,7 +4849,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>130</v>
       </c>
@@ -4328,7 +4898,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -4374,7 +4944,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -4419,7 +4989,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4430,34 +5000,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="K24" activeCellId="0" pane="topLeft" sqref="K24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +5071,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -4506,7 +5079,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
       <c r="M3" s="4"/>
@@ -4514,7 +5087,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>131</v>
       </c>
@@ -4563,7 +5136,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
         <v>0</v>
@@ -4609,7 +5182,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>132</v>
       </c>
@@ -4660,7 +5233,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>134</v>
       </c>
@@ -4711,7 +5284,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>135</v>
       </c>
@@ -4762,7 +5335,7 @@
       </c>
       <c r="P8" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>137</v>
@@ -4814,7 +5387,7 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>139</v>
       </c>
@@ -4867,7 +5440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>141</v>
       </c>
@@ -4918,7 +5491,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>142</v>
       </c>
@@ -4969,7 +5542,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>143</v>
       </c>
@@ -5022,7 +5595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>145</v>
       </c>
@@ -5075,7 +5648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>147</v>
       </c>
@@ -5126,7 +5699,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>149</v>
       </c>
@@ -5177,7 +5750,7 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>150</v>
       </c>
@@ -5233,7 +5806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>152</v>
@@ -5287,7 +5860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>154</v>
       </c>
@@ -5340,7 +5913,7 @@
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>157</v>
       </c>
@@ -5391,7 +5964,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>158</v>
       </c>
@@ -5444,7 +6017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>160</v>
       </c>
@@ -5495,7 +6068,7 @@
       </c>
       <c r="P22" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>162</v>
       </c>
@@ -5546,7 +6119,7 @@
       </c>
       <c r="P23" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>163</v>
       </c>
@@ -5597,7 +6170,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>165</v>
       </c>
@@ -5648,7 +6221,7 @@
       </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>167</v>
       </c>
@@ -5699,7 +6272,7 @@
       </c>
       <c r="P26" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>169</v>
       </c>
@@ -5750,7 +6323,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>171</v>
       </c>
@@ -5801,7 +6374,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>173</v>
       </c>
@@ -5852,7 +6425,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>174</v>
       </c>
@@ -5903,7 +6476,7 @@
       </c>
       <c r="P30" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>175</v>
       </c>
@@ -5957,7 +6530,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>177</v>
       </c>
@@ -6006,7 +6579,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
         <v>0</v>
@@ -6052,7 +6625,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -6098,7 +6671,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -6143,7 +6716,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6154,34 +6727,39 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100">
-      <selection activeCell="O33" activeCellId="0" pane="topLeft" sqref="O33"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33725490196079"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.25098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.15294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6222,7 +6800,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -6230,7 +6808,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>176</v>
       </c>
@@ -6241,7 +6819,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>178</v>
       </c>
@@ -6295,7 +6873,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>179</v>
       </c>
@@ -6346,7 +6924,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>180</v>
       </c>
@@ -6397,7 +6975,7 @@
       </c>
       <c r="P6" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>182</v>
       </c>
@@ -6448,7 +7026,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>184</v>
       </c>
@@ -6499,7 +7077,7 @@
       </c>
       <c r="P8" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>186</v>
@@ -6551,7 +7129,7 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>187</v>
       </c>
@@ -6604,7 +7182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>188</v>
       </c>
@@ -6655,7 +7233,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>189</v>
       </c>
@@ -6706,7 +7284,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>190</v>
       </c>
@@ -6757,7 +7335,7 @@
       </c>
       <c r="P13" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>192</v>
       </c>
@@ -6808,7 +7386,7 @@
       </c>
       <c r="P14" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>194</v>
       </c>
@@ -6859,7 +7437,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>196</v>
       </c>
@@ -6912,7 +7490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>150</v>
       </c>
@@ -6966,7 +7544,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>199</v>
@@ -7018,7 +7596,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>201</v>
       </c>
@@ -7069,7 +7647,7 @@
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>203</v>
       </c>
@@ -7120,7 +7698,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>204</v>
       </c>
@@ -7171,7 +7749,7 @@
       </c>
       <c r="P21" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>206</v>
       </c>
@@ -7224,7 +7802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>208</v>
       </c>
@@ -7275,7 +7853,7 @@
       </c>
       <c r="P23" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>209</v>
       </c>
@@ -7326,7 +7904,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>211</v>
       </c>
@@ -7377,7 +7955,7 @@
       </c>
       <c r="P25" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>213</v>
       </c>
@@ -7430,7 +8008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>215</v>
       </c>
@@ -7481,7 +8059,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>217</v>
       </c>
@@ -7532,7 +8110,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>219</v>
       </c>
@@ -7588,7 +8166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>222</v>
       </c>
@@ -7637,11 +8215,11 @@
       <c r="O30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="28" t="s">
+      <c r="P30" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>223</v>
       </c>
@@ -7692,7 +8270,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>225</v>
       </c>
@@ -7738,61 +8316,5292 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="P32" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="29" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="P7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="P9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="P11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="P14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="P15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="P17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="P18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="P21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="P27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="P28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="P29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="P31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="P32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="P33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="30"/>
+      <c r="P35" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>3</v>
       </c>
       <c r="K33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="O33" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="18" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="18" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="2"/>
+      <c r="K2" s="10"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="32" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="32" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="33" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="33" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="33" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="33" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="34" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K9" s="34" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="34" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="34" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H31" s="10" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H32" s="10" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
         <v>0</v>
@@ -7813,7 +13622,7 @@
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
         <v>0</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="10" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
         <v>0</v>
       </c>
@@ -7825,7 +13634,7 @@
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
         <v>0</v>
       </c>
-      <c r="K34" s="7" t="n">
+      <c r="K34" s="10" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
         <v>0</v>
       </c>
@@ -7835,10 +13644,10 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="O34" s="30"/>
+      <c r="P34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
         <v>0</v>
@@ -7859,7 +13668,7 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
         <v>0</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="10" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
         <v>0</v>
       </c>
@@ -7871,7 +13680,7 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
         <v>0</v>
       </c>
-      <c r="K35" s="7" t="n">
+      <c r="K35" s="10" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
         <v>0</v>
       </c>
@@ -7879,11 +13688,40 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
         <v>0</v>
       </c>
+      <c r="O35" s="30"/>
+      <c r="P35" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,14 +15,17 @@
     <sheet name="T4" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="T5" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="T6" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="T7" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="T8" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="T9" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="440">
   <si>
     <t>Ngay</t>
   </si>
@@ -777,7 +780,7 @@
     <t>34;90;27;88;56;68;10;47;78;38;35;12;53;31;80;63;80;44;42;25;53;35;68;27;70;43;73;</t>
   </si>
   <si>
-    <t>383 &gt; </t>
+    <t>383 &gt;</t>
   </si>
   <si>
     <t>67;07;22;03;42;97;00;72;85;23;12;83;58;28;96;29;16;23;32;07;97;78;43;07;69;62;67;</t>
@@ -1120,6 +1123,228 @@
   </si>
   <si>
     <t>44;28;32;32;31;26;64;72;13;73;03;17;37;89;24;27;32;02;74;86;35;42;69;73;99;01;51;</t>
+  </si>
+  <si>
+    <t>44;28;32;32;31;26;64;72;13;73;03;17;37;89;24;27;32;02;74;86;35;42;69;73;99;01;51; </t>
+  </si>
+  <si>
+    <t>01 / </t>
+  </si>
+  <si>
+    <t>33;58;23;35;13;19;28;82;89;87;73;22;19;95;51;42;15;15;60;84;72;82;32;34;47;35;83;</t>
+  </si>
+  <si>
+    <t>60;53;99;11;75;43;81;02;69;50;15;24;02;07;34;79;68;88;69;59;11;68;41;78;11;33;43;</t>
+  </si>
+  <si>
+    <t>96;65;25;90;04;82;30;01;73;52;99;44;26;38;13;22;43;31;69;11;76;07;28;76;19;90;87;</t>
+  </si>
+  <si>
+    <t>21;95;40;42;81;82;68;43;70;64;81;14;83;10;87;83;33;88;38;02;43;54;84;27;98;96;50;</t>
+  </si>
+  <si>
+    <t>15;38;40;35;85;24;65;52;34;93;42;20;95;72;38;41;88;28;21;74;13;34;79;63;31;09;80;</t>
+  </si>
+  <si>
+    <t>45;74;40;81;69;79;20;76;08;89;20;32;99;16;18;59;06;23;91;98;94;48;77;17;26;97;94;</t>
+  </si>
+  <si>
+    <t>50;09;40;01;20;00;87;54;12;00;29;59;03;95;90;79;05;69;33;22;90;42;51;65;84;55;86;</t>
+  </si>
+  <si>
+    <t>36;94;21;92;37;00;51;77;43;88;36;47;72;84;54;66;73;78;81;05;54;45;84;71;34;37;35;</t>
+  </si>
+  <si>
+    <t>34;42;86;72;99;16;81;09;34;99;91;63;24;64;18;50;42;60;52;14;97;78;21;26;84;97;76;</t>
+  </si>
+  <si>
+    <t>16;52;10;69;85;04;10;70;69;13;52;37;00;76;69;54;50;57;01;59;87;35;24;11;52;58;61;</t>
+  </si>
+  <si>
+    <t>52;65;68;68;79;25;67;58;38;25;67;04;01;28;64;17;40;65;78;09;71;45;57;70;30;60;99;</t>
+  </si>
+  <si>
+    <t>46;61;57;45;18;70;06;00;47;45;40;86;77;11;10;84;01;83;62;96;96;95;93;10;49;60;41;</t>
+  </si>
+  <si>
+    <t>82;83;99;23;63;49;01;03;07;37;62;30;34;62;34;31;42;73;45;53;50;96;71;90;43;06;15;</t>
+  </si>
+  <si>
+    <t>14 / </t>
+  </si>
+  <si>
+    <t>34;60;14;02;37;06;34;45;92;29;68;57;77;00;20;70;11;67;43;89;56;01;22;35;63;38;42;</t>
+  </si>
+  <si>
+    <t>81;54;59;20;48;11;44;62;49;86;74;62;34;20;13;49;73;73;25;70;20;97;09;99;45;96;95;</t>
+  </si>
+  <si>
+    <t>55;50;21;20;00;76;14;31;87;03;43;57;37;30;99;07;71;15;38;65;08;31;01;33;91;44;56;</t>
+  </si>
+  <si>
+    <t>16;03;79;51;61;00;75;60;89;36;73;31;51;09;62;80;81;60;79;28;66;33;63;18;30;69;65;</t>
+  </si>
+  <si>
+    <t>75;12;58;67;43;20;61;60;90;59;10;84;40;28;86;96;23;51;60;02;37;09;77;68;83;65;06;</t>
+  </si>
+  <si>
+    <t>41;13;02;80;26;60;37;61;14;98;87;59;42;36;77;34;35;98;74;33;36;87;35;63;50;19;88;</t>
+  </si>
+  <si>
+    <t>26;41;24;64;12;98;16;52;80;03;84;09;48;97;20;17;16;51;85;81;49;71;34;49;07;47;97;</t>
+  </si>
+  <si>
+    <t>78;92;33;65;86;50;52;35;59;62;61;88;45;56;42;88;16;77;50;77;06;76;47;02;12;62;63;</t>
+  </si>
+  <si>
+    <t>91;90;17;85;36;72;35;24;44;92;70;13;14;06;20;18;52;86;25;24;48;71;00;16;52;79;83;</t>
+  </si>
+  <si>
+    <t>64;00;60;89;74;61;29;06;41;89;98;49;86;93;40;76;58;21;43;71;00;57;47;35;51;05;56;</t>
+  </si>
+  <si>
+    <t>87;72;63;02;30;99;67;48;41;68;06;91;72;87;98;48;47;72;09;53;64;17;69;88;00;12;54;</t>
+  </si>
+  <si>
+    <t>99;82;71;36;94;35;25;91;60;72;72;77;02;20;19;67;95;63;54;76;80;15;61;90;61;40;95;</t>
+  </si>
+  <si>
+    <t>26 / </t>
+  </si>
+  <si>
+    <t>43;38;32;00;83;18;23;97;77;13;39;24;64;92;93;89;29;99;18;50;54;07;27;12;81;04;74;</t>
+  </si>
+  <si>
+    <t>63;89;82;55;90;01;58;28;73;05;12;37;84;57;29;34;39;22;43;92;61;71;93;19;38;09;56;</t>
+  </si>
+  <si>
+    <t>24;02;08;85;34;04;85;61;62;81;65;90;00;03;45;97;04;10;68;32;24;18;93;15;96;74;89;</t>
+  </si>
+  <si>
+    <t>28;92;73;86;16;19;73;62;83;62;05;48;83;04;53;60;85;33;71;68;40;82;78;28;27;62;81;</t>
+  </si>
+  <si>
+    <t>70;02;96;04;10;72;03;32;22;16;12;96;61;15;00;53;53;16;93;78;43;81;02;91;85;22;55;</t>
+  </si>
+  <si>
+    <t>31 / </t>
+  </si>
+  <si>
+    <t>82;21;45;08;61;11;98;38;23;58;33;14;94;70;28;20;47;79;28;81;36;04;71;16;28;53;98; </t>
+  </si>
+  <si>
+    <t>88;05;77;26;73;44;08;20;62;92;31;74;85;36;63;52;92;83;37;94;89;26;22;17;11;36;89;</t>
+  </si>
+  <si>
+    <t>45;08;04;18;49;11;35;34;72;31;33;68;41;48;90;29;31;07;62;17;04;23;34;69;24;21;22;</t>
+  </si>
+  <si>
+    <t>99;30;27;16;91;39;97;44;16;55;45;87;48;48;02;44;71;05;04;66;57;99;07;02;14;12;92;</t>
+  </si>
+  <si>
+    <t>04;03;09;78;66;40;84;22;92;56;72;76;78;66;71;25;77;80;65;39;39;05;31;06;17;66;29;</t>
+  </si>
+  <si>
+    <t>05;62;66;80;09;86;93;23;21;21;79;21;33;74;50;08;35;17;37;98;09;42;42;26;12;89;04;</t>
+  </si>
+  <si>
+    <t>04;86;68;47;68;05;47;79;99;45;32;68;83;34;65;04;33;62;97;37;35;66;65;78;94;02;07;</t>
+  </si>
+  <si>
+    <t>53;03;26;73;83;32;64;23;05;80;30;01;94;31;92;46;07;52;01;24;04;53;80;59;00;85;96;</t>
+  </si>
+  <si>
+    <t>27;15;53;05;57;56;62;45;70;12;69;17;39;44;86;59;29;92;46;88;54;93;71;50;34;93;19;</t>
+  </si>
+  <si>
+    <t>89;58;22;21;38;23;27;48;55;54;43;80;10;18;76;30;88;46;05;14;17;84;17;03;71;33;74;</t>
+  </si>
+  <si>
+    <t>13;61;71;05;74;10;75;45;06;83;52;07;50;31;31;89;91;51;27;23;08;64;48;62;24;72;78;</t>
+  </si>
+  <si>
+    <t>79;87;60;41;70;41;32;56;35;54;02;54;59;16;74;71;22;08;44;11;61;79;75;69;70;55;58;</t>
+  </si>
+  <si>
+    <t>61;34;90;57;28;62;99;07;29;43;42;96;31;08;30;41;17;52;30;18;07;77;70;29;06;99;85;</t>
+  </si>
+  <si>
+    <t>63;27;07;81;93;02;94;25;90;77;86;87;69;04;38;67;49;45;42;12;99;70;96;82;98;08;52;</t>
+  </si>
+  <si>
+    <t>92;54;66;54;60;14;02;03;44;65;18;38;31;64;02;08;67;30;62;70;55;93;75;49;07;02;19;</t>
+  </si>
+  <si>
+    <t>68;97;42;65;31;63;32;84;43;52;41;49;92;34;80;54;46;49;56;20;48;85;13;90;71;65;16;</t>
+  </si>
+  <si>
+    <t>62;12;72;99;91;03;50;85;33;81;87;16;36;18;74;69;09;37;86;11;46;40;47;78;74;68;32;</t>
+  </si>
+  <si>
+    <t>59;39;22;21;09;79;21;54;03;76;46;92;35;10;17;03;16;72;07;60;84;44;92;65;67;71;18;</t>
+  </si>
+  <si>
+    <t>121 &gt; xit 141</t>
+  </si>
+  <si>
+    <t>70;98;99;70;04;11;90;19;81;98;85;94;09;37;06;84;28;64;09;81;01;74;08;50;79;98;89;</t>
+  </si>
+  <si>
+    <t>97;12;72;94;38;94;26;05;40;30;27;87;97;25;34;67;98;74;42;91;63;14;93;40;95;85;13;</t>
+  </si>
+  <si>
+    <t>64;19;92;55;19;31;30;34;69;48;46;16;92;74;58;70;45;75;27;05;15;37;20;30;66;87;64;</t>
+  </si>
+  <si>
+    <t>29;49;79;67;15;92;79;41;79;83;19;44;64;17;12;84;74;35;32;33;19;24;63;25;83;94;69;</t>
+  </si>
+  <si>
+    <t>88;00;19;06;60;67;31;51;60;94;18;37;33;23;05;43;11;34;55;09;26;68;67;73;89;38;72;</t>
+  </si>
+  <si>
+    <t>48;05;85;73;93;52;23;24;36;25;57;36;92;11;34;76;68;50;02;00;17;50;00;13;42;58;27;</t>
+  </si>
+  <si>
+    <t>82;72;54;76;24;48;38;02;06;09;13;08;80;12;80;88;55;80;72;44;38;66;36;29;77;40;50;</t>
+  </si>
+  <si>
+    <t>97;52;13;69;57;57;16;60;07;01;15;24;83;40;67;48;47;12;14;43;17;05;28;13;40;84;12;</t>
+  </si>
+  <si>
+    <t>70;85;20;06;85;06;95;25;92;35;82;06;81;51;31;75;61;40;47;02;72;13;64;03;23;75;09;</t>
+  </si>
+  <si>
+    <t>55;47;48;45;28;58;40;62;29;99;00;73;55;52;44;63;47;46;17;13;94;31;10;72;80;16;65;</t>
+  </si>
+  <si>
+    <t>60;00;92;14;79;03;20;72;12;88;07;19;38;50;14;86;58;09;69;47;98;45;18;69;10;29;61;</t>
+  </si>
+  <si>
+    <t>49;04;41;46;10;70;71;50;69;10;26;43;22;43;16;68;23;72;63;13;01;85;78;78;77;38;79;</t>
+  </si>
+  <si>
+    <t>54;48;48;27;04;79;59;55;92;61;98;77;28;72;60;50;96;48;34;28;12;58;71;01;49;83;46;</t>
+  </si>
+  <si>
+    <t>07;14;69;10;10;51;61;82;75;82;34;60;00;90;36;61;34;94;68;60;56;44;96;37;48;05;99;</t>
+  </si>
+  <si>
+    <t>09;41;17;98;96;50;96;04;18;38;06;97;83;29;71;52;15;15;53;70;31;45;26;89;42;81;55;</t>
+  </si>
+  <si>
+    <t>48;85;12;15;32;50;71;52;96;97;28;25;35;01;66;38;09;51;27;12;02;88;59;67;43;25;68;</t>
+  </si>
+  <si>
+    <t>42;52;39;20;92;50;69;54;59;99;61;44;01;19;11;34;12;98;59;28;11;12;44;37;20;93;33;</t>
+  </si>
+  <si>
+    <t>121 * &gt; (gan dung)</t>
+  </si>
+  <si>
+    <t>90;02;29;53;52;98;37;71;24;54;14;49;47;60;04;97;79;11;62;72;69;75;48;34;83;14;20;</t>
+  </si>
+  <si>
+    <t>30 / </t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1151,6 +1376,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1253,7 +1485,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1277,33 +1509,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1311,15 +1546,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,23 +1566,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1355,79 +1658,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Red_Bold" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FFFF3333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1475,7 +1734,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1494,7 +1753,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P37"/>
@@ -1511,6 +1770,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.17857142857143"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.55102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.6530612244898"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.11734693877551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.18877551020408"/>
@@ -3248,16 +3508,1666 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="31" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="31" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="30" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="31" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="31"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="P6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="30"/>
+      <c r="P35" s="0"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H:H">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K:K">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5000,13 +6910,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6727,15 +8639,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6827,44 +8739,44 @@
         <v>177</v>
       </c>
       <c r="C4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"0",""))))</f>
+        <v>0</v>
       </c>
       <c r="D4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"1",""))))</f>
+        <v>0</v>
       </c>
       <c r="E4" s="8" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"2",""))))</f>
+        <v>0</v>
       </c>
       <c r="F4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B2)-LEN(SUBSTITUTE(B2,"3",""))))</f>
+        <v>0</v>
       </c>
       <c r="G4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>9</v>
       </c>
       <c r="H4" s="8" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>3</v>
       </c>
       <c r="I4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>2</v>
       </c>
       <c r="J4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>7</v>
       </c>
       <c r="K4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>8</v>
       </c>
       <c r="L4" s="7" t="n">
-        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>6</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
@@ -6878,43 +8790,43 @@
         <v>179</v>
       </c>
       <c r="C5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
         <v>7</v>
       </c>
       <c r="E5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
-        <v>8</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
-        <v>8</v>
-      </c>
       <c r="K5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>4</v>
       </c>
       <c r="L5" s="7" t="n">
-        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
         <v>5</v>
       </c>
       <c r="M5" s="4"/>
@@ -6929,44 +8841,44 @@
         <v>180</v>
       </c>
       <c r="C6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>6</v>
       </c>
       <c r="E6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>8</v>
       </c>
       <c r="F6" s="8" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
-        <v>11</v>
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>8</v>
       </c>
       <c r="H6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>1</v>
       </c>
       <c r="I6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
-        <v>1</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>3</v>
       </c>
       <c r="J6" s="8" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>8</v>
       </c>
       <c r="K6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
         <v>6</v>
       </c>
       <c r="L6" s="7" t="n">
-        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>5</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
@@ -6980,44 +8892,44 @@
         <v>182</v>
       </c>
       <c r="C7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>2</v>
       </c>
       <c r="F7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>7</v>
       </c>
       <c r="G7" s="8" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>2</v>
       </c>
       <c r="H7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>3</v>
       </c>
       <c r="I7" s="8" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
-        <v>6</v>
-      </c>
       <c r="K7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>6</v>
       </c>
       <c r="L7" s="7" t="n">
-        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>8</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
@@ -7031,44 +8943,44 @@
         <v>184</v>
       </c>
       <c r="C8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>3</v>
       </c>
       <c r="D8" s="8" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>7</v>
       </c>
       <c r="E8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>4</v>
       </c>
       <c r="F8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>11</v>
       </c>
       <c r="G8" s="8" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
-        <v>10</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>8</v>
       </c>
       <c r="H8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>6</v>
       </c>
       <c r="I8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
         <v>2</v>
       </c>
-      <c r="J8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
-        <v>6</v>
-      </c>
       <c r="L8" s="7" t="n">
-        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
-        <v>0</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>5</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
@@ -7083,44 +8995,44 @@
         <v>186</v>
       </c>
       <c r="C9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>5</v>
       </c>
       <c r="E9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>4</v>
       </c>
       <c r="F9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
       </c>
       <c r="G9" s="13" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>10</v>
       </c>
       <c r="H9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
         <v>5</v>
       </c>
       <c r="I9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>2</v>
       </c>
       <c r="J9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>7</v>
       </c>
       <c r="K9" s="13" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>6</v>
       </c>
       <c r="L9" s="12" t="n">
-        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>0</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
@@ -7134,44 +9046,44 @@
         <v>187</v>
       </c>
       <c r="C10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>8</v>
       </c>
       <c r="E10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>5</v>
       </c>
       <c r="F10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>4</v>
       </c>
       <c r="G10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>9</v>
       </c>
       <c r="H10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>5</v>
       </c>
       <c r="I10" s="8" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>5</v>
       </c>
       <c r="J10" s="8" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>4</v>
       </c>
       <c r="K10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>7</v>
       </c>
       <c r="L10" s="7" t="n">
-        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>7</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
@@ -7187,44 +9099,44 @@
         <v>188</v>
       </c>
       <c r="C11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>3</v>
       </c>
       <c r="E11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
-        <v>11</v>
-      </c>
       <c r="H11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>7</v>
       </c>
       <c r="I11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>8</v>
       </c>
       <c r="J11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>8</v>
       </c>
       <c r="K11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
         <v>5</v>
       </c>
       <c r="L11" s="7" t="n">
-        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>4</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
@@ -7238,44 +9150,44 @@
         <v>189</v>
       </c>
       <c r="C12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D12" s="8" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>3</v>
       </c>
       <c r="E12" s="8" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>6</v>
       </c>
       <c r="F12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>11</v>
       </c>
       <c r="H12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
         <v>5</v>
       </c>
       <c r="I12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>2</v>
       </c>
       <c r="J12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
         <v>5</v>
       </c>
       <c r="K12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>5</v>
       </c>
       <c r="L12" s="7" t="n">
-        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>5</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
@@ -7289,44 +9201,44 @@
         <v>190</v>
       </c>
       <c r="C13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>7</v>
       </c>
       <c r="D13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>7</v>
       </c>
       <c r="E13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
-        <v>1</v>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>2</v>
       </c>
       <c r="F13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
         <v>5</v>
       </c>
       <c r="G13" s="8" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>5</v>
       </c>
       <c r="H13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>5</v>
       </c>
       <c r="I13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>6</v>
       </c>
       <c r="J13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>5</v>
       </c>
       <c r="K13" s="7" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>4</v>
       </c>
       <c r="L13" s="8" t="n">
-        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>4</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
@@ -7340,44 +9252,44 @@
         <v>192</v>
       </c>
       <c r="C14" s="8" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
-        <v>8</v>
-      </c>
       <c r="E14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>7</v>
       </c>
       <c r="F14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>5</v>
       </c>
       <c r="G14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>8</v>
       </c>
       <c r="H14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>7</v>
       </c>
       <c r="I14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>7</v>
       </c>
       <c r="J14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
         <v>6</v>
       </c>
       <c r="K14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
         <v>3</v>
       </c>
       <c r="L14" s="7" t="n">
-        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>7</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -7391,43 +9303,43 @@
         <v>194</v>
       </c>
       <c r="C15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>4</v>
       </c>
       <c r="D15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>6</v>
       </c>
       <c r="E15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>1</v>
       </c>
       <c r="F15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
         <v>5</v>
       </c>
       <c r="G15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>7</v>
       </c>
       <c r="H15" s="8" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>3</v>
       </c>
       <c r="I15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
-        <v>1</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>2</v>
       </c>
       <c r="J15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
         <v>6</v>
       </c>
       <c r="K15" s="8" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>3</v>
       </c>
       <c r="L15" s="7" t="n">
-        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
         <v>5</v>
       </c>
       <c r="M15" s="4"/>
@@ -7442,44 +9354,44 @@
         <v>196</v>
       </c>
       <c r="C16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>9</v>
       </c>
       <c r="D16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>8</v>
       </c>
       <c r="E16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>5</v>
       </c>
       <c r="F16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
         <v>5</v>
       </c>
       <c r="H16" s="8" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>7</v>
       </c>
       <c r="I16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>1</v>
       </c>
       <c r="J16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>6</v>
       </c>
       <c r="K16" s="7" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>9</v>
       </c>
       <c r="L16" s="8" t="n">
-        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>5</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
@@ -7498,44 +9410,44 @@
         <v>198</v>
       </c>
       <c r="C17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>7</v>
       </c>
       <c r="D17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>5</v>
       </c>
       <c r="F17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
         <v>5</v>
       </c>
       <c r="G17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>5</v>
       </c>
       <c r="H17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>8</v>
       </c>
       <c r="I17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>5</v>
       </c>
       <c r="J17" s="8" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>5</v>
       </c>
       <c r="K17" s="8" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>10</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>5</v>
       </c>
       <c r="L17" s="7" t="n">
-        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>7</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
@@ -7550,44 +9462,44 @@
         <v>199</v>
       </c>
       <c r="C18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>7</v>
       </c>
       <c r="D18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>4</v>
       </c>
       <c r="E18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>4</v>
       </c>
       <c r="F18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>4</v>
       </c>
       <c r="G18" s="13" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
         <v>10</v>
       </c>
-      <c r="H18" s="13" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>9</v>
-      </c>
-      <c r="I18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="K18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>6</v>
-      </c>
       <c r="L18" s="12" t="n">
-        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>4</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
@@ -7601,43 +9513,43 @@
         <v>201</v>
       </c>
       <c r="C19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
         <v>3</v>
       </c>
       <c r="E19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>7</v>
       </c>
       <c r="F19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>5</v>
       </c>
       <c r="G19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>10</v>
       </c>
       <c r="H19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>9</v>
       </c>
       <c r="I19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>7</v>
       </c>
       <c r="J19" s="8" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>10</v>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>7</v>
       </c>
       <c r="K19" s="8" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>6</v>
       </c>
       <c r="L19" s="7" t="n">
-        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
         <v>3</v>
       </c>
       <c r="M19" s="4"/>
@@ -7652,44 +9564,44 @@
         <v>203</v>
       </c>
       <c r="C20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D20" s="8" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
         <v>10</v>
       </c>
-      <c r="E20" s="8" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
         <v>9</v>
       </c>
-      <c r="F20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>5</v>
-      </c>
       <c r="L20" s="7" t="n">
-        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>1</v>
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>3</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
@@ -7703,44 +9615,44 @@
         <v>204</v>
       </c>
       <c r="C21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
         <v>6</v>
       </c>
       <c r="D21" s="8" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>3</v>
       </c>
       <c r="E21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>5</v>
       </c>
       <c r="F21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
         <v>1</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>10</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
@@ -7754,44 +9666,44 @@
         <v>206</v>
       </c>
       <c r="C22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>8</v>
       </c>
       <c r="D22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>10</v>
       </c>
       <c r="E22" s="8" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>9</v>
       </c>
       <c r="F22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
         <v>6</v>
       </c>
       <c r="G22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>1</v>
       </c>
       <c r="H22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
         <v>5</v>
       </c>
       <c r="I22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>4</v>
       </c>
       <c r="J22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>3</v>
       </c>
       <c r="K22" s="8" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>6</v>
       </c>
       <c r="L22" s="7" t="n">
-        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>10</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
@@ -7807,43 +9719,43 @@
         <v>208</v>
       </c>
       <c r="C23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>6</v>
       </c>
       <c r="D23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>8</v>
       </c>
       <c r="E23" s="8" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>4</v>
       </c>
       <c r="F23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>7</v>
       </c>
       <c r="G23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>3</v>
       </c>
       <c r="H23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>5</v>
       </c>
       <c r="I23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>5</v>
       </c>
       <c r="J23" s="8" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>5</v>
       </c>
       <c r="K23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>8</v>
       </c>
       <c r="L23" s="7" t="n">
-        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
         <v>4</v>
       </c>
       <c r="M23" s="4"/>
@@ -7858,44 +9770,44 @@
         <v>209</v>
       </c>
       <c r="C24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>6</v>
       </c>
       <c r="D24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>5</v>
       </c>
       <c r="E24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>1</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>7</v>
       </c>
       <c r="F24" s="8" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>10</v>
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>5</v>
       </c>
       <c r="H24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
         <v>7</v>
       </c>
       <c r="I24" s="8" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>2</v>
       </c>
       <c r="J24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>8</v>
       </c>
       <c r="K24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>6</v>
       </c>
       <c r="L24" s="7" t="n">
-        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>4</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
@@ -7909,43 +9821,43 @@
         <v>211</v>
       </c>
       <c r="C25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>3</v>
       </c>
       <c r="D25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>6</v>
       </c>
       <c r="E25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>9</v>
       </c>
       <c r="F25" s="8" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>11</v>
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>4</v>
       </c>
       <c r="G25" s="8" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>11</v>
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>4</v>
       </c>
       <c r="H25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
         <v>7</v>
       </c>
       <c r="I25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>8</v>
       </c>
       <c r="J25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
         <v>2</v>
       </c>
-      <c r="K25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>5</v>
-      </c>
       <c r="L25" s="7" t="n">
-        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
         <v>2</v>
       </c>
       <c r="M25" s="4"/>
@@ -7960,44 +9872,44 @@
         <v>213</v>
       </c>
       <c r="C26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="D26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="F26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="H26" s="8" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>8</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>7</v>
-      </c>
       <c r="K26" s="7" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
         <v>2</v>
-      </c>
-      <c r="L26" s="8" t="n">
-        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>10</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
@@ -8013,44 +9925,44 @@
         <v>215</v>
       </c>
       <c r="C27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>5</v>
       </c>
       <c r="D27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>4</v>
       </c>
       <c r="E27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
         <v>3</v>
       </c>
       <c r="F27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>5</v>
       </c>
       <c r="H27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>8</v>
       </c>
       <c r="I27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>4</v>
       </c>
       <c r="J27" s="8" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
         <v>10</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="L27" s="8" t="n">
-        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>8</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
@@ -8064,44 +9976,44 @@
         <v>217</v>
       </c>
       <c r="C28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>2</v>
       </c>
       <c r="D28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>6</v>
       </c>
       <c r="E28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>4</v>
       </c>
       <c r="F28" s="8" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>6</v>
       </c>
       <c r="G28" s="8" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>4</v>
       </c>
       <c r="H28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
         <v>4</v>
       </c>
       <c r="I28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
         <v>5</v>
       </c>
       <c r="J28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>7</v>
       </c>
       <c r="L28" s="7" t="n">
-        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>1</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>8</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
@@ -8118,44 +10030,44 @@
         <v>220</v>
       </c>
       <c r="C29" s="8" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>3</v>
       </c>
       <c r="D29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>6</v>
       </c>
       <c r="E29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>3</v>
       </c>
       <c r="F29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>4</v>
       </c>
       <c r="G29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>8</v>
       </c>
       <c r="H29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>4</v>
       </c>
       <c r="I29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
         <v>5</v>
       </c>
       <c r="J29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>4</v>
       </c>
       <c r="K29" s="8" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
         <v>8</v>
       </c>
       <c r="L29" s="7" t="n">
-        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>1</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
@@ -8171,44 +10083,44 @@
         <v>222</v>
       </c>
       <c r="C30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>6</v>
       </c>
       <c r="D30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>4</v>
       </c>
       <c r="E30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>5</v>
       </c>
       <c r="F30" s="8" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
         <v>9</v>
       </c>
       <c r="G30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>7</v>
       </c>
       <c r="H30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
         <v>5</v>
       </c>
       <c r="I30" s="8" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>5</v>
       </c>
       <c r="J30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>6</v>
       </c>
       <c r="K30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>8</v>
       </c>
       <c r="L30" s="7" t="n">
-        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>4</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
@@ -8224,44 +10136,44 @@
         <v>223</v>
       </c>
       <c r="C31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
         <v>7</v>
       </c>
       <c r="D31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>4</v>
       </c>
       <c r="E31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>5</v>
       </c>
       <c r="F31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>5</v>
       </c>
       <c r="H31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>5</v>
       </c>
       <c r="I31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>5</v>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>7</v>
       </c>
       <c r="J31" s="7" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>7</v>
       </c>
       <c r="K31" s="8" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>10</v>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>3</v>
       </c>
       <c r="L31" s="8" t="n">
-        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>5</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
@@ -8275,44 +10187,44 @@
         <v>225</v>
       </c>
       <c r="C32" s="8" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
         <v>10</v>
       </c>
-      <c r="D32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="E32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>6</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>4</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>5</v>
-      </c>
-      <c r="J32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>7</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>9</v>
-      </c>
       <c r="L32" s="7" t="n">
-        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>8</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
@@ -8326,44 +10238,44 @@
         <v>226</v>
       </c>
       <c r="C33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>7</v>
       </c>
       <c r="D33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>5</v>
       </c>
       <c r="E33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
         <v>4</v>
       </c>
       <c r="F33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>2</v>
       </c>
       <c r="G33" s="8" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>4</v>
       </c>
       <c r="H33" s="8" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
         <v>9</v>
       </c>
-      <c r="I33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="J33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
-        <v>3</v>
-      </c>
-      <c r="K33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
-        <v>7</v>
-      </c>
       <c r="L33" s="7" t="n">
-        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>0</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
@@ -8398,28 +10310,28 @@
         <v>3</v>
       </c>
       <c r="G34" s="2" t="n">
-        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
-        <v>10</v>
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>8</v>
       </c>
       <c r="H34" s="7" t="n">
-        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
-        <v>2</v>
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>9</v>
       </c>
       <c r="I34" s="7" t="n">
-        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
         <v>3</v>
       </c>
       <c r="J34" s="2" t="n">
-        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
-        <v>9</v>
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>3</v>
       </c>
       <c r="K34" s="7" t="n">
-        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
-        <v>3</v>
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>7</v>
       </c>
       <c r="L34" s="7" t="n">
-        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>7</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
@@ -8449,28 +10361,28 @@
         <v>8</v>
       </c>
       <c r="G35" s="7" t="n">
-        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
-        <v>8</v>
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>10</v>
       </c>
       <c r="H35" s="7" t="n">
-        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>2</v>
       </c>
       <c r="I35" s="7" t="n">
-        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
         <v>3</v>
       </c>
       <c r="J35" s="7" t="n">
-        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
-        <v>4</v>
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>9</v>
       </c>
       <c r="K35" s="7" t="n">
-        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
-        <v>6</v>
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>3</v>
       </c>
       <c r="L35" s="7" t="n">
-        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
-        <v>7</v>
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8487,13 +10399,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
@@ -10230,15 +12142,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10820,7 +12732,7 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="18" t="s">
         <v>298</v>
       </c>
       <c r="P12" s="19"/>
@@ -11336,7 +13248,7 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="30" t="s">
+      <c r="O22" s="18" t="s">
         <v>315</v>
       </c>
       <c r="P22" s="28" t="s">
@@ -12015,6 +13927,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12028,15 +13945,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12044,14 +13961,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="8.55102040816327"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="18" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="9.16326530612245"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="18" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="30" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
@@ -12079,7 +13996,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -12088,7 +14005,7 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -12102,8 +14019,9 @@
       <c r="P1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="31"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="10"/>
+      <c r="K2" s="2"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6"/>
@@ -12113,8 +14031,9 @@
       <c r="B3" s="0" t="s">
         <v>332</v>
       </c>
+      <c r="H3" s="31"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="2"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
@@ -12147,7 +14066,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
         <v>4</v>
       </c>
@@ -12159,7 +14078,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
         <v>7</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
         <v>8</v>
       </c>
@@ -12196,7 +14115,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12208,7 +14127,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12245,7 +14164,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12257,7 +14176,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12294,7 +14213,7 @@
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
         <v>2</v>
       </c>
@@ -12306,7 +14225,7 @@
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
         <v>4</v>
       </c>
@@ -12343,7 +14262,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
         <v>9</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
         <v>3</v>
       </c>
@@ -12355,7 +14274,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
         <v>10</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
         <v>7</v>
       </c>
@@ -12377,7 +14296,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
         <v>9</v>
       </c>
@@ -12393,7 +14312,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H9" s="34" t="n">
+      <c r="H9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
         <v>4</v>
       </c>
@@ -12405,7 +14324,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K9" s="34" t="n">
+      <c r="K9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12442,7 +14361,7 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12454,7 +14373,7 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
         <v>7</v>
       </c>
@@ -12475,7 +14394,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
         <v>10</v>
       </c>
@@ -12491,7 +14410,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12503,7 +14422,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
         <v>6</v>
       </c>
@@ -12524,7 +14443,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
         <v>7</v>
       </c>
@@ -12540,7 +14459,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
         <v>2</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
         <v>8</v>
       </c>
@@ -12552,7 +14471,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
         <v>4</v>
       </c>
@@ -12589,7 +14508,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12601,7 +14520,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
         <v>7</v>
       </c>
@@ -12638,7 +14557,7 @@
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
         <v>8</v>
       </c>
@@ -12650,7 +14569,7 @@
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
         <v>2</v>
       </c>
@@ -12687,7 +14606,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12699,7 +14618,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
         <v>5</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
         <v>2</v>
       </c>
@@ -12736,7 +14655,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
         <v>5</v>
       </c>
@@ -12748,7 +14667,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
         <v>8</v>
       </c>
@@ -12788,7 +14707,7 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
         <v>2</v>
       </c>
@@ -12800,7 +14719,7 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12822,7 +14741,7 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
         <v>7</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
         <v>10</v>
       </c>
@@ -12834,11 +14753,11 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
         <v>6</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="34" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
         <v>8</v>
       </c>
-      <c r="H18" s="34" t="n">
+      <c r="H18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
         <v>2</v>
       </c>
@@ -12850,7 +14769,7 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="34" t="n">
+      <c r="K18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12860,7 +14779,9 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="30"/>
+      <c r="O18" s="35" t="s">
+        <v>298</v>
+      </c>
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12887,7 +14808,7 @@
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H19" s="10" t="n">
+      <c r="H19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
         <v>1</v>
       </c>
@@ -12899,7 +14820,7 @@
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
         <v>10</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12936,7 +14857,7 @@
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
         <v>1</v>
       </c>
@@ -12948,7 +14869,7 @@
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
         <v>7</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
         <v>5</v>
       </c>
@@ -12985,7 +14906,7 @@
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
         <v>8</v>
       </c>
-      <c r="H21" s="10" t="n">
+      <c r="H21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
         <v>3</v>
       </c>
@@ -12997,7 +14918,7 @@
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
         <v>10</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
         <v>3</v>
       </c>
@@ -13034,7 +14955,7 @@
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
         <v>10</v>
       </c>
@@ -13046,7 +14967,7 @@
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
         <v>2</v>
       </c>
@@ -13083,7 +15004,7 @@
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
         <v>4</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
         <v>6</v>
       </c>
@@ -13095,7 +15016,7 @@
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
         <v>4</v>
       </c>
@@ -13132,7 +15053,7 @@
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
         <v>7</v>
       </c>
@@ -13144,7 +15065,7 @@
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
         <v>5</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
         <v>5</v>
       </c>
@@ -13181,7 +15102,7 @@
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
         <v>5</v>
       </c>
@@ -13193,7 +15114,7 @@
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
         <v>5</v>
       </c>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
         <v>5</v>
       </c>
@@ -13230,7 +15151,7 @@
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
         <v>9</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
         <v>3</v>
       </c>
@@ -13242,7 +15163,7 @@
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
         <v>5</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
         <v>4</v>
       </c>
@@ -13279,7 +15200,7 @@
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
         <v>6</v>
       </c>
@@ -13291,7 +15212,7 @@
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
         <v>9</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
         <v>5</v>
       </c>
@@ -13328,7 +15249,7 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
         <v>10</v>
       </c>
@@ -13340,7 +15261,7 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
         <v>4</v>
       </c>
@@ -13377,7 +15298,7 @@
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
         <v>9</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
         <v>6</v>
       </c>
@@ -13389,7 +15310,7 @@
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
         <v>1</v>
       </c>
@@ -13426,7 +15347,7 @@
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
         <v>7</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
         <v>4</v>
       </c>
@@ -13438,7 +15359,7 @@
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
         <v>3</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
         <v>6</v>
       </c>
@@ -13459,7 +15380,7 @@
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
         <v>4</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
         <v>8</v>
       </c>
@@ -13475,7 +15396,7 @@
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
         <v>2</v>
       </c>
@@ -13487,7 +15408,7 @@
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
         <v>9</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
         <v>5</v>
       </c>
@@ -13524,7 +15445,7 @@
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
         <v>8</v>
       </c>
-      <c r="H32" s="10" t="n">
+      <c r="H32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
         <v>2</v>
       </c>
@@ -13536,7 +15457,7 @@
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K32" s="10" t="n">
+      <c r="K32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
         <v>4</v>
       </c>
@@ -13576,7 +15497,7 @@
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H33" s="10" t="n">
+      <c r="H33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
         <v>2</v>
       </c>
@@ -13588,7 +15509,7 @@
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
         <v>7</v>
       </c>
-      <c r="K33" s="10" t="n">
+      <c r="K33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
         <v>3</v>
       </c>
@@ -13622,7 +15543,7 @@
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
         <v>0</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
         <v>0</v>
       </c>
@@ -13634,7 +15555,7 @@
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
         <v>0</v>
       </c>
-      <c r="K34" s="10" t="n">
+      <c r="K34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
         <v>0</v>
       </c>
@@ -13668,7 +15589,7 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
         <v>0</v>
       </c>
-      <c r="H35" s="10" t="n">
+      <c r="H35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
         <v>0</v>
       </c>
@@ -13680,7 +15601,7 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
         <v>0</v>
       </c>
-      <c r="K35" s="10" t="n">
+      <c r="K35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
         <v>0</v>
       </c>
@@ -13692,6 +15613,21 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H:H">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K:K">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13705,23 +15641,3506 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="31" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H:H">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K:K">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="31" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="23" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="14" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H:H">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K:K">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="440">
   <si>
     <t>Ngay</t>
   </si>
@@ -1125,10 +1125,7 @@
     <t>44;28;32;32;31;26;64;72;13;73;03;17;37;89;24;27;32;02;74;86;35;42;69;73;99;01;51;</t>
   </si>
   <si>
-    <t>44;28;32;32;31;26;64;72;13;73;03;17;37;89;24;27;32;02;74;86;35;42;69;73;99;01;51; </t>
-  </si>
-  <si>
-    <t>01 / </t>
+    <t>01 /</t>
   </si>
   <si>
     <t>33;58;23;35;13;19;28;82;89;87;73;22;19;95;51;42;15;15;60;84;72;82;32;34;47;35;83;</t>
@@ -1170,7 +1167,7 @@
     <t>82;83;99;23;63;49;01;03;07;37;62;30;34;62;34;31;42;73;45;53;50;96;71;90;43;06;15;</t>
   </si>
   <si>
-    <t>14 / </t>
+    <t>14 /</t>
   </si>
   <si>
     <t>34;60;14;02;37;06;34;45;92;29;68;57;77;00;20;70;11;67;43;89;56;01;22;35;63;38;42;</t>
@@ -1209,7 +1206,7 @@
     <t>99;82;71;36;94;35;25;91;60;72;72;77;02;20;19;67;95;63;54;76;80;15;61;90;61;40;95;</t>
   </si>
   <si>
-    <t>26 / </t>
+    <t>26 /</t>
   </si>
   <si>
     <t>43;38;32;00;83;18;23;97;77;13;39;24;64;92;93;89;29;99;18;50;54;07;27;12;81;04;74;</t>
@@ -1227,10 +1224,10 @@
     <t>70;02;96;04;10;72;03;32;22;16;12;96;61;15;00;53;53;16;93;78;43;81;02;91;85;22;55;</t>
   </si>
   <si>
-    <t>31 / </t>
-  </si>
-  <si>
-    <t>82;21;45;08;61;11;98;38;23;58;33;14;94;70;28;20;47;79;28;81;36;04;71;16;28;53;98; </t>
+    <t>31 /</t>
+  </si>
+  <si>
+    <t>82;21;45;08;61;11;98;38;23;58;33;14;94;70;28;20;47;79;28;81;36;04;71;16;28;53;98;</t>
   </si>
   <si>
     <t>88;05;77;26;73;44;08;20;62;92;31;74;85;36;63;52;92;83;37;94;89;26;22;17;11;36;89;</t>
@@ -1344,7 +1341,10 @@
     <t>90;02;29;53;52;98;37;71;24;54;14;49;47;60;04;97;79;11;62;72;69;75;48;34;83;14;20;</t>
   </si>
   <si>
-    <t>30 / </t>
+    <t>97;33;76;74;44;66;46;61;40;06;65;96;44;31;31;77;46;48;30;05;69;98;51;73;76;58;20;</t>
+  </si>
+  <si>
+    <t>30 /</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1378,8 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="10.5"/>
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1676,10 +1677,20 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Red_Bold" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="10"/>
+        <color rgb="FFFF3333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="true"/>
+        <sz val="10.5"/>
         <color rgb="FFFF3333"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -3516,10 +3527,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3585,9 +3596,14 @@
       <c r="P1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
       <c r="H2" s="31"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="0"/>
       <c r="K2" s="2"/>
+      <c r="L2" s="0"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6"/>
@@ -3595,11 +3611,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>433</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
       <c r="H3" s="31"/>
       <c r="I3" s="2"/>
+      <c r="J3" s="0"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="0"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
@@ -3607,10 +3628,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -3632,7 +3653,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="10" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
         <v>8</v>
       </c>
@@ -3659,7 +3680,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -3681,7 +3702,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="10" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
         <v>9</v>
       </c>
@@ -3693,7 +3714,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="10" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
         <v>7</v>
       </c>
@@ -3708,7 +3729,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -3753,13 +3774,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -3803,53 +3824,60 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="18"/>
+      <c r="O7" s="30" t="s">
+        <v>243</v>
+      </c>
       <c r="P7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>438</v>
+      </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="30"/>
+      <c r="O8" s="30" t="s">
+        <v>302</v>
+      </c>
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,7 +4251,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -5102,18 +5130,8 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H:H">
+  <conditionalFormatting sqref="D:D">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K:K">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6915,8 +6933,8 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
@@ -6942,7 +6960,7 @@
     <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6983,7 +7001,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -6999,7 +7017,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>131</v>
       </c>
@@ -7048,7 +7066,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
         <v>0</v>
@@ -7094,7 +7112,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>132</v>
       </c>
@@ -7145,7 +7163,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>134</v>
       </c>
@@ -7196,7 +7214,7 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>135</v>
       </c>
@@ -7247,7 +7265,7 @@
       </c>
       <c r="P8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
         <v>137</v>
@@ -7299,7 +7317,7 @@
       </c>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>139</v>
       </c>
@@ -7352,7 +7370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>141</v>
       </c>
@@ -7403,7 +7421,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>142</v>
       </c>
@@ -7454,7 +7472,7 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>143</v>
       </c>
@@ -7507,7 +7525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>145</v>
       </c>
@@ -7560,7 +7578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>147</v>
       </c>
@@ -7611,7 +7629,7 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>149</v>
       </c>
@@ -7662,7 +7680,7 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>150</v>
       </c>
@@ -7876,7 +7894,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>158</v>
       </c>
@@ -7929,7 +7947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>160</v>
       </c>
@@ -7980,7 +7998,7 @@
       </c>
       <c r="P22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>162</v>
       </c>
@@ -8031,7 +8049,7 @@
       </c>
       <c r="P23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>163</v>
       </c>
@@ -8235,7 +8253,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>171</v>
       </c>
@@ -8442,7 +8460,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>177</v>
       </c>
@@ -8491,7 +8509,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
         <v>0</v>
@@ -10405,7 +10423,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
@@ -12148,9 +12166,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12694,7 +12712,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="10" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
         <v>11</v>
       </c>
@@ -12706,7 +12724,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="10" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
         <v>7</v>
       </c>
@@ -13210,11 +13228,11 @@
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="10" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
         <v>8</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="10" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
         <v>9</v>
       </c>
@@ -13927,11 +13945,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13951,9 +13964,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14019,6 +14032,7 @@
       <c r="P1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
       <c r="H2" s="31"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
@@ -14031,6 +14045,7 @@
       <c r="B3" s="0" t="s">
         <v>332</v>
       </c>
+      <c r="D3" s="0"/>
       <c r="H3" s="31"/>
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
@@ -14078,7 +14093,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="10" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
         <v>8</v>
       </c>
@@ -14274,7 +14289,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="10" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
         <v>7</v>
       </c>
@@ -14373,7 +14388,7 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="10" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
         <v>7</v>
       </c>
@@ -14459,7 +14474,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
         <v>2</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="10" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
         <v>8</v>
       </c>
@@ -14520,7 +14535,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
         <v>8</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="10" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
         <v>7</v>
       </c>
@@ -14557,7 +14572,7 @@
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="10" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
         <v>8</v>
       </c>
@@ -14667,7 +14682,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
         <v>4</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="10" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
         <v>8</v>
       </c>
@@ -14955,7 +14970,7 @@
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="10" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
         <v>10</v>
       </c>
@@ -15053,7 +15068,7 @@
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="10" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
         <v>7</v>
       </c>
@@ -15249,7 +15264,7 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="10" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
         <v>10</v>
       </c>
@@ -15620,11 +15635,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K:K">
     <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15647,7 +15657,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
@@ -15715,6 +15725,7 @@
       <c r="P1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -15724,7 +15735,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -15773,10 +15784,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -15825,7 +15836,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -15874,7 +15885,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -15923,7 +15934,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -15972,7 +15983,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -16022,7 +16033,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -16071,7 +16082,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -16122,7 +16133,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -16171,7 +16182,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -16220,7 +16231,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -16269,7 +16280,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -16318,7 +16329,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -16367,7 +16378,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -16418,10 +16429,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -16471,7 +16482,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -16520,7 +16531,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -16569,7 +16580,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -16618,7 +16629,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -16667,7 +16678,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -16718,7 +16729,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -16769,7 +16780,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -16818,7 +16829,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -16869,7 +16880,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -16920,7 +16931,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -16969,7 +16980,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -17018,10 +17029,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>395</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -17072,7 +17083,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -17123,7 +17134,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -17172,7 +17183,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -17221,7 +17232,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -17274,10 +17285,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>401</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -17326,7 +17337,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -17370,21 +17381,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H:H">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K:K">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -17404,7 +17400,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
@@ -17472,6 +17468,8 @@
       <c r="P1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
+      <c r="H2" s="0"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -17481,7 +17479,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -17530,10 +17528,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -17582,7 +17580,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -17631,7 +17629,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -17680,7 +17678,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -17729,7 +17727,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -17779,7 +17777,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -17828,7 +17826,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -17879,7 +17877,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -17928,7 +17926,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -17977,7 +17975,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -18026,7 +18024,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -18075,7 +18073,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -18124,7 +18122,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -18175,10 +18173,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -18228,7 +18226,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -18277,7 +18275,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -18326,7 +18324,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -18371,13 +18369,13 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -18426,7 +18424,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -18477,7 +18475,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -18526,7 +18524,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -18575,7 +18573,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -18624,7 +18622,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -18675,7 +18673,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -18724,7 +18722,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -18773,10 +18771,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -18827,7 +18825,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -18878,7 +18876,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -18927,7 +18925,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -18976,7 +18974,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -19027,10 +19025,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -19079,7 +19077,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -19123,21 +19121,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H:H">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K:K">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="443">
   <si>
     <t>Ngay</t>
   </si>
@@ -1342,6 +1342,15 @@
   </si>
   <si>
     <t>97;33;76;74;44;66;46;61;40;06;65;96;44;31;31;77;46;48;30;05;69;98;51;73;76;58;20;</t>
+  </si>
+  <si>
+    <t>10;46;29;86;86;24;98;58;54;25;45;69;78;71;38;82;74;77;19;77;95;80;03;92;95;78;29;</t>
+  </si>
+  <si>
+    <t>04;27;18;56;30;50;36;92;54;68;70;39;41;58;48;28;70;38;89;37;85;95;41;75;65;49;43;</t>
+  </si>
+  <si>
+    <t>21;76;90;21;61;19;11;51;36;72;75;64;46;32;20;61;76;55;33;61;48;89;13;88;99;46;61;</t>
   </si>
   <si>
     <t>30 /</t>
@@ -1354,7 +1363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1376,14 +1385,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10.5"/>
-      <color rgb="FFFF3333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1486,7 +1487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1510,36 +1511,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1547,15 +1545,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1567,43 +1565,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1611,27 +1609,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1639,58 +1657,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Red_Bold" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <sz val="10"/>
-        <color rgb="FFFF3333"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="10.5"/>
         <color rgb="FFFF3333"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -3530,7 +3517,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3637,7 +3624,7 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="10" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
         <v>8</v>
       </c>
@@ -3735,7 +3722,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="10" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
         <v>9</v>
       </c>
@@ -3824,12 +3811,10 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="30" t="s">
-        <v>243</v>
-      </c>
+      <c r="O7" s="30"/>
       <c r="P7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>438</v>
       </c>
@@ -3875,52 +3860,53 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="30" t="s">
-        <v>302</v>
-      </c>
+      <c r="O8" s="30"/>
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>439</v>
+      </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="34" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
@@ -3928,45 +3914,48 @@
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="10" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
@@ -3974,45 +3963,48 @@
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>441</v>
+      </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
@@ -4992,7 +4984,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -5130,11 +5122,6 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15628,16 +15615,6 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H:H">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K:K">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="400">
   <si>
     <t>Ngay</t>
   </si>
@@ -390,7 +390,7 @@
     <t>15;35;06;64;94;45;23;35;22;49;95;58;36;01;11;65;96;21;53;52;82;91;22;00;87;07;83</t>
   </si>
   <si>
-    <t>01 / </t>
+    <t>01 /</t>
   </si>
   <si>
     <t>393 &gt; xit</t>
@@ -465,7 +465,7 @@
     <t>34;84;66;45;99;68;52;46;69;15;47;57;93;72;90;58;15;00;08;30;51;17;09;52;09;78;32</t>
   </si>
   <si>
-    <t>14 / </t>
+    <t>14 /</t>
   </si>
   <si>
     <t>27;80;18;85;65;78;83;17;77;50;38;22;76;20;68;73;48;97;14;92;08;39;02;36;79;48;25</t>
@@ -987,9 +987,6 @@
     <t>44;28;32;32;31;26;64;72;13;73;03;17;37;89;24;27;32;02;74;86;35;42;69;73;99;01;51;</t>
   </si>
   <si>
-    <t>01 /</t>
-  </si>
-  <si>
     <t>33;58;23;35;13;19;28;82;89;87;73;22;19;95;51;42;15;15;60;84;72;82;32;34;47;35;83;</t>
   </si>
   <si>
@@ -1029,9 +1026,6 @@
     <t>82;83;99;23;63;49;01;03;07;37;62;30;34;62;34;31;42;73;45;53;50;96;71;90;43;06;15;</t>
   </si>
   <si>
-    <t>14 /</t>
-  </si>
-  <si>
     <t>34;60;14;02;37;06;34;45;92;29;68;57;77;00;20;70;11;67;43;89;56;01;22;35;63;38;42;</t>
   </si>
   <si>
@@ -1225,6 +1219,9 @@
   </si>
   <si>
     <t>77;77;62;47;05;54;39;31;20;09;08;29;61;38;30;94;69;43;39;14;26;06;54;70;92;95;62;</t>
+  </si>
+  <si>
+    <t>90;52;22;35;73;19;04;62;62;50;64;86;65;73;22;27;98;40;19;87;70;47;31;43;32;06;61;</t>
   </si>
   <si>
     <t>30 /</t>
@@ -3345,7 +3342,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3426,7 +3423,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D3" s="0"/>
       <c r="F3" s="0"/>
@@ -3443,10 +3440,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -3544,7 +3541,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -3589,13 +3586,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -3694,7 +3691,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -3739,13 +3736,13 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -3790,13 +3787,13 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -3845,7 +3842,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -3892,46 +3889,49 @@
       <c r="O12" s="32"/>
       <c r="P12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>398</v>
+      </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -4957,6 +4957,11 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6145,6 +6150,7 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="0"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,6 +7842,7 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="0"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,11 +8375,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10144,11 +10146,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11892,11 +11889,6 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15378,16 +15370,6 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G:G">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15534,10 +15516,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>321</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -15586,7 +15568,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -15635,7 +15617,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -15684,7 +15666,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -15733,7 +15715,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -15783,7 +15765,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -15832,7 +15814,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -15883,7 +15865,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -15932,7 +15914,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -15981,7 +15963,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -16030,7 +16012,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -16079,7 +16061,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -16128,7 +16110,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -16179,10 +16161,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -16232,7 +16214,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -16281,7 +16263,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -16330,7 +16312,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -16379,7 +16361,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -16428,7 +16410,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -16479,7 +16461,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -16530,7 +16512,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -16579,7 +16561,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -16630,7 +16612,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -16681,7 +16663,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -16730,7 +16712,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -16782,7 +16764,7 @@
         <v>170</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -16833,7 +16815,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -16884,7 +16866,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -16933,7 +16915,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -16982,7 +16964,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -17038,7 +17020,7 @@
         <v>179</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -17087,7 +17069,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -17229,7 +17211,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -17278,10 +17260,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -17330,7 +17312,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -17381,7 +17363,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -17430,7 +17412,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -17479,7 +17461,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -17529,7 +17511,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -17578,7 +17560,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -17629,7 +17611,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -17678,7 +17660,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -17727,7 +17709,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -17776,7 +17758,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -17825,7 +17807,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -17874,7 +17856,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -17919,7 +17901,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>34</v>
@@ -17927,10 +17909,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -17980,7 +17962,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -18029,7 +18011,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -18078,7 +18060,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -18123,13 +18105,13 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -18174,13 +18156,13 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -18233,7 +18215,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -18282,7 +18264,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -18331,7 +18313,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -18380,7 +18362,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -18431,7 +18413,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -18480,7 +18462,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -18525,7 +18507,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P28" s="21"/>
     </row>
@@ -18534,7 +18516,7 @@
         <v>170</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -18585,7 +18567,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -18636,7 +18618,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -18687,7 +18669,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -18736,7 +18718,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -18790,7 +18772,7 @@
         <v>179</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -18839,7 +18821,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -18883,26 +18865,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H:H">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K:K">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L:L">
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="401">
   <si>
     <t>Ngay</t>
   </si>
@@ -1222,6 +1222,9 @@
   </si>
   <si>
     <t>90;52;22;35;73;19;04;62;62;50;64;86;65;73;22;27;98;40;19;87;70;47;31;43;32;06;61;</t>
+  </si>
+  <si>
+    <t>87;43;75;05;96;86;75;42;06;44;78;94;27;33;18;75;36;85;09;66;92;03;42;60;21;28;70;</t>
   </si>
   <si>
     <t>30 /</t>
@@ -3342,7 +3345,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3889,7 +3892,7 @@
       <c r="O12" s="32"/>
       <c r="P12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>398</v>
       </c>
@@ -3938,46 +3941,49 @@
       <c r="O13" s="32"/>
       <c r="P13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>399</v>
+      </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -4957,11 +4963,6 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="416">
   <si>
     <t>Ngay</t>
   </si>
@@ -198,6 +198,9 @@
     <t>32;51;80;17;58;49;06;23;35;97;80;30;55;72;48;19;41;23;94;62;14;63;37;59;29;46;98</t>
   </si>
   <si>
+    <t>01 / </t>
+  </si>
+  <si>
     <t>57;92;03;64;22;09;58;09;40;55;83;84;38;69;52;11;30;17;41;59;71;97;07;08;26;14;80</t>
   </si>
   <si>
@@ -228,6 +231,9 @@
     <t>23;68;44;48;16;25;27;90;55;50;45;44;43;45;49;46;23;38;39;42;69;90;94;75;24;37;27</t>
   </si>
   <si>
+    <t>12 /</t>
+  </si>
+  <si>
     <t>72;18;56;59;40;02;14;24;61;16;58;31;17;94;60;19;45;32;13;78;25;30;03;64;46;88;82</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>Nghi (252 &gt; 52)</t>
   </si>
   <si>
+    <t>14 / </t>
+  </si>
+  <si>
     <t>74;74;52;45;86;54;83;81;87;88;28;29;89;40;99;83;75;91;42;03;55;19;61;18;82;78;55</t>
   </si>
   <si>
@@ -276,9 +285,15 @@
     <t>84;78;00;97;83;64;74;28;89;45;33;39;68;92;90;82;69;87;55;15;28;15;63;13;62;33;46</t>
   </si>
   <si>
+    <t>26 / </t>
+  </si>
+  <si>
     <t>58;62;89;80;66;84;75;75;11;19;57;45;73;59;62;17;02;51;43;16;63;24;82;72;50;86;13</t>
   </si>
   <si>
+    <t>27 /</t>
+  </si>
+  <si>
     <t>63;40;31;12;80;88;09;77;43;46;21;74;45;65;01;75;08;55;26;22;41;97;21;72;91;63;80</t>
   </si>
   <si>
@@ -288,7 +303,7 @@
     <t>99;58;15;71;64;37;86;98;54;63;27;85;22;00;88;74;79;95;78;69;42;67;16;00;26;72;39</t>
   </si>
   <si>
-    <t>30 / 12</t>
+    <t>30 / </t>
   </si>
   <si>
     <t>01 / 2</t>
@@ -414,6 +429,9 @@
     <t>292 &gt; xit</t>
   </si>
   <si>
+    <t>5 /</t>
+  </si>
+  <si>
     <t>82;12;37;70;10;37;48;14;43;17;84;40;05;54;08;74;15;52;70;15;47;82;43;08;16;64;21</t>
   </si>
   <si>
@@ -432,6 +450,9 @@
     <t>474 &gt; 74</t>
   </si>
   <si>
+    <t>8 /</t>
+  </si>
+  <si>
     <t>11;28;96;70;50;51;47;38;75;50;44;10;90;31;48;90;14;34;08;48;34;47;24;39;79;14;65</t>
   </si>
   <si>
@@ -483,6 +504,9 @@
     <t>Nghi (373 xit)</t>
   </si>
   <si>
+    <t>17 /</t>
+  </si>
+  <si>
     <t>85;02;18;12;37;70;05;23;00;03;86;80;02;14;62;41;11;28;71;15;27;94;23;43;32;17;41</t>
   </si>
   <si>
@@ -777,6 +801,9 @@
     <t>585 &gt;</t>
   </si>
   <si>
+    <t>9 /</t>
+  </si>
+  <si>
     <t>62;45;86;79;71;21;05;91;79;24;50;95;16;41;17;57;11;49;32;81;27;46;08;54;10;09;41;</t>
   </si>
   <si>
@@ -828,6 +855,9 @@
     <t>676 &gt;</t>
   </si>
   <si>
+    <t>19 /</t>
+  </si>
+  <si>
     <t>30;84;41;63;10;10;70;31;60;04;79;23;91;40;32;15;28;28;24;48;68;12;02;25;57;31;42;</t>
   </si>
   <si>
@@ -1044,12 +1074,18 @@
     <t>41;13;02;80;26;60;37;61;14;98;87;59;42;36;77;34;35;98;74;33;36;87;35;63;50;19;88;</t>
   </si>
   <si>
+    <t>20 /</t>
+  </si>
+  <si>
     <t>26;41;24;64;12;98;16;52;80;03;84;09;48;97;20;17;16;51;85;81;49;71;34;49;07;47;97;</t>
   </si>
   <si>
     <t>78;92;33;65;86;50;52;35;59;62;61;88;45;56;42;88;16;77;50;77;06;76;47;02;12;62;63;</t>
   </si>
   <si>
+    <t>22 /</t>
+  </si>
+  <si>
     <t>91;90;17;85;36;72;35;24;44;92;70;13;14;06;20;18;52;86;25;24;48;71;00;16;52;79;83;</t>
   </si>
   <si>
@@ -1131,6 +1167,9 @@
     <t>62;12;72;99;91;03;50;85;33;81;87;16;36;18;74;69;09;37;86;11;46;40;47;78;74;68;32;</t>
   </si>
   <si>
+    <t>17 / </t>
+  </si>
+  <si>
     <t>59;39;22;21;09;79;21;54;03;76;46;92;35;10;17;03;16;72;07;60;84;44;92;65;67;71;18;</t>
   </si>
   <si>
@@ -1191,6 +1230,9 @@
     <t>48;85;12;15;32;50;71;52;96;97;28;25;35;01;66;38;09;51;27;12;02;88;59;67;43;25;68;</t>
   </si>
   <si>
+    <t>3/ </t>
+  </si>
+  <si>
     <t>42;52;39;20;92;50;69;54;59;99;61;44;01;19;11;34;12;98;59;28;11;12;44;37;20;93;33;</t>
   </si>
   <si>
@@ -1225,6 +1267,9 @@
   </si>
   <si>
     <t>87;43;75;05;96;86;75;42;06;44;78;94;27;33;18;75;36;85;09;66;92;03;42;60;21;28;70;</t>
+  </si>
+  <si>
+    <t>32;51;82;76;04;90;27;95;72;48;20;23;92;80;73;00;10;65;71;79;58;33;99;99;47;29;06;</t>
   </si>
   <si>
     <t>30 /</t>
@@ -1237,7 +1282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1259,6 +1304,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1295,14 +1348,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1311,14 +1356,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF0000CC"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1361,7 +1398,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1385,33 +1422,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1419,15 +1459,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1439,27 +1479,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1467,19 +1507,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1491,7 +1531,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1499,11 +1539,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1511,15 +1551,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1527,7 +1563,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1535,28 +1571,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Red_Bold" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <b val="true"/>
-        <i val="true"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <name val="Arial"/>
@@ -3342,10 +3378,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3353,15 +3389,15 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="8.55102040816327"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="34" width="6.24489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="34" width="7.33673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="32" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="34" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="33" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="33" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="31" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="33" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="24" width="19.4642857142857"/>
@@ -3385,7 +3421,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3414,7 +3450,7 @@
       <c r="D2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
-      <c r="H2" s="34"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="2"/>
       <c r="J2" s="0"/>
       <c r="K2" s="2"/>
@@ -3426,12 +3462,12 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
-      <c r="H3" s="34"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="2"/>
       <c r="J3" s="0"/>
       <c r="K3" s="2"/>
@@ -3443,10 +3479,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -3490,12 +3526,12 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="32"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -3543,8 +3579,11 @@
       <c r="P5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>401</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -3554,7 +3593,7 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
         <v>9</v>
       </c>
-      <c r="E6" s="37" t="n">
+      <c r="E6" s="36" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
         <v>8</v>
       </c>
@@ -3588,14 +3627,14 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="38" t="s">
-        <v>389</v>
+      <c r="O6" s="37" t="s">
+        <v>403</v>
       </c>
       <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -3639,12 +3678,12 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="32"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -3688,13 +3727,13 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="32"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -3738,14 +3777,14 @@
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="33" t="s">
-        <v>393</v>
+      <c r="O9" s="32" t="s">
+        <v>407</v>
       </c>
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -3789,14 +3828,14 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="33" t="s">
-        <v>395</v>
+      <c r="O10" s="32" t="s">
+        <v>409</v>
       </c>
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -3840,12 +3879,12 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="32"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -3889,12 +3928,12 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -3938,12 +3977,12 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -3987,53 +4026,56 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>414</v>
+      </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,12 +4121,12 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="32"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -4128,7 +4170,7 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4176,7 +4218,7 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="33"/>
+      <c r="O18" s="32"/>
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +4264,7 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,7 +4310,7 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="32"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4356,7 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="32"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4402,7 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="32"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +4448,7 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="32"/>
+      <c r="O23" s="31"/>
       <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +4494,7 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="32"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +4540,7 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="32"/>
+      <c r="O25" s="31"/>
       <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +4586,7 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="32"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4632,7 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +4678,7 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="31"/>
       <c r="P28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +4724,7 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,7 +4770,7 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="32"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,7 +4816,7 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="32"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,12 +4862,12 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -4869,7 +4911,7 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="32"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,7 +4957,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,7 +5001,7 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
         <v>0</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="0"/>
     </row>
   </sheetData>
@@ -5009,17 +5051,17 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O30" activeCellId="0" sqref="O30"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0663265306123"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.530612244898"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55102040816327"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
@@ -5030,8 +5072,9 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="true" max="14" min="14" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="15" min="15" style="23" width="0"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="24" width="19.4642857142857"/>
     <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
@@ -5099,7 +5142,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>56</v>
@@ -5153,7 +5196,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -5202,7 +5245,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -5253,7 +5296,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -5302,7 +5345,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -5352,7 +5395,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -5403,7 +5446,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -5452,7 +5495,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -5503,7 +5546,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -5552,7 +5595,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -5603,7 +5646,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -5651,8 +5694,11 @@
       <c r="P14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -5694,16 +5740,16 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
         <v>3</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="O15" s="0"/>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -5748,16 +5794,16 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -5799,11 +5845,11 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
         <v>6</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="O17" s="0"/>
       <c r="P17" s="22" t="s">
         <v>34</v>
       </c>
@@ -5811,7 +5857,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -5860,7 +5906,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -5909,7 +5955,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -5958,7 +6004,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -6009,7 +6055,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -6058,7 +6104,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -6107,7 +6153,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -6156,7 +6202,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -6205,7 +6251,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -6256,7 +6302,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -6307,7 +6353,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -6356,10 +6402,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -6409,8 +6455,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="B30" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -6452,16 +6501,16 @@
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
         <v>3</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="O30" s="0"/>
       <c r="P30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -6510,7 +6559,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -6559,7 +6608,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -6713,10 +6762,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6799,7 +6848,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -6894,7 +6943,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -6943,7 +6992,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -6992,7 +7041,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -7042,7 +7091,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -7091,7 +7140,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -7142,7 +7191,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -7191,7 +7240,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -7240,7 +7289,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -7291,7 +7340,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -7342,7 +7391,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -7391,7 +7440,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -7440,10 +7489,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -7488,7 +7537,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>34</v>
@@ -7497,7 +7546,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -7542,7 +7591,7 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
       <c r="O18" s="17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>34</v>
@@ -7550,7 +7599,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -7596,12 +7645,12 @@
       <c r="N19" s="5"/>
       <c r="O19" s="9"/>
       <c r="P19" s="21" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -7650,7 +7699,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -7701,7 +7750,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -7750,7 +7799,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -7799,7 +7848,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -7848,7 +7897,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -7897,7 +7946,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -7946,7 +7995,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -7995,7 +8044,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -8044,7 +8093,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -8093,7 +8142,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -8142,10 +8191,10 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -8194,7 +8243,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -8395,11 +8444,11 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8475,7 +8524,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
@@ -8486,10 +8535,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -8534,7 +8583,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="5"/>
       <c r="O4" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>34</v>
@@ -8542,7 +8591,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -8587,13 +8636,13 @@
       <c r="M5" s="9"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -8638,7 +8687,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="5"/>
       <c r="O6" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P6" s="5" t="n">
         <v>93</v>
@@ -8646,7 +8695,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -8691,13 +8740,16 @@
       <c r="M7" s="6"/>
       <c r="N7" s="5"/>
       <c r="O7" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>134</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -8744,14 +8796,14 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -8796,7 +8848,7 @@
       <c r="M9" s="28"/>
       <c r="N9" s="16"/>
       <c r="O9" s="25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>34</v>
@@ -8804,7 +8856,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -8849,13 +8901,16 @@
       <c r="M10" s="9"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>141</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -8898,11 +8953,11 @@
         <v>5</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>34</v>
@@ -8910,7 +8965,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -8955,13 +9010,13 @@
       <c r="M12" s="9"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -9006,7 +9061,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>93</v>
@@ -9014,7 +9069,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -9059,13 +9114,13 @@
       <c r="M14" s="6"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -9110,13 +9165,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="5"/>
       <c r="O15" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -9161,16 +9216,16 @@
       <c r="M16" s="9"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -9215,7 +9270,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
       <c r="O17" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>34</v>
@@ -9224,7 +9279,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -9269,13 +9324,13 @@
       <c r="M18" s="28"/>
       <c r="N18" s="16"/>
       <c r="O18" s="17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -9320,13 +9375,16 @@
       <c r="M19" s="9"/>
       <c r="N19" s="5"/>
       <c r="O19" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -9373,13 +9431,13 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -9424,7 +9482,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="5"/>
       <c r="O21" s="9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>41</v>
@@ -9432,7 +9490,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -9477,13 +9535,13 @@
       <c r="M22" s="19"/>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="P22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -9528,13 +9586,13 @@
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -9579,13 +9637,13 @@
       <c r="M24" s="23"/>
       <c r="N24" s="5"/>
       <c r="O24" s="23" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -9630,13 +9688,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="5"/>
       <c r="O25" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -9681,7 +9739,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="5"/>
       <c r="O26" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>41</v>
@@ -9689,7 +9747,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -9734,7 +9792,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="5"/>
       <c r="O27" s="9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>34</v>
@@ -9742,7 +9800,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -9787,16 +9845,16 @@
       <c r="M28" s="9"/>
       <c r="N28" s="5"/>
       <c r="O28" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -9841,7 +9899,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="5"/>
       <c r="O29" s="9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P29" s="5" t="n">
         <v>16</v>
@@ -9849,7 +9907,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -9894,13 +9952,13 @@
       <c r="M30" s="9"/>
       <c r="N30" s="5"/>
       <c r="O30" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -9943,17 +10001,17 @@
         <v>8</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="26" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -10002,7 +10060,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -10051,10 +10109,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -10103,7 +10161,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -10166,9 +10224,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10243,7 +10301,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
@@ -10254,10 +10312,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -10271,11 +10329,11 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
         <v>8</v>
       </c>
-      <c r="G4" s="31" t="n">
+      <c r="G4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
         <v>8</v>
       </c>
@@ -10301,14 +10359,14 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="32" t="s">
-        <v>183</v>
+      <c r="O4" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -10322,7 +10380,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
         <v>9</v>
       </c>
@@ -10342,7 +10400,7 @@
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
         <v>5</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
         <v>8</v>
       </c>
@@ -10353,13 +10411,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="20" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -10385,11 +10443,11 @@
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
         <v>5</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
         <v>7</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
         <v>7</v>
       </c>
@@ -10404,19 +10462,19 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="20" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="10" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
         <v>7</v>
       </c>
@@ -10428,7 +10486,7 @@
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
         <v>9</v>
       </c>
@@ -10448,20 +10506,20 @@
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
         <v>8</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
         <v>9</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="20" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -10475,7 +10533,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
         <v>7</v>
       </c>
@@ -10487,7 +10545,7 @@
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
         <v>4</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
         <v>9</v>
       </c>
@@ -10505,15 +10563,15 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="32" t="s">
-        <v>190</v>
+      <c r="O8" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -10539,7 +10597,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
         <v>4</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
         <v>7</v>
       </c>
@@ -10551,20 +10609,20 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
         <v>4</v>
       </c>
-      <c r="L9" s="14" t="n">
+      <c r="L9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
         <v>10</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="32" t="s">
-        <v>192</v>
+      <c r="O9" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -10582,7 +10640,7 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
         <v>11</v>
       </c>
@@ -10598,7 +10656,7 @@
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
         <v>3</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
         <v>8</v>
       </c>
@@ -10608,14 +10666,14 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="32" t="s">
-        <v>194</v>
+      <c r="O10" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -10625,7 +10683,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
         <v>10</v>
       </c>
@@ -10633,7 +10691,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
         <v>7</v>
       </c>
@@ -10659,20 +10717,20 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="32" t="s">
-        <v>196</v>
+      <c r="O11" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="P11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="27" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
         <v>7</v>
       </c>
@@ -10680,7 +10738,7 @@
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
         <v>8</v>
       </c>
@@ -10710,14 +10768,14 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="32" t="s">
-        <v>198</v>
+      <c r="O12" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="P12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -10739,7 +10797,7 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
         <v>7</v>
       </c>
@@ -10755,26 +10813,26 @@
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
         <v>3</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
         <v>11</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="32" t="s">
-        <v>200</v>
+      <c r="O13" s="31" t="s">
+        <v>208</v>
       </c>
       <c r="P13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="10" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
         <v>7</v>
       </c>
@@ -10782,7 +10840,7 @@
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
         <v>8</v>
       </c>
@@ -10798,7 +10856,7 @@
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
         <v>8</v>
       </c>
@@ -10812,14 +10870,14 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="32" t="s">
-        <v>202</v>
+      <c r="O14" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -10833,7 +10891,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
         <v>5</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
         <v>10</v>
       </c>
@@ -10853,7 +10911,7 @@
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
         <v>8</v>
       </c>
@@ -10863,14 +10921,14 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="32" t="s">
-        <v>204</v>
+      <c r="O15" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -10880,7 +10938,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
         <v>11</v>
       </c>
@@ -10900,7 +10958,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
         <v>6</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
         <v>9</v>
       </c>
@@ -10914,17 +10972,17 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="32" t="s">
-        <v>206</v>
+      <c r="O16" s="31" t="s">
+        <v>214</v>
       </c>
       <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -10938,7 +10996,7 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
         <v>7</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
         <v>9</v>
       </c>
@@ -10950,7 +11008,7 @@
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
         <v>3</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
         <v>12</v>
       </c>
@@ -10968,15 +11026,15 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="32" t="s">
-        <v>190</v>
+      <c r="O17" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -10994,11 +11052,11 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
         <v>5</v>
       </c>
-      <c r="G18" s="14" t="n">
+      <c r="G18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
         <v>10</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
         <v>7</v>
       </c>
@@ -11020,14 +11078,14 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="32" t="s">
-        <v>210</v>
+      <c r="O18" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -11049,7 +11107,7 @@
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
         <v>5</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
         <v>9</v>
       </c>
@@ -11071,20 +11129,20 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="32" t="s">
-        <v>212</v>
+      <c r="O19" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="P19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
         <v>4</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="10" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
         <v>7</v>
       </c>
@@ -11092,7 +11150,7 @@
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
         <v>8</v>
       </c>
@@ -11100,7 +11158,7 @@
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
         <v>4</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
         <v>10</v>
       </c>
@@ -11122,14 +11180,14 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="32" t="s">
-        <v>214</v>
+      <c r="O20" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="P20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -11159,11 +11217,11 @@
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
         <v>6</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
         <v>9</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
         <v>8</v>
       </c>
@@ -11173,14 +11231,14 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="32" t="s">
-        <v>216</v>
+      <c r="O21" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -11210,7 +11268,7 @@
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
         <v>5</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
         <v>9</v>
       </c>
@@ -11224,14 +11282,14 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="32" t="s">
-        <v>218</v>
+      <c r="O22" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="P22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -11265,24 +11323,24 @@
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
         <v>12</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
         <v>8</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="33" t="s">
-        <v>220</v>
+      <c r="O23" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -11300,7 +11358,7 @@
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
         <v>3</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
         <v>12</v>
       </c>
@@ -11316,7 +11374,7 @@
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
         <v>10</v>
       </c>
@@ -11326,14 +11384,14 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="32" t="s">
-        <v>194</v>
+      <c r="O24" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -11343,7 +11401,7 @@
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
         <v>6</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
         <v>7</v>
       </c>
@@ -11355,7 +11413,7 @@
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
         <v>3</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
         <v>10</v>
       </c>
@@ -11377,14 +11435,14 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="32" t="s">
-        <v>223</v>
+      <c r="O25" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -11402,7 +11460,7 @@
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
         <v>10</v>
       </c>
@@ -11418,7 +11476,7 @@
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
         <v>7</v>
       </c>
@@ -11428,14 +11486,14 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="32" t="s">
-        <v>194</v>
+      <c r="O26" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="P26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -11449,7 +11507,7 @@
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
         <v>8</v>
       </c>
@@ -11473,20 +11531,20 @@
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
         <v>5</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
         <v>8</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="32" t="s">
-        <v>226</v>
+      <c r="O27" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="P27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -11504,11 +11562,11 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
         <v>8</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
         <v>10</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
         <v>8</v>
       </c>
@@ -11530,23 +11588,23 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="32" t="s">
-        <v>210</v>
+      <c r="O28" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="P28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
         <v>7</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="27" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
         <v>8</v>
       </c>
@@ -11584,14 +11642,14 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="32" t="s">
-        <v>230</v>
+      <c r="O29" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -11613,7 +11671,7 @@
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
         <v>6</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
         <v>7</v>
       </c>
@@ -11635,14 +11693,14 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="32" t="s">
-        <v>212</v>
+      <c r="O30" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -11672,11 +11730,11 @@
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
         <v>4</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
         <v>7</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
         <v>8</v>
       </c>
@@ -11686,14 +11744,14 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="32" t="s">
-        <v>216</v>
+      <c r="O31" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -11719,7 +11777,7 @@
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
         <v>6</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
         <v>10</v>
       </c>
@@ -11731,23 +11789,23 @@
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
         <v>5</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
         <v>7</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="32" t="s">
-        <v>192</v>
+      <c r="O32" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="P32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -11757,7 +11815,7 @@
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
         <v>5</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
         <v>8</v>
       </c>
@@ -11781,7 +11839,7 @@
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
         <v>2</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
         <v>9</v>
       </c>
@@ -11791,14 +11849,14 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="32" t="s">
-        <v>236</v>
+      <c r="O33" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -11842,7 +11900,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11886,10 +11944,15 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
         <v>0</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="0"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11909,9 +11972,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11986,7 +12049,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -12035,10 +12098,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -12082,14 +12145,14 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="32" t="s">
-        <v>239</v>
+      <c r="O4" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -12133,14 +12196,14 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="32" t="s">
-        <v>236</v>
+      <c r="O5" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -12184,14 +12247,14 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="32" t="s">
-        <v>230</v>
+      <c r="O6" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="P6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -12235,14 +12298,14 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="32" t="s">
-        <v>198</v>
+      <c r="O7" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -12286,15 +12349,15 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="32" t="s">
-        <v>239</v>
+      <c r="O8" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="P8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -12338,14 +12401,14 @@
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="32" t="s">
-        <v>245</v>
+      <c r="O9" s="31" t="s">
+        <v>253</v>
       </c>
       <c r="P9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -12389,8 +12452,8 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="32" t="s">
-        <v>247</v>
+      <c r="O10" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>34</v>
@@ -12398,7 +12461,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -12442,14 +12505,17 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="32" t="s">
-        <v>249</v>
+      <c r="O11" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>258</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -12493,14 +12559,14 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="33" t="s">
-        <v>251</v>
+      <c r="O12" s="32" t="s">
+        <v>260</v>
       </c>
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -12544,14 +12610,14 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="32" t="s">
-        <v>253</v>
+      <c r="O13" s="31" t="s">
+        <v>262</v>
       </c>
       <c r="P13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -12595,14 +12661,14 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="32" t="s">
-        <v>255</v>
+      <c r="O14" s="31" t="s">
+        <v>264</v>
       </c>
       <c r="P14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -12646,14 +12712,14 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="32" t="s">
-        <v>223</v>
+      <c r="O15" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -12697,8 +12763,8 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="32" t="s">
-        <v>198</v>
+      <c r="O16" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>34</v>
@@ -12706,10 +12772,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -12753,15 +12819,15 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="32" t="s">
-        <v>260</v>
+      <c r="O17" s="31" t="s">
+        <v>269</v>
       </c>
       <c r="P17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -12805,14 +12871,14 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="32" t="s">
-        <v>262</v>
+      <c r="O18" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="P18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -12856,14 +12922,14 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="32" t="s">
-        <v>202</v>
+      <c r="O19" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="P19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -12907,14 +12973,14 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="32" t="s">
-        <v>239</v>
+      <c r="O20" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -12958,14 +13024,17 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="32" t="s">
-        <v>266</v>
+      <c r="O21" s="31" t="s">
+        <v>275</v>
       </c>
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>276</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -13009,8 +13078,8 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="33" t="s">
-        <v>268</v>
+      <c r="O22" s="32" t="s">
+        <v>278</v>
       </c>
       <c r="P22" s="18" t="s">
         <v>34</v>
@@ -13018,7 +13087,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -13062,14 +13131,14 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="32" t="s">
-        <v>230</v>
+      <c r="O23" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -13113,14 +13182,14 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="32" t="s">
-        <v>266</v>
+      <c r="O24" s="31" t="s">
+        <v>275</v>
       </c>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -13164,14 +13233,14 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="32" t="s">
-        <v>272</v>
+      <c r="O25" s="31" t="s">
+        <v>282</v>
       </c>
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -13215,8 +13284,8 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="32" t="s">
-        <v>274</v>
+      <c r="O26" s="31" t="s">
+        <v>284</v>
       </c>
       <c r="P26" s="18" t="s">
         <v>34</v>
@@ -13224,7 +13293,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -13268,14 +13337,14 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="32" t="s">
-        <v>276</v>
+      <c r="O27" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="P27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -13319,17 +13388,17 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="32" t="s">
-        <v>194</v>
+      <c r="O28" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -13373,8 +13442,8 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="32" t="s">
-        <v>272</v>
+      <c r="O29" s="31" t="s">
+        <v>282</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>34</v>
@@ -13382,7 +13451,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -13426,8 +13495,8 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="32" t="s">
-        <v>212</v>
+      <c r="O30" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>34</v>
@@ -13435,7 +13504,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -13479,14 +13548,14 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="32" t="s">
-        <v>226</v>
+      <c r="O31" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="P31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -13530,14 +13599,14 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="32" t="s">
-        <v>239</v>
+      <c r="O32" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="P32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -13581,8 +13650,8 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="32" t="s">
-        <v>247</v>
+      <c r="O33" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>34</v>
@@ -13590,10 +13659,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -13637,14 +13706,14 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="32" t="s">
-        <v>218</v>
+      <c r="O34" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="P34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -13709,7 +13778,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13717,14 +13786,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="8.55102040816327"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="9.16326530612245"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="32" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="31" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
@@ -13776,7 +13845,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0"/>
-      <c r="H2" s="34"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
@@ -13786,10 +13855,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D3" s="0"/>
-      <c r="H3" s="34"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
       <c r="M3" s="4"/>
@@ -13799,10 +13868,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -13816,11 +13885,11 @@
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="n">
+      <c r="F4" s="34" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
         <v>12</v>
       </c>
-      <c r="G4" s="35" t="n">
+      <c r="G4" s="34" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
         <v>3</v>
       </c>
@@ -13846,12 +13915,12 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="32"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -13900,7 +13969,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -13949,7 +14018,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -13998,7 +14067,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -14042,13 +14111,13 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="32"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -14092,12 +14161,12 @@
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="32"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -14141,12 +14210,12 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="32"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -14190,12 +14259,12 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="32"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -14239,12 +14308,12 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -14288,12 +14357,12 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -14337,12 +14406,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -14386,12 +14455,12 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -14435,15 +14504,15 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="32"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -14487,13 +14556,13 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -14537,14 +14606,14 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="33" t="s">
-        <v>303</v>
+      <c r="O18" s="32" t="s">
+        <v>313</v>
       </c>
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -14588,12 +14657,12 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -14637,12 +14706,12 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="32"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -14686,12 +14755,12 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="32"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -14735,12 +14804,12 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="32"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -14784,12 +14853,12 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="32"/>
+      <c r="O23" s="31"/>
       <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -14833,12 +14902,12 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="32"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -14882,12 +14951,12 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="32"/>
+      <c r="O25" s="31"/>
       <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -14931,12 +15000,12 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="32"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -14980,12 +15049,12 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -15029,12 +15098,12 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="31"/>
       <c r="P28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -15078,12 +15147,12 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -15127,12 +15196,12 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="32"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -15176,12 +15245,12 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="32"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -15225,15 +15294,15 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -15277,7 +15346,7 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="32"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15323,7 +15392,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15367,7 +15436,7 @@
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
         <v>0</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="0"/>
     </row>
   </sheetData>
@@ -15389,10 +15458,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O34" activeCellId="0" sqref="O34"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15404,10 +15473,10 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="34" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="6.79591836734694"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="34" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="33" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
@@ -15468,7 +15537,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -15517,10 +15586,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -15564,12 +15633,12 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="32"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -15613,12 +15682,12 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="32"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -15662,12 +15731,12 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="32"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -15711,12 +15780,12 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="32"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -15760,13 +15829,13 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="32"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -15810,12 +15879,12 @@
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="32"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -15859,14 +15928,14 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="32"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -15910,12 +15979,12 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="32"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -15959,12 +16028,12 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -16008,12 +16077,12 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -16057,12 +16126,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -16106,12 +16175,12 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -16155,17 +16224,17 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="32"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -16209,13 +16278,13 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -16259,12 +16328,12 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="32"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -16308,12 +16377,12 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -16357,12 +16426,12 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="32"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -16406,12 +16475,12 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="32"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -16455,14 +16524,17 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="32"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>349</v>
+      </c>
       <c r="B23" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -16506,14 +16578,14 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="33" t="s">
-        <v>303</v>
+      <c r="O23" s="32" t="s">
+        <v>313</v>
       </c>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -16557,12 +16629,15 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="32"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>352</v>
+      </c>
       <c r="B25" s="0" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -16606,14 +16681,14 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="33" t="s">
-        <v>102</v>
+      <c r="O25" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -16657,14 +16732,14 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="32"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -16708,12 +16783,12 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -16757,15 +16832,15 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="31"/>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -16809,14 +16884,14 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -16860,14 +16935,14 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="32"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -16911,12 +16986,12 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="32"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -16960,12 +17035,12 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -17009,7 +17084,7 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="32" t="s">
         <v>47</v>
       </c>
       <c r="P33" s="18" t="s">
@@ -17018,10 +17093,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -17065,12 +17140,12 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -17133,9 +17208,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17143,14 +17218,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="8.55102040816327"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="34" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="6.79591836734694"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="34" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="33" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
@@ -17212,7 +17287,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -17261,10 +17336,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -17308,12 +17383,12 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="32"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -17357,14 +17432,14 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="33" t="s">
-        <v>303</v>
+      <c r="O5" s="32" t="s">
+        <v>313</v>
       </c>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -17408,12 +17483,12 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="32"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -17457,12 +17532,12 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="32"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -17506,13 +17581,13 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="32"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -17556,12 +17631,12 @@
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="32"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -17605,14 +17680,14 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="32"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -17656,12 +17731,12 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="32"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -17705,12 +17780,12 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -17754,12 +17829,12 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -17803,12 +17878,12 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -17852,12 +17927,12 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -17902,7 +17977,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="20" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>34</v>
@@ -17910,10 +17985,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -17957,13 +18032,13 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -18007,12 +18082,12 @@
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="32"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -18056,12 +18131,15 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>380</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -18106,13 +18184,13 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="20" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -18156,14 +18234,14 @@
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="33" t="s">
-        <v>371</v>
+      <c r="O21" s="32" t="s">
+        <v>384</v>
       </c>
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -18207,7 +18285,7 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="33" t="n">
+      <c r="O22" s="32" t="n">
         <v>14</v>
       </c>
       <c r="P22" s="18" t="s">
@@ -18216,7 +18294,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -18260,12 +18338,12 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="33"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -18309,12 +18387,12 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="32"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -18358,12 +18436,12 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="33"/>
+      <c r="O25" s="32"/>
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -18407,14 +18485,14 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="32"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -18458,12 +18536,12 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -18508,16 +18586,16 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="20" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -18561,14 +18639,14 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -18612,14 +18690,14 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="32"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -18663,14 +18741,14 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="33" t="n">
+      <c r="O31" s="32" t="n">
         <v>12</v>
       </c>
       <c r="P31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -18714,12 +18792,12 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="32"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -18763,17 +18841,17 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="33"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -18817,12 +18895,12 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="412">
   <si>
     <t>Ngay</t>
   </si>
@@ -198,7 +198,7 @@
     <t>32;51;80;17;58;49;06;23;35;97;80;30;55;72;48;19;41;23;94;62;14;63;37;59;29;46;98</t>
   </si>
   <si>
-    <t>01 / </t>
+    <t>01 /</t>
   </si>
   <si>
     <t>57;92;03;64;22;09;58;09;40;55;83;84;38;69;52;11;30;17;41;59;71;97;07;08;26;14;80</t>
@@ -243,7 +243,7 @@
     <t>Nghi (252 &gt; 52)</t>
   </si>
   <si>
-    <t>14 / </t>
+    <t>14 /</t>
   </si>
   <si>
     <t>74;74;52;45;86;54;83;81;87;88;28;29;89;40;99;83;75;91;42;03;55;19;61;18;82;78;55</t>
@@ -285,7 +285,7 @@
     <t>84;78;00;97;83;64;74;28;89;45;33;39;68;92;90;82;69;87;55;15;28;15;63;13;62;33;46</t>
   </si>
   <si>
-    <t>26 / </t>
+    <t>26 /</t>
   </si>
   <si>
     <t>58;62;89;80;66;84;75;75;11;19;57;45;73;59;62;17;02;51;43;16;63;24;82;72;50;86;13</t>
@@ -303,7 +303,7 @@
     <t>99;58;15;71;64;37;86;98;54;63;27;85;22;00;88;74;79;95;78;69;42;67;16;00;26;72;39</t>
   </si>
   <si>
-    <t>30 / </t>
+    <t>30 /</t>
   </si>
   <si>
     <t>01 / 2</t>
@@ -405,9 +405,6 @@
     <t>15;35;06;64;94;45;23;35;22;49;95;58;36;01;11;65;96;21;53;52;82;91;22;00;87;07;83</t>
   </si>
   <si>
-    <t>01 /</t>
-  </si>
-  <si>
     <t>393 &gt; xit</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t>34;84;66;45;99;68;52;46;69;15;47;57;93;72;90;58;15;00;08;30;51;17;09;52;09;78;32</t>
   </si>
   <si>
-    <t>14 /</t>
-  </si>
-  <si>
     <t>27;80;18;85;65;78;83;17;77;50;38;22;76;20;68;73;48;97;14;92;08;39;02;36;79;48;25</t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>383 &gt; xit</t>
   </si>
   <si>
-    <t>26 /</t>
-  </si>
-  <si>
     <t>82;95;84;07;55;36;48;40;53;21;07;85;30;42;67;19;78;07;90;86;02;64;41;94;18;86;27</t>
   </si>
   <si>
@@ -1167,9 +1158,6 @@
     <t>62;12;72;99;91;03;50;85;33;81;87;16;36;18;74;69;09;37;86;11;46;40;47;78;74;68;32;</t>
   </si>
   <si>
-    <t>17 / </t>
-  </si>
-  <si>
     <t>59;39;22;21;09;79;21;54;03;76;46;92;35;10;17;03;16;72;07;60;84;44;92;65;67;71;18;</t>
   </si>
   <si>
@@ -1230,7 +1218,7 @@
     <t>48;85;12;15;32;50;71;52;96;97;28;25;35;01;66;38;09;51;27;12;02;88;59;67;43;25;68;</t>
   </si>
   <si>
-    <t>3/ </t>
+    <t>3/</t>
   </si>
   <si>
     <t>42;52;39;20;92;50;69;54;59;99;61;44;01;19;11;34;12;98;59;28;11;12;44;37;20;93;33;</t>
@@ -1272,7 +1260,7 @@
     <t>32;51;82;76;04;90;27;95;72;48;20;23;92;80;73;00;10;65;71;79;58;33;99;99;47;29;06;</t>
   </si>
   <si>
-    <t>30 /</t>
+    <t>52;07;47;66;84;86;04;11;52;58;75;94;43;80;80;35;36;82;14;81;24;18;42;59;02;69;44;</t>
   </si>
 </sst>
 </file>
@@ -1307,14 +1295,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1341,6 +1321,14 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1398,7 +1386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1422,36 +1410,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1459,15 +1444,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1479,27 +1464,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1507,19 +1492,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,7 +1516,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1539,11 +1524,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1551,11 +1536,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1580,14 +1565,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Red_Bold" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3378,10 +3362,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3462,7 +3446,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D3" s="0"/>
       <c r="F3" s="0"/>
@@ -3479,10 +3463,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -3531,7 +3515,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -3580,10 +3564,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -3628,13 +3612,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -3683,7 +3667,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -3733,7 +3717,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -3778,13 +3762,13 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="32" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -3829,13 +3813,13 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -3884,7 +3868,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -3933,7 +3917,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -3982,7 +3966,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -4031,7 +4015,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -4078,46 +4062,49 @@
       <c r="O15" s="31"/>
       <c r="P15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>411</v>
+      </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
@@ -4126,7 +4113,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -4867,7 +4854,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>415</v>
+        <v>92</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -8535,7 +8522,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>125</v>
@@ -8583,7 +8570,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="5"/>
       <c r="O4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>34</v>
@@ -8591,7 +8578,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -8636,13 +8623,13 @@
       <c r="M5" s="9"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -8687,7 +8674,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="5"/>
       <c r="O6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P6" s="5" t="n">
         <v>93</v>
@@ -8695,7 +8682,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -8740,16 +8727,16 @@
       <c r="M7" s="6"/>
       <c r="N7" s="5"/>
       <c r="O7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -8796,14 +8783,14 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -8848,7 +8835,7 @@
       <c r="M9" s="28"/>
       <c r="N9" s="16"/>
       <c r="O9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>34</v>
@@ -8856,7 +8843,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -8901,16 +8888,16 @@
       <c r="M10" s="9"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>142</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -8953,11 +8940,11 @@
         <v>5</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>34</v>
@@ -8965,7 +8952,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -9010,13 +8997,13 @@
       <c r="M12" s="9"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -9061,7 +9048,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>93</v>
@@ -9069,7 +9056,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -9114,13 +9101,13 @@
       <c r="M14" s="6"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -9165,13 +9152,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="5"/>
       <c r="O15" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -9222,10 +9209,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -9279,7 +9266,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -9324,13 +9311,13 @@
       <c r="M18" s="28"/>
       <c r="N18" s="16"/>
       <c r="O18" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -9375,16 +9362,16 @@
       <c r="M19" s="9"/>
       <c r="N19" s="5"/>
       <c r="O19" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -9431,13 +9418,13 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -9482,7 +9469,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="5"/>
       <c r="O21" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>41</v>
@@ -9490,7 +9477,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -9535,13 +9522,13 @@
       <c r="M22" s="19"/>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -9586,13 +9573,13 @@
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -9637,13 +9624,13 @@
       <c r="M24" s="23"/>
       <c r="N24" s="5"/>
       <c r="O24" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -9688,13 +9675,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="5"/>
       <c r="O25" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -9739,7 +9726,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="5"/>
       <c r="O26" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>41</v>
@@ -9747,7 +9734,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -9792,7 +9779,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="5"/>
       <c r="O27" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>34</v>
@@ -9800,7 +9787,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -9845,16 +9832,16 @@
       <c r="M28" s="9"/>
       <c r="N28" s="5"/>
       <c r="O28" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -9899,7 +9886,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="5"/>
       <c r="O29" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P29" s="5" t="n">
         <v>16</v>
@@ -9907,7 +9894,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -9952,13 +9939,13 @@
       <c r="M30" s="9"/>
       <c r="N30" s="5"/>
       <c r="O30" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -10001,17 +9988,17 @@
         <v>8</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -10060,7 +10047,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -10109,10 +10096,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -10161,7 +10148,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -10301,7 +10288,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
@@ -10312,10 +10299,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -10360,13 +10347,13 @@
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
       <c r="O4" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -10411,13 +10398,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -10462,13 +10449,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -10513,13 +10500,13 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -10564,14 +10551,14 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -10616,13 +10603,13 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -10667,13 +10654,13 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -10718,13 +10705,13 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -10769,13 +10756,13 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -10820,13 +10807,13 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -10871,13 +10858,13 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -10922,13 +10909,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -10973,16 +10960,16 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -11027,14 +11014,14 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -11079,13 +11066,13 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
       <c r="O18" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -11130,13 +11117,13 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -11181,13 +11168,13 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -11232,13 +11219,13 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -11283,13 +11270,13 @@
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
       <c r="O22" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -11334,13 +11321,13 @@
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
       <c r="O23" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -11385,13 +11372,13 @@
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -11436,13 +11423,13 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
       <c r="O25" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -11487,13 +11474,13 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -11538,13 +11525,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -11589,16 +11576,16 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -11643,13 +11630,13 @@
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
       <c r="O29" s="31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -11694,13 +11681,13 @@
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
       <c r="O30" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -11745,13 +11732,13 @@
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
       <c r="O31" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -11796,16 +11783,16 @@
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
       <c r="O32" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -11850,13 +11837,13 @@
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
       <c r="O33" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -11948,11 +11935,6 @@
       <c r="P35" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12049,7 +12031,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -12098,10 +12080,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -12146,13 +12128,13 @@
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
       <c r="O4" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -12197,13 +12179,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -12248,13 +12230,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -12299,13 +12281,13 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -12350,14 +12332,14 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -12402,13 +12384,13 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -12453,7 +12435,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>34</v>
@@ -12461,7 +12443,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -12506,16 +12488,16 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -12560,13 +12542,13 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -12611,13 +12593,13 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -12662,13 +12644,13 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -12713,13 +12695,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -12764,7 +12746,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>34</v>
@@ -12772,10 +12754,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -12820,14 +12802,14 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -12872,13 +12854,13 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
       <c r="O18" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -12923,13 +12905,13 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -12974,13 +12956,13 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -13025,16 +13007,16 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -13079,7 +13061,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
       <c r="O22" s="32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P22" s="18" t="s">
         <v>34</v>
@@ -13087,7 +13069,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -13132,13 +13114,13 @@
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
       <c r="O23" s="31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -13183,13 +13165,13 @@
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -13234,13 +13216,13 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
       <c r="O25" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -13285,7 +13267,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P26" s="18" t="s">
         <v>34</v>
@@ -13293,7 +13275,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -13338,13 +13320,13 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -13389,16 +13371,16 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -13443,7 +13425,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
       <c r="O29" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>34</v>
@@ -13451,7 +13433,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -13496,7 +13478,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
       <c r="O30" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>34</v>
@@ -13504,7 +13486,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -13549,13 +13531,13 @@
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
       <c r="O31" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -13600,13 +13582,13 @@
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
       <c r="O32" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -13651,7 +13633,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
       <c r="O33" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>34</v>
@@ -13659,10 +13641,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -13707,13 +13689,13 @@
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
       <c r="O34" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -13855,7 +13837,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D3" s="0"/>
       <c r="H3" s="33"/>
@@ -13868,10 +13850,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -13920,7 +13902,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -13969,7 +13951,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -14018,7 +14000,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -14067,7 +14049,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -14117,7 +14099,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -14166,7 +14148,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -14215,7 +14197,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -14264,7 +14246,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -14313,7 +14295,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -14362,7 +14344,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -14411,7 +14393,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -14460,7 +14442,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -14509,10 +14491,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -14562,7 +14544,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -14607,13 +14589,13 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
       <c r="O18" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -14662,7 +14644,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -14711,7 +14693,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -14760,7 +14742,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -14809,7 +14791,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -14858,7 +14840,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -14907,7 +14889,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -14956,7 +14938,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -15005,7 +14987,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -15054,7 +15036,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -15103,7 +15085,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -15152,7 +15134,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -15201,7 +15183,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -15250,7 +15232,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -15299,10 +15281,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -15458,8 +15440,8 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
@@ -15537,7 +15519,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -15586,10 +15568,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -15638,7 +15620,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -15687,7 +15669,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -15736,7 +15718,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -15785,7 +15767,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -15835,7 +15817,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -15884,7 +15866,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -15935,7 +15917,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -15984,7 +15966,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -16033,7 +16015,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -16082,7 +16064,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -16131,7 +16113,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -16180,7 +16162,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -16231,10 +16213,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -16284,7 +16266,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -16333,7 +16315,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -16382,7 +16364,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -16431,7 +16413,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -16480,7 +16462,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -16531,10 +16513,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -16579,13 +16561,13 @@
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
       <c r="O23" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -16634,10 +16616,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -16688,7 +16670,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -16739,7 +16721,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -16788,7 +16770,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -16837,10 +16819,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -16891,7 +16873,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -16942,7 +16924,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -16991,7 +16973,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -17040,7 +17022,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -17093,10 +17075,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -17145,7 +17127,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
@@ -17287,7 +17269,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
@@ -17336,10 +17318,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
@@ -17388,7 +17370,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
@@ -17433,13 +17415,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
@@ -17488,7 +17470,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
@@ -17537,7 +17519,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
@@ -17587,7 +17569,7 @@
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="0" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
@@ -17636,7 +17618,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
@@ -17687,7 +17669,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
@@ -17736,7 +17718,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
@@ -17785,7 +17767,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C13" s="2" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
@@ -17834,7 +17816,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
@@ -17883,7 +17865,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
@@ -17932,7 +17914,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
@@ -17977,7 +17959,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>34</v>
@@ -17985,10 +17967,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
@@ -18038,7 +18020,7 @@
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="0" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
@@ -18087,7 +18069,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
@@ -18136,10 +18118,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
@@ -18184,13 +18166,13 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
@@ -18235,13 +18217,13 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
@@ -18294,7 +18276,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
@@ -18343,7 +18325,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
@@ -18392,7 +18374,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
@@ -18441,7 +18423,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
@@ -18492,7 +18474,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
@@ -18541,7 +18523,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
@@ -18586,16 +18568,16 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
@@ -18646,7 +18628,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
@@ -18697,7 +18679,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
@@ -18748,7 +18730,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
@@ -18797,7 +18779,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
@@ -18848,10 +18830,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
@@ -18900,7 +18882,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="414">
   <si>
     <t>Ngay</t>
   </si>
@@ -1261,6 +1261,12 @@
   </si>
   <si>
     <t>52;07;47;66;84;86;04;11;52;58;75;94;43;80;80;35;36;82;14;81;24;18;42;59;02;69;44;</t>
+  </si>
+  <si>
+    <t>36;42;23;40;90;47;36;34;67;60;83;56;91;35;80;20;59;59;90;06;48;37;79;40;58;36;34;</t>
+  </si>
+  <si>
+    <t>45;94;90;56;03;52;04;13;74;54;44;34;07;21;86;42;44;62;37;08;07;07;09;33;14;63;43;</t>
   </si>
 </sst>
 </file>
@@ -1573,18 +1579,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3365,7 +3359,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4115,45 +4109,48 @@
       <c r="A17" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>412</v>
+      </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="2" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
@@ -4162,46 +4159,48 @@
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>413</v>
+      </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="14" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="416">
   <si>
     <t>Ngay</t>
   </si>
@@ -1267,6 +1267,12 @@
   </si>
   <si>
     <t>45;94;90;56;03;52;04;13;74;54;44;34;07;21;86;42;44;62;37;08;07;07;09;33;14;63;43;</t>
+  </si>
+  <si>
+    <t>51;24;46;14;65;56;89;03;46;61;29;57;36;89;31;20;51;71;27;35;19;78;97;29;95;23;27;</t>
+  </si>
+  <si>
+    <t>89;96;49;51;30;42;02;93;74;39;21;84;68;96;06;02;10;48;75;66;63;20;52;06;72;48;70;</t>
   </si>
 </sst>
 </file>
@@ -3359,7 +3365,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4208,45 +4214,48 @@
       <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>414</v>
+      </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19" s="2" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
@@ -4254,45 +4263,48 @@
       <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>415</v>
+      </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="2" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="418">
   <si>
     <t>Ngay</t>
   </si>
@@ -1273,6 +1273,12 @@
   </si>
   <si>
     <t>89;96;49;51;30;42;02;93;74;39;21;84;68;96;06;02;10;48;75;66;63;20;52;06;72;48;70;</t>
+  </si>
+  <si>
+    <t>22;10;73;63;10;32;76;83;86;85;87;49;43;92;27;72;70;56;95;53;40;18;00;33;04;48;31;</t>
+  </si>
+  <si>
+    <t>04;75;90;81;48;38;93;29;45;10;10;20;39;16;40;63;79;26;70;64;06;64;10;87;66;50;16;</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3371,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4312,45 +4318,48 @@
       <c r="P20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>416</v>
+      </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="2" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
@@ -4358,45 +4367,48 @@
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>417</v>
+      </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" s="2" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="422">
   <si>
     <t>Ngay</t>
   </si>
@@ -1279,6 +1279,18 @@
   </si>
   <si>
     <t>04;75;90;81;48;38;93;29;45;10;10;20;39;16;40;63;79;26;70;64;06;64;10;87;66;50;16;</t>
+  </si>
+  <si>
+    <t>15;52;99;22;49;10;43;56;22;70;78;43;75;68;23;23;26;77;74;42;03;65;47;14;09;56;76;</t>
+  </si>
+  <si>
+    <t>43;71;75;80;51;42;38;25;81;65;34;57;32;15;17;88;37;42;16;66;26;55;39;38;91;14;85;</t>
+  </si>
+  <si>
+    <t>34;29;52;89;66;21;21;18;73;29;31;96;85;16;08;57;41;96;31;35;21;85;06;30;99;90;36;</t>
+  </si>
+  <si>
+    <t>20;29;21;86;94;79;82;76;89;36;34;51;56;58;53;48;01;71;44;40;07;30;89;73;21;56;99; </t>
   </si>
 </sst>
 </file>
@@ -3369,9 +3381,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4068,7 +4080,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>411</v>
       </c>
@@ -4104,7 +4116,7 @@
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
         <v>3</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="10" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
         <v>8</v>
       </c>
@@ -4227,7 +4239,7 @@
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="10" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
         <v>7</v>
       </c>
@@ -4243,7 +4255,7 @@
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
         <v>4</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="10" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
         <v>7</v>
       </c>
@@ -4416,45 +4428,48 @@
       <c r="P22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>418</v>
+      </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" s="2" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
@@ -4462,45 +4477,48 @@
       <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>419</v>
+      </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="10" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" s="10" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
@@ -4508,45 +4526,48 @@
       <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>420</v>
+      </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
@@ -4554,45 +4575,48 @@
       <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>421</v>
+      </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="425">
   <si>
     <t>Ngay</t>
   </si>
@@ -1290,7 +1290,16 @@
     <t>34;29;52;89;66;21;21;18;73;29;31;96;85;16;08;57;41;96;31;35;21;85;06;30;99;90;36;</t>
   </si>
   <si>
-    <t>20;29;21;86;94;79;82;76;89;36;34;51;56;58;53;48;01;71;44;40;07;30;89;73;21;56;99; </t>
+    <t>20;29;21;86;94;79;82;76;89;36;34;51;56;58;53;48;01;71;44;40;07;30;89;73;21;56;99;</t>
+  </si>
+  <si>
+    <t>35;45;38;99;83;13;19;01;88;89;50;51;39;78;64;53;17;07;83;97;57;22;33;85;69;73;02;</t>
+  </si>
+  <si>
+    <t>93;40;15;58;10;02;37;35;08;42;10;48;80;39;06;58;83;12;73;79;28;07;81;87;93;47;68;</t>
+  </si>
+  <si>
+    <t>11;49;96;94;18;23;23;81;52;75;22;70;19;74;11;93;57;23;78;06;18;72;29;48;28;39;07;</t>
   </si>
 </sst>
 </file>
@@ -3381,9 +3390,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4623,92 +4632,98 @@
       <c r="O26" s="31"/>
       <c r="P26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>422</v>
+      </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="2" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="31"/>
       <c r="P27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>423</v>
+      </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
@@ -4716,45 +4731,48 @@
       <c r="P28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>424</v>
+      </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29" s="2" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="220" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,14 +18,14 @@
     <sheet name="T7" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="T8" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="T9" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet5" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="T10" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="429">
   <si>
     <t>Ngay</t>
   </si>
@@ -1300,6 +1300,18 @@
   </si>
   <si>
     <t>11;49;96;94;18;23;23;81;52;75;22;70;19;74;11;93;57;23;78;06;18;72;29;48;28;39;07;</t>
+  </si>
+  <si>
+    <t>86;18;49;54;52;11;51;99;04;93;34;20;12;25;90;29;27;26;47;97;07;94;76;14;65;09;43;</t>
+  </si>
+  <si>
+    <t> ;24;21;64;09;86;71;18;71;31;70;13;01;82;96;14;10;59;39;81;65;55;21;41;55;87;89;11;</t>
+  </si>
+  <si>
+    <t> ;01;37;12;71;90;47;37;15;12;90;20;24;80;56;57;03;26;76;59;66;73;63;36;19;28;98;13;</t>
+  </si>
+  <si>
+    <t> ;00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85;</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1696,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="D29:E29 B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3390,9 +3402,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E29" activeCellId="0" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3416,7 +3428,7 @@
     <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4632,7 +4644,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>422</v>
       </c>
@@ -4656,7 +4668,7 @@
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
         <v>2</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="10" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
         <v>7</v>
       </c>
@@ -4668,7 +4680,7 @@
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="10" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
         <v>8</v>
       </c>
@@ -4681,7 +4693,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>423</v>
       </c>
@@ -4717,7 +4729,7 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
         <v>6</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="10" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
         <v>10</v>
       </c>
@@ -4738,11 +4750,11 @@
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
         <v>8</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="8" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
         <v>9</v>
       </c>
@@ -4776,49 +4788,54 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="31"/>
+      <c r="O29" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>425</v>
+      </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
@@ -4826,45 +4843,48 @@
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>426</v>
+      </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="10" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31" s="2" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
@@ -4872,45 +4892,48 @@
       <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>427</v>
+      </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" s="10" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K32" s="2" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
@@ -4921,45 +4944,48 @@
       <c r="A33" s="0" t="s">
         <v>92</v>
       </c>
+      <c r="B33" s="0" t="s">
+        <v>428</v>
+      </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="10" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="2" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
@@ -5073,20 +5099,1621 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L9" activeCellId="1" sqref="D29:E29 L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="33" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="24" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5107,7 +6734,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="M15" activeCellId="1" sqref="D29:E29 M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6817,7 +8444,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="1" sqref="D29:E29 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8500,7 +10127,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="M8" activeCellId="1" sqref="D29:E29 M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10278,7 +11905,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="L23" activeCellId="1" sqref="D29:E29 L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12021,7 +13648,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="1" sqref="D29:E29 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13825,7 +15452,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="1" sqref="D29:E29 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15508,7 +17135,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="1" sqref="D29:E29 A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17257,7 +18884,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="O20" activeCellId="1" sqref="D29:E29 O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="433">
   <si>
     <t>Ngay</t>
   </si>
@@ -1305,13 +1305,25 @@
     <t>86;18;49;54;52;11;51;99;04;93;34;20;12;25;90;29;27;26;47;97;07;94;76;14;65;09;43;</t>
   </si>
   <si>
-    <t> ;24;21;64;09;86;71;18;71;31;70;13;01;82;96;14;10;59;39;81;65;55;21;41;55;87;89;11;</t>
-  </si>
-  <si>
-    <t> ;01;37;12;71;90;47;37;15;12;90;20;24;80;56;57;03;26;76;59;66;73;63;36;19;28;98;13;</t>
-  </si>
-  <si>
-    <t> ;00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85;</t>
+    <t>;24;21;64;09;86;71;18;71;31;70;13;01;82;96;14;10;59;39;81;65;55;21;41;55;87;89;11;</t>
+  </si>
+  <si>
+    <t>;01;37;12;71;90;47;37;15;12;90;20;24;80;56;57;03;26;76;59;66;73;63;36;19;28;98;13;</t>
+  </si>
+  <si>
+    <t>;00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85;</t>
+  </si>
+  <si>
+    <t> ;96;41;90;47;89;69;99;79;27;62;21;29;73;12;60;06;14;64;68;57;05;03;52;45;78;09;61;</t>
+  </si>
+  <si>
+    <t>00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85; </t>
+  </si>
+  <si>
+    <t> ;97;10;21;74;42;28;90;12;37;70;50;21;98;33;19;09;25;89;46;91;47;18;74;13;89;63;44;</t>
+  </si>
+  <si>
+    <t> ;91;16;09;71;29;45;98;40;35;36;07;89;73;41;78;40;47;95;54;08;94;25;07;28;50;36;14;</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1708,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="D29:E29 B41"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3401,10 +3413,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E29" activeCellId="0" sqref="D29:E29"/>
+      <selection pane="bottomLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4993,45 +5005,48 @@
       <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>429</v>
+      </c>
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K34" s="2" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
@@ -5101,10 +5116,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L9" activeCellId="1" sqref="D29:E29 L9"/>
+      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5180,45 +5195,48 @@
       <c r="P2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>430</v>
+      </c>
       <c r="C3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="7" t="n">
         <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
@@ -5229,45 +5247,48 @@
       <c r="A4" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>429</v>
+      </c>
       <c r="C4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="7" t="n">
         <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
@@ -5275,45 +5296,48 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>431</v>
+      </c>
       <c r="C5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="7" t="n">
         <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
@@ -5321,45 +5345,48 @@
       <c r="P5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>432</v>
+      </c>
       <c r="C6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="7" t="n">
         <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
@@ -6734,7 +6761,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M15" activeCellId="1" sqref="D29:E29 M15"/>
+      <selection pane="bottomRight" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8444,7 +8471,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="1" sqref="D29:E29 A17"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10127,7 +10154,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M8" activeCellId="1" sqref="D29:E29 M8"/>
+      <selection pane="bottomRight" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11905,7 +11932,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L23" activeCellId="1" sqref="D29:E29 L23"/>
+      <selection pane="bottomLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13648,7 +13675,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="1" sqref="D29:E29 A12"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15452,7 +15479,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="1" sqref="D29:E29 A18"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17135,7 +17162,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="1" sqref="D29:E29 A24"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18884,7 +18911,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O20" activeCellId="1" sqref="D29:E29 O20"/>
+      <selection pane="bottomLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="438">
   <si>
     <t>Ngay</t>
   </si>
@@ -1314,16 +1314,31 @@
     <t>;00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85;</t>
   </si>
   <si>
-    <t> ;96;41;90;47;89;69;99;79;27;62;21;29;73;12;60;06;14;64;68;57;05;03;52;45;78;09;61;</t>
-  </si>
-  <si>
-    <t>00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85; </t>
-  </si>
-  <si>
-    <t> ;97;10;21;74;42;28;90;12;37;70;50;21;98;33;19;09;25;89;46;91;47;18;74;13;89;63;44;</t>
-  </si>
-  <si>
-    <t> ;91;16;09;71;29;45;98;40;35;36;07;89;73;41;78;40;47;95;54;08;94;25;07;28;50;36;14;</t>
+    <t>;96;41;90;47;89;69;99;79;27;62;21;29;73;12;60;06;14;64;68;57;05;03;52;45;78;09;61;</t>
+  </si>
+  <si>
+    <t>00;77;66;39;34;51;51;50;59;57;84;02;35;26;52;03;18;03;90;53;52;40;73;98;93;86;85;</t>
+  </si>
+  <si>
+    <t>;97;10;21;74;42;28;90;12;37;70;50;21;98;33;19;09;25;89;46;91;47;18;74;13;89;63;44;</t>
+  </si>
+  <si>
+    <t>;91;16;09;71;29;45;98;40;35;36;07;89;73;41;78;40;47;95;54;08;94;25;07;28;50;36;14;</t>
+  </si>
+  <si>
+    <t>;32;54;69;81;96;53;42;52;07;52;26;98;03;91;49;68;85;52;76;90;02;27;69;13;41;23;60;</t>
+  </si>
+  <si>
+    <t>;65;99;32;00;59;60;45;31;92;04;55;44;53;21;14;01;95;73;29;11;23;48;75;99;13;62;59;</t>
+  </si>
+  <si>
+    <t>;56;40;81;53;03;80;99;17;23;85;75;07;84;29;56;94;41;36;72;93;96;50;64;91;39;70;18;</t>
+  </si>
+  <si>
+    <t>;39;37;70;80;95;93;24;83;73;55;66;44;73;35;16;69;28;31;38;33;79;10;07;00;78;86;34;</t>
+  </si>
+  <si>
+    <t>;30;43;31;12;05;17;67;04;19;61;41;11;29;99;68;44;02;43;14;83;37;15;95;37;70;09;41;</t>
   </si>
 </sst>
 </file>
@@ -3414,9 +3429,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5116,10 +5131,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5394,45 +5409,48 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>433</v>
+      </c>
       <c r="C7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" s="7" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
@@ -5440,45 +5458,48 @@
       <c r="P7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>434</v>
+      </c>
       <c r="C8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7" t="n">
         <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
@@ -5487,45 +5508,48 @@
     </row>
     <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>435</v>
+      </c>
       <c r="C9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="12" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
@@ -5533,45 +5557,48 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>436</v>
+      </c>
       <c r="C10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10" s="7" t="n">
         <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
@@ -5579,45 +5606,48 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>437</v>
+      </c>
       <c r="C11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="7" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
@@ -13672,10 +13702,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13961,7 +13991,7 @@
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="10" t="n">
         <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
         <v>11</v>
       </c>
@@ -15479,7 +15509,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15824,7 +15854,7 @@
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
         <v>5</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="29" t="n">
         <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
         <v>9</v>
       </c>
@@ -15922,7 +15952,7 @@
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="10" t="n">
         <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
         <v>10</v>
       </c>
@@ -16269,7 +16299,7 @@
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
         <v>7</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="29" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
         <v>10</v>
       </c>
@@ -16908,7 +16938,7 @@
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
         <v>4</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="10" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
         <v>8</v>
       </c>
@@ -18909,7 +18939,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="448">
   <si>
     <t>Ngay</t>
   </si>
@@ -1339,6 +1339,36 @@
   </si>
   <si>
     <t>;30;43;31;12;05;17;67;04;19;61;41;11;29;99;68;44;02;43;14;83;37;15;95;37;70;09;41;</t>
+  </si>
+  <si>
+    <t>141 xit 121</t>
+  </si>
+  <si>
+    <t> ;59;59;31;95;32;72;50;99;77;71;47;18;22;81;66;76;08;85;84;64;85;20;24;50;91;81;60;</t>
+  </si>
+  <si>
+    <t> ;43;62;72;24;92;50;05;09;05;04;34;84;34;63;42;74;12;73;60;72;34;11;70;01;37;74;63;</t>
+  </si>
+  <si>
+    <t> ;66;26;98;20;03;05;06;50;55;01;01;75;06;10;44;18;94;09;45;23;51;82;22;55;10;96;11;</t>
+  </si>
+  <si>
+    <t> ;13;92;23;40;82;25;10;64;06;58;02;23;54;97;24;34;27;82;22;31;92;83;02;04;71;99;42;</t>
+  </si>
+  <si>
+    <t> ;39;57;33;89;84;16;89;31;71;58;65;74;82;27;81;09;75;20;26;52;08;57;19;73;00;56;63;</t>
+  </si>
+  <si>
+    <t> ;12;30;13;72;93;16;16;94;82;13;63;91;86;70;69;65;58;55;50;29;51;19;77;76;81;32;10;</t>
+  </si>
+  <si>
+    <t> ;83;23;11;46;28;36;63;01;52;54;77;66;38;19;12;95;09;74;33;25;21;03;85;47;71;48;49;</t>
+  </si>
+  <si>
+    <t> ;55;71;61;67;75;88;21;03;29;25;04;68;63;89;39;60;24;50;90;86;30;63;45;49;03;41;47;</t>
+  </si>
+  <si>
+    <t> ;21;21;91;51;61;38;16;67;15;08;06;72;40;21;03;67;84;55;52;19;13;83;99;04;97;82;26;</t>
   </si>
 </sst>
 </file>
@@ -5131,10 +5161,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5651,49 +5681,54 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="31"/>
+      <c r="O11" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>439</v>
+      </c>
       <c r="C12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" s="7" t="n">
         <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
@@ -5701,45 +5736,48 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>440</v>
+      </c>
       <c r="C13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="7" t="n">
         <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
@@ -5747,45 +5785,48 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>441</v>
+      </c>
       <c r="C14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="10" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="7" t="n">
         <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
@@ -5793,45 +5834,48 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>442</v>
+      </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="7" t="n">
         <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
@@ -5839,45 +5883,48 @@
       <c r="P15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>443</v>
+      </c>
       <c r="C16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" s="10" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" s="7" t="n">
         <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
@@ -5888,45 +5935,48 @@
       <c r="A17" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>444</v>
+      </c>
       <c r="C17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="7" t="n">
         <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
@@ -5935,45 +5985,48 @@
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
+      <c r="B18" s="0" t="s">
+        <v>445</v>
+      </c>
       <c r="C18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="12" t="n">
         <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
@@ -5981,45 +6034,48 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>446</v>
+      </c>
       <c r="C19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" s="7" t="n">
         <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
@@ -6030,45 +6086,48 @@
       <c r="A20" s="0" t="s">
         <v>157</v>
       </c>
+      <c r="B20" s="0" t="s">
+        <v>447</v>
+      </c>
       <c r="C20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="7" t="n">
         <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
@@ -13702,8 +13761,8 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="455">
   <si>
     <t>Ngay</t>
   </si>
@@ -1344,31 +1344,52 @@
     <t>141 xit 121</t>
   </si>
   <si>
-    <t> ;59;59;31;95;32;72;50;99;77;71;47;18;22;81;66;76;08;85;84;64;85;20;24;50;91;81;60;</t>
-  </si>
-  <si>
-    <t> ;43;62;72;24;92;50;05;09;05;04;34;84;34;63;42;74;12;73;60;72;34;11;70;01;37;74;63;</t>
-  </si>
-  <si>
-    <t> ;66;26;98;20;03;05;06;50;55;01;01;75;06;10;44;18;94;09;45;23;51;82;22;55;10;96;11;</t>
-  </si>
-  <si>
-    <t> ;13;92;23;40;82;25;10;64;06;58;02;23;54;97;24;34;27;82;22;31;92;83;02;04;71;99;42;</t>
-  </si>
-  <si>
-    <t> ;39;57;33;89;84;16;89;31;71;58;65;74;82;27;81;09;75;20;26;52;08;57;19;73;00;56;63;</t>
-  </si>
-  <si>
-    <t> ;12;30;13;72;93;16;16;94;82;13;63;91;86;70;69;65;58;55;50;29;51;19;77;76;81;32;10;</t>
-  </si>
-  <si>
-    <t> ;83;23;11;46;28;36;63;01;52;54;77;66;38;19;12;95;09;74;33;25;21;03;85;47;71;48;49;</t>
-  </si>
-  <si>
-    <t> ;55;71;61;67;75;88;21;03;29;25;04;68;63;89;39;60;24;50;90;86;30;63;45;49;03;41;47;</t>
-  </si>
-  <si>
-    <t> ;21;21;91;51;61;38;16;67;15;08;06;72;40;21;03;67;84;55;52;19;13;83;99;04;97;82;26;</t>
+    <t>;59;59;31;95;32;72;50;99;77;71;47;18;22;81;66;76;08;85;84;64;85;20;24;50;91;81;60;</t>
+  </si>
+  <si>
+    <t>;43;62;72;24;92;50;05;09;05;04;34;84;34;63;42;74;12;73;60;72;34;11;70;01;37;74;63;</t>
+  </si>
+  <si>
+    <t>;66;26;98;20;03;05;06;50;55;01;01;75;06;10;44;18;94;09;45;23;51;82;22;55;10;96;11;</t>
+  </si>
+  <si>
+    <t>;13;92;23;40;82;25;10;64;06;58;02;23;54;97;24;34;27;82;22;31;92;83;02;04;71;99;42;</t>
+  </si>
+  <si>
+    <t>;39;57;33;89;84;16;89;31;71;58;65;74;82;27;81;09;75;20;26;52;08;57;19;73;00;56;63;</t>
+  </si>
+  <si>
+    <t>;12;30;13;72;93;16;16;94;82;13;63;91;86;70;69;65;58;55;50;29;51;19;77;76;81;32;10;</t>
+  </si>
+  <si>
+    <t>;83;23;11;46;28;36;63;01;52;54;77;66;38;19;12;95;09;74;33;25;21;03;85;47;71;48;49;</t>
+  </si>
+  <si>
+    <t>;55;71;61;67;75;88;21;03;29;25;04;68;63;89;39;60;24;50;90;86;30;63;45;49;03;41;47;</t>
+  </si>
+  <si>
+    <t>;21;21;91;51;61;38;16;67;15;08;06;72;40;21;03;67;84;55;52;19;13;83;99;04;97;82;26;</t>
+  </si>
+  <si>
+    <t> ;60;68;50;64;07;13;53;58;16;84;49;49;64;97;20;35;49;32;68;81;25;55;00;64;32;66;16;</t>
+  </si>
+  <si>
+    <t> ;72;53;12;76;44;74;49;93;36;08;99;90;16;08;48;06;98;33;84;55;05;75;30;47;10;61;11;</t>
+  </si>
+  <si>
+    <t> ;01;77;22;52;13;49;61;89;24;14;69;63;38;20;86;17;30;79;20;19;57;37;47;82;74;12;84;</t>
+  </si>
+  <si>
+    <t> ;06;75;54;92;88;63;27;56;10;00;10;78;46;56;28;60;20;55;46;00;96;16;93;41;21;32;67;</t>
+  </si>
+  <si>
+    <t> ;42;28;24;12;75;26;81;87;89;86;16;02;33;35;02;19;33;67;55;68;93;69;43;45;05;97;30;</t>
+  </si>
+  <si>
+    <t> ;54;45;02;39;05;32;32;12;04;28;02;01;52;10;76;77;84;62;90;17;44;29;01;36;56;26;94;</t>
+  </si>
+  <si>
+    <t> ;70;48;17;32;25;74;08;09;03;99;07;61;17;36;96;31;57;35;22;25;61;40;88;71;07;89;04; </t>
   </si>
 </sst>
 </file>
@@ -3459,9 +3480,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5164,7 +5185,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6131,49 +6152,54 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="20"/>
+      <c r="O20" s="20" t="s">
+        <v>378</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>448</v>
+      </c>
       <c r="C21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" s="7" t="n">
         <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
@@ -6181,45 +6207,48 @@
       <c r="P21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>449</v>
+      </c>
       <c r="C22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L22" s="7" t="n">
         <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
@@ -6227,45 +6256,48 @@
       <c r="P22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>450</v>
+      </c>
       <c r="C23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L23" s="7" t="n">
         <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
@@ -6273,45 +6305,48 @@
       <c r="P23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>451</v>
+      </c>
       <c r="C24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24" s="7" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
@@ -6319,45 +6354,48 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>452</v>
+      </c>
       <c r="C25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25" s="7" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
@@ -6365,45 +6403,48 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>453</v>
+      </c>
       <c r="C26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="7" t="n">
         <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
@@ -6411,45 +6452,48 @@
       <c r="P26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>454</v>
+      </c>
       <c r="C27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27" s="7" t="n">
         <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
@@ -15568,7 +15612,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -18998,7 +19042,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="463">
   <si>
     <t>Ngay</t>
   </si>
@@ -1371,25 +1371,49 @@
     <t>;21;21;91;51;61;38;16;67;15;08;06;72;40;21;03;67;84;55;52;19;13;83;99;04;97;82;26;</t>
   </si>
   <si>
-    <t> ;60;68;50;64;07;13;53;58;16;84;49;49;64;97;20;35;49;32;68;81;25;55;00;64;32;66;16;</t>
-  </si>
-  <si>
-    <t> ;72;53;12;76;44;74;49;93;36;08;99;90;16;08;48;06;98;33;84;55;05;75;30;47;10;61;11;</t>
-  </si>
-  <si>
-    <t> ;01;77;22;52;13;49;61;89;24;14;69;63;38;20;86;17;30;79;20;19;57;37;47;82;74;12;84;</t>
-  </si>
-  <si>
-    <t> ;06;75;54;92;88;63;27;56;10;00;10;78;46;56;28;60;20;55;46;00;96;16;93;41;21;32;67;</t>
-  </si>
-  <si>
-    <t> ;42;28;24;12;75;26;81;87;89;86;16;02;33;35;02;19;33;67;55;68;93;69;43;45;05;97;30;</t>
-  </si>
-  <si>
-    <t> ;54;45;02;39;05;32;32;12;04;28;02;01;52;10;76;77;84;62;90;17;44;29;01;36;56;26;94;</t>
-  </si>
-  <si>
-    <t> ;70;48;17;32;25;74;08;09;03;99;07;61;17;36;96;31;57;35;22;25;61;40;88;71;07;89;04; </t>
+    <t>;60;68;50;64;07;13;53;58;16;84;49;49;64;97;20;35;49;32;68;81;25;55;00;64;32;66;16;</t>
+  </si>
+  <si>
+    <t>;72;53;12;76;44;74;49;93;36;08;99;90;16;08;48;06;98;33;84;55;05;75;30;47;10;61;11;</t>
+  </si>
+  <si>
+    <t>;01;77;22;52;13;49;61;89;24;14;69;63;38;20;86;17;30;79;20;19;57;37;47;82;74;12;84;</t>
+  </si>
+  <si>
+    <t>;06;75;54;92;88;63;27;56;10;00;10;78;46;56;28;60;20;55;46;00;96;16;93;41;21;32;67;</t>
+  </si>
+  <si>
+    <t>;42;28;24;12;75;26;81;87;89;86;16;02;33;35;02;19;33;67;55;68;93;69;43;45;05;97;30;</t>
+  </si>
+  <si>
+    <t>;54;45;02;39;05;32;32;12;04;28;02;01;52;10;76;77;84;62;90;17;44;29;01;36;56;26;94;</t>
+  </si>
+  <si>
+    <t>;70;48;17;32;25;74;08;09;03;99;07;61;17;36;96;31;57;35;22;25;61;40;88;71;07;89;04;</t>
+  </si>
+  <si>
+    <t>;56;63;71;76;62;98;62;84;25;22;00;25;98;09;19;21;34;29;68;45;75;06;18;11;36;14;52;</t>
+  </si>
+  <si>
+    <t>;71;30;11;34;28;42;45;09;37;65;00;72;15;59;62;95;45;45;76;10;18;98;76;47;60;22;52;</t>
+  </si>
+  <si>
+    <t>;84;62;60;28;75;44;22;09;43;68;00;37;45;48;87;22;69;96;00;04;69;41;64;68;00;07;47;</t>
+  </si>
+  <si>
+    <t>;54;80;46;48;92;72;21;14;55;78;61;59;70;68;01;87;56;53;41;78;36;06;83;07;51;54;24;</t>
+  </si>
+  <si>
+    <t>585 xit</t>
+  </si>
+  <si>
+    <t>;89;87;32;13;77;23;87;73;19;63;08;93;40;83;24;60;46;08;44;68;77;86;29;86;38;05;37;</t>
+  </si>
+  <si>
+    <t>;65;21;13;66;51;48;44;09;72;65;43;50;89;49;90;39;88;47;31;47;38;69;13;25;18;16;90;</t>
+  </si>
+  <si>
+    <t>;51;20;63;72;06;54;61;81;69;33;55;37;47;58;85;64;54;51;28;88;46;64;15;29;83;47;04;</t>
   </si>
 </sst>
 </file>
@@ -5183,9 +5207,9 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6501,45 +6525,48 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>455</v>
+      </c>
       <c r="C28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="10" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="7" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
@@ -6550,45 +6577,48 @@
       <c r="A29" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>456</v>
+      </c>
       <c r="C29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="10" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="7" t="n">
         <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
@@ -6596,45 +6626,48 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>457</v>
+      </c>
       <c r="C30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L30" s="7" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
@@ -6642,91 +6675,101 @@
       <c r="P30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>458</v>
+      </c>
       <c r="C31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" s="10" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L31" s="7" t="n">
         <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="21"/>
+      <c r="O31" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>460</v>
+      </c>
       <c r="C32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K32" s="10" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L32" s="7" t="n">
         <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
@@ -6734,94 +6777,102 @@
       <c r="P32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>461</v>
+      </c>
       <c r="C33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="10" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" s="10" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L33" s="7" t="n">
         <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="32"/>
+      <c r="O33" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="P33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>462</v>
+      </c>
       <c r="C34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H34" s="10" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" s="10" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L34" s="7" t="n">
         <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>

--- a/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
+++ b/MakeMoney/Thong_Ke/xls/RATE_2014.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="288" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="381" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="T12" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="T12_2013" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="T1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="T2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="T3" sheetId="4" state="visible" r:id="rId5"/>
@@ -19,13 +19,16 @@
     <sheet name="T8" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="T9" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="T10" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="T11" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="T12" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="T1_2015" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="546">
   <si>
     <t>Ngay</t>
   </si>
@@ -1414,6 +1417,255 @@
   </si>
   <si>
     <t>;51;20;63;72;06;54;61;81;69;33;55;37;47;58;85;64;54;51;28;88;46;64;15;29;83;47;04;</t>
+  </si>
+  <si>
+    <t>;77;52;66;29;79;31;00;33;00;08;66;71;35;27;54;35;02;28;97;35;43;69;04;14;44;20;53;</t>
+  </si>
+  <si>
+    <t> ;51;20;63;72;06;54;61;81;69;33;55;37;47;58;85;64;54;51;28;88;46;64;15;29;83;47;04; </t>
+  </si>
+  <si>
+    <t> ;77;52;66;29;79;31;00;33;00;08;66;71;35;27;54;35;02;28;97;35;43;69;04;14;44;20;53;</t>
+  </si>
+  <si>
+    <t> ;11;28;60;56;55;42;14;54;81;46;00;36;62;08;35;78;44;40;50;37;46;21;44;88;98;24;21;</t>
+  </si>
+  <si>
+    <t> ;54;10;41;65;40;96;21;37;91;70;96;57;30;82;02;73;12;00;33;25;41;47;48;57;34;52;39;</t>
+  </si>
+  <si>
+    <t> ;96;40;86;17;23;03;32;93;33;09;36;82;87;89;30;03;32;44;57;91;45;81;22;45;89;77;65;</t>
+  </si>
+  <si>
+    <t> ;77;32;55;77;32;32;85;16;29;14;89;97;77;48;65;81;39;06;13;53;40;86;09;25;43;74;28;</t>
+  </si>
+  <si>
+    <t> ;25;08;10;27;58;03;64;55;32;55;89;99;32;07;66;54;79;20;29;57;27;63;65;73;31;81;56;</t>
+  </si>
+  <si>
+    <t> ;45;21;57;81;36;25;84;59;97;82;88;68;93;84;93;78;63;19;17;73;46;55;64;60;50;56;14;</t>
+  </si>
+  <si>
+    <t>585&gt; 58 85 85</t>
+  </si>
+  <si>
+    <t> ;92;65;20;34;51;85;49;76;57;85;92;14;59;83;72;00;27;74;96;04;39;58;35;55;33;15;78;</t>
+  </si>
+  <si>
+    <t> ;05;92;04;70;65;38;30;52;86;91;40;24;77;72;71;08;01;47;26;55;58;74;71;28;59;55;01;</t>
+  </si>
+  <si>
+    <t> ;06;80;77;34;60;77;03;67;36;85;50;18;27;41;77;44;18;59;72;80;78;79;61;47;12;24;95;</t>
+  </si>
+  <si>
+    <t> ;06;63;87;68;80;60;89;99;64;84;44;21;43;41;26;21;34;84;74;75;14;31;48;69;50;32;04;</t>
+  </si>
+  <si>
+    <t> ;38;47;98;10;86;98;92;85;09;49;25;30;87;27;65;42;34;06;47;99;57;05;75;51;88;94;18;</t>
+  </si>
+  <si>
+    <t> ;46;23;25;41;05;55;10;49;49;67;23;50;62;18;78;01;43;65;11;89;94;79;31;94;72;84;34;</t>
+  </si>
+  <si>
+    <t> ;97;50;90;60;34;36;21;23;53;10;50;14;72;50;35;24;85;18;24;13;74;69;34;80;76;64;81;</t>
+  </si>
+  <si>
+    <t> ;72;59;01;45;78;26;78;84;85;54;10;02;51;58;19;16;02;58;80;75;82;82;44;52;07;32;01;</t>
+  </si>
+  <si>
+    <t> ;19;81;04;02;22;28;19;76;35;54;38;26;46;92;31;37;35;45;63;72;72;09;21;66;62;56;13;</t>
+  </si>
+  <si>
+    <t> ;67;00;03;61;93;88;82;08;04;93;76;05;55;08;69;65;77;42;93;00;47;72;65;82;57;84;08;</t>
+  </si>
+  <si>
+    <t> ;54;98;64;12;42;57;50;57;94;80;51;29;18;18;33;05;21;04;43;18;55;85;21;63;87;97;23;</t>
+  </si>
+  <si>
+    <t> ;96;08;08;85;55;91;34;29;47;53;16;76;50;44;18;62;80;61;57;69;75;39;08;13;70;31;57;</t>
+  </si>
+  <si>
+    <t> ;68;88;00;18;26;56;18;40;83;31;23;24;38;52;20;48;03;84;78;40;56;04;55;77;07;03;78;</t>
+  </si>
+  <si>
+    <t> ;32;00;16;14;79;71;69;34;89;28;24;47;53;09;70;44;34;24;24;04;83;74;48;75;50;58;73;</t>
+  </si>
+  <si>
+    <t> ;36;45;37;68;42;42;51;92;63;22;45;38;94;27;89;05;15;15;07;22;87;78;85;53;02;04;10;</t>
+  </si>
+  <si>
+    <t> ;73;91;75;58;48;04;45;27;51;88;56;27;06;84;15;50;77;51;04;86;56;83;31;24;70;01;04;</t>
+  </si>
+  <si>
+    <t> ;51;67;38;50;19;11;21;97;50;64;73;30;13;74;37;33;45;82;86;61;04;26;26;48;15;85;58;</t>
+  </si>
+  <si>
+    <t> ;39;27;42;55;28;29;81;29;98;81;54;46;24;76;36;38;80;38;87;59;65;33;39;49;01;77;33;</t>
+  </si>
+  <si>
+    <t> ;10;20;73;85;70;62;59;89;31;38;69;49;75;55;77;26;08;92;70;79;95;69;80;33;39;31;44;</t>
+  </si>
+  <si>
+    <t> ;39;59;18;95;62;35;03;92;73;27;22;32;32;62;17;25;47;58;99;83;42;52;55;62;43;76;97;</t>
+  </si>
+  <si>
+    <t> ;19;88;24;88;92;38;47;39;60;94;46;67;24;47;09;62;99;79;64;55;05;49;13;67;85;14;37;</t>
+  </si>
+  <si>
+    <t> ;59;82;80;54;45;31;57;23;10;15;79;14;05;15;03;54;23;99;12;45;74;00;90;01;38;77;27;</t>
+  </si>
+  <si>
+    <t> ;63;55;92;55;54;89;51;44;29;23;88;31;04;65;41;14;01;83;12;75;06;72;25;03;68;81;27;</t>
+  </si>
+  <si>
+    <t> ;56;72;92;25;33;01;51;37;57;20;10;97;20;79;00;01;25;91;62;62;84;17;20;17;29;86;37;</t>
+  </si>
+  <si>
+    <t> ;56;72;92;25;33;01;51;37;57;20;10;97;20;79;00;01;25;91;62;62;84;17;20;17;29;86;37; </t>
+  </si>
+  <si>
+    <t> ;81;08;62;50;53;93;33;71;79;00;62;43;91;73;93;69;00;36;43;60;32;86;24;46;88;78;95;</t>
+  </si>
+  <si>
+    <t> ;45;54;57;17;16;81;38;28;65;49;98;29;21;38;71;25;06;99;06;10;12;03;93;07;48;29;01;</t>
+  </si>
+  <si>
+    <t> ;65;50;86;46;28;07;85;89;70;33;46;73;51;91;04;09;42;84;69;68;86;33;27;79;72;44;50;</t>
+  </si>
+  <si>
+    <t> ;80;04;01;83;03;37;09;30;97;88;88;89;81;08;94;52;06;61;59;96;57;85;78;46;56;07;72;</t>
+  </si>
+  <si>
+    <t> ;87;08;72;26;31;23;48;41;79;19;48;55;01;07;23;79;93;70;22;32;68;35;85;40;02;52;96;</t>
+  </si>
+  <si>
+    <t> ;77;84;85;77;54;96;22;61;30;42;92;75;19;41;68;12;16;00;42;47;44;75;47;25;71;55;83;</t>
+  </si>
+  <si>
+    <t> ;96;75;85;23;97;27;23;77;22;77;51;29;35;45;98;01;09;53;16;15;25;24;78;11;25;28;47;</t>
+  </si>
+  <si>
+    <t> ;41;60;35;22;02;37;48;49;98;99;58;63;59;95;30;30;72;55;42;09;88;79;44;51;34;30;07;</t>
+  </si>
+  <si>
+    <t> ;82;56;09;88;90;02;35;08;88;86;20;98;70;35;70;54;94;52;26;89;85;12;69;12;16;34;04;</t>
+  </si>
+  <si>
+    <t> ;63;20;01;40;39;55;04;53;55;02;04;41;31;68;75;51;38;01;69;18;92;01;87;76;20;75;57;</t>
+  </si>
+  <si>
+    <t> ;23;25;81;96;25;36;97;05;52;33;92;65;39;10;27;45;54;24;92;92;77;01;03;85;10;41;05;</t>
+  </si>
+  <si>
+    <t> ;52;25;43;20;60;32;85;55;02;17;16;80;47;90;86;73;04;24;94;35;62;47;62;73;49;55;09;</t>
+  </si>
+  <si>
+    <t> ;42;67;78;41;00;31;96;54;31;76;72;55;84;05;97;54;54;20;86;16;14;78;10;52;41;06;61;</t>
+  </si>
+  <si>
+    <t> ;38;34;53;72;89;35;29;92;68;87;64;11;14;57;76;34;90;54;45;73;77;55;57;68;10;03;12;</t>
+  </si>
+  <si>
+    <t> ;52;85;03;05;31;95;69;94;11;54;81;30;30;77;66;10;43;80;58;95;83;18;35;32;77;03;80;</t>
+  </si>
+  <si>
+    <t> ;36;53;70;97;24;99;81;89;91;62;79;17;75;02;12;71;30;58;68;14;01;14;28;33;36;31;19;</t>
+  </si>
+  <si>
+    <t> ;19;09;94;19;34;06;72;41;11;79;84;37;27;03;00;87;04;66;80;37;55;47;73;43;67;68;70;</t>
+  </si>
+  <si>
+    <t> ;12;95;19;34;90;06;76;01;18;34;78;97;70;90;16;28;02;23;77;51;42;79;34;72;93;59;95;</t>
+  </si>
+  <si>
+    <t> ;70;19;32;08;79;04;00;60;53;23;13;30;16;12;59;75;45;30;49;29;30;96;44;31;03;02;91;</t>
+  </si>
+  <si>
+    <t> ;52;42;84;43;87;24;66;86;37;32;28;26;69;62;49;68;17;66;96;64;28;86;68;36;69;60;21;</t>
+  </si>
+  <si>
+    <t> ;53;05;40;03;97;82;05;03;22;66;87;51;72;85;86;15;27;51;18;34;92;22;76;27;09;40;42;</t>
+  </si>
+  <si>
+    <t> ;16;16;10;71;76;78;17;41;36;87;87;39;35;93;85;66;75;47;49;59;10;18;28;37;53;51;90;</t>
+  </si>
+  <si>
+    <t> ;61;07;99;78;72;66;92;36;12;88;09;28;79;01;19;70;63;62;74;02;54;33;17;53;30;39;61;</t>
+  </si>
+  <si>
+    <t> ;47;04;73;69;70;98;94;69;89;38;49;46;25;68;78;30;11;09;33;70;54;55;31;42;72;83;93;</t>
+  </si>
+  <si>
+    <t> ;59;72;23;82;60;99;41;26;10;03;22;20;66;60;60;07;80;37;02;48;93;70;01;40;00;84;62;</t>
+  </si>
+  <si>
+    <t> ;98;27;17;65;16;38;10;19;72;75;98;56;26;93;00;01;84;54;71;84;40;58;75;80;06;40;20;</t>
+  </si>
+  <si>
+    <t> ;12;69;01;04;97;24;74;24;22;34;58;87;60;73;24;03;01;36;29;25;37;14;64;45;35;08;49;</t>
+  </si>
+  <si>
+    <t> ;99;32;24;87;33;35;46;33;73;08;91;84;88;03;70;80;32;61;31;84;41;83;51;48;47;66;98;</t>
+  </si>
+  <si>
+    <t> ;97;70;01;16;78;53;37;55;22;50;33;16;86;50;15;18;12;00;91;34;95;14;32;56;86;30;28;</t>
+  </si>
+  <si>
+    <t> ;46;33;86;68;48;79;99;27;76;12;37;74;55;58;05;54;65;89;97;38;85;92;43;51;93;31;09;</t>
+  </si>
+  <si>
+    <t> ;76;38;29;95;99;38;30;80;11;01;45;37;31;43;91;95;20;17;20;54;19;47;32;68;97;49;94;</t>
+  </si>
+  <si>
+    <t> ;25;39;94;55;96;81;29;67;02;32;35;18;54;04;22;59;02;99;68;47;93;83;47;61;59;14;22;</t>
+  </si>
+  <si>
+    <t> ;64;10;46;56;63;59;73;93;55;96;72;33;08;37;44;01;31;06;75;90;44;80;46;77;95;98;14;</t>
+  </si>
+  <si>
+    <t> ;13;85;92;40;10;27;04;70;91;21;44;61;06;77;61;28;83;43;82;79;82;47;36;35;56;87;96;</t>
+  </si>
+  <si>
+    <t> ;01;68;55;47;69;88;74;96;80;00;24;50;17;68;73;31;39;29;45;77;61;20;35;29;24;02;74;</t>
+  </si>
+  <si>
+    <t> ;05;23;30;40;93;63;45;25;80;55;21;64;89;35;04;14;66;32;49;21;97;77;52;35;38;12;68;</t>
+  </si>
+  <si>
+    <t> ;08;13;16;85;09;02;89;63;17;98;87;44;19;82;78;91;61;40;68;46;81;72;28;56;76;13;85;</t>
+  </si>
+  <si>
+    <t> ;46;75;77;72;33;03;92;03;19;44;25;40;68;78;62;74;78;09;08;98;72;99;01;89;29;24;85;</t>
+  </si>
+  <si>
+    <t> ;62;87;79;81;86;78;12;70;84;84;57;31;31;73;06;44;20;31;18;49;02;21;39;93;36;02;45;</t>
+  </si>
+  <si>
+    <t> ;95;59;20;78;61;33;93;91;61;68;59;21;29;18;22;76;86;83;36;82;71;58;78;20;73;39;59;</t>
+  </si>
+  <si>
+    <t> ;43;58;92;18;72;04;77;86;25;39;28;10;20;90;07;25;21;54;85;61;60;03;54;92;93;86;28;</t>
+  </si>
+  <si>
+    <t> ;76;85;89;80;68;80;31;15;43;11;91;33;29;01;04;30;90;05;17;29;00;49;50;13;42;27;11;</t>
+  </si>
+  <si>
+    <t> ;91;76;92;22;58;60;41;39;25;92;11;49;63;30;16;41;47;63;21;73;68;62;05;39;52;65;24;</t>
+  </si>
+  <si>
+    <t> ;88;57;66;56;72;26;01;02;33;61;90;04;99;17;71;63;87;10;99;24;85;65;35;65;31;95;89;</t>
+  </si>
+  <si>
+    <t> ;06;66;28;89;86;65;89;28;01;93;55;38;51;07;40;75;58;28;87;22;17;59;22;99;59;84;82;</t>
+  </si>
+  <si>
+    <t> ;62;18;39;26;27;29;95;00;27;03;88;93;30;79;60;08;49;49;04;94;09;78;44;23;63;13;56;</t>
+  </si>
+  <si>
+    <t> ;91;11;28;66;71;96;84;95;83;39;56;78;93;75;57;59;42;70;49;57;23;79;70;33;53;06;81;</t>
+  </si>
+  <si>
+    <t> ;58;99;00;17;30;37;20;88;92;58;59;76;76;87;13;28;73;58;49;23;17;06;36;69;39;74;87;</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1445,6 +1697,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1515,6 +1775,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1539,7 +1806,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1563,33 +1830,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1597,15 +1867,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1617,7 +1887,107 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,107 +1995,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="RED_BOLD" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1797,7 +2092,7 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -5206,10 +5501,10 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
+      <selection pane="bottomLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6332,7 +6627,7 @@
       <c r="B24" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
         <v>9</v>
       </c>
@@ -6356,7 +6651,7 @@
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
         <v>6</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="I24" s="2" t="n">
         <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
         <v>10</v>
       </c>
@@ -6389,11 +6684,11 @@
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
         <v>4</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
         <v>7</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="2" t="n">
         <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
         <v>8</v>
       </c>
@@ -6536,7 +6831,7 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
         <v>7</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
         <v>9</v>
       </c>
@@ -6552,7 +6847,7 @@
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
         <v>6</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="2" t="n">
         <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
         <v>8</v>
       </c>
@@ -6629,7 +6924,7 @@
       <c r="B30" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
         <v>10</v>
       </c>
@@ -6645,7 +6940,7 @@
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
         <v>2</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="2" t="n">
         <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
         <v>10</v>
       </c>
@@ -6880,48 +7175,5209 @@
       <c r="P34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>463</v>
+      </c>
       <c r="C35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="7" t="n">
         <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="31" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="33" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="33" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="31" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="33" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="24" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="38" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="39" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="38" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="38" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="38" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="38" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="38" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="38" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="38" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="38" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G16" s="38" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="39" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K18" s="39" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="38" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="38" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H21" s="38" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K21" s="38" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="38" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K23" s="38" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H25" s="38" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H26" s="38" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K26" s="38" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D27" s="38" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H27" s="38" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K28" s="38" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="38" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D32" s="38" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H32" s="38" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="38" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H33" s="38" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D34" s="38" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="31"/>
+      <c r="P35" s="0"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H:H">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K:K">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="33" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="24" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="38" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="38" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="38" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="38" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM((LEN(B6)-LEN(SUBSTITUTE(B6,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="38" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">SUM((LEN(B7)-LEN(SUBSTITUTE(B7,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K8" s="38" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"8",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">SUM((LEN(B8)-LEN(SUBSTITUTE(B8,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"5",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <f aca="false">SUM((LEN(B9)-LEN(SUBSTITUTE(B9,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"4",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="H10" s="38" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">SUM((LEN(B10)-LEN(SUBSTITUTE(B10,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="38" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">SUM((LEN(B11)-LEN(SUBSTITUTE(B11,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H12" s="38" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">SUM((LEN(B12)-LEN(SUBSTITUTE(B12,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"2",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"3",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"7",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="38" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">SUM((LEN(B13)-LEN(SUBSTITUTE(B13,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D14" s="38" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="38" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">SUM((LEN(B14)-LEN(SUBSTITUTE(B14,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H15" s="38" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"5",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"8",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">SUM((LEN(B15)-LEN(SUBSTITUTE(B15,"9",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H16" s="38" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">SUM((LEN(B16)-LEN(SUBSTITUTE(B16,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="38" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"4",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="38" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">SUM((LEN(B17)-LEN(SUBSTITUTE(B17,"9",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="39" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <f aca="false">SUM((LEN(B18)-LEN(SUBSTITUTE(B18,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="38" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K19" s="38" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">SUM((LEN(B19)-LEN(SUBSTITUTE(B19,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="38" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"1",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"5",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">SUM((LEN(B20)-LEN(SUBSTITUTE(B20,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"0",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"2",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"7",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">SUM((LEN(B21)-LEN(SUBSTITUTE(B21,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"7",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">SUM((LEN(B22)-LEN(SUBSTITUTE(B22,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"0",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"3",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"6",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"8",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">SUM((LEN(B23)-LEN(SUBSTITUTE(B23,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"0",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"1",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"5",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"6",""))))</f>
+        <v>16</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="38" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"8",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">SUM((LEN(B24)-LEN(SUBSTITUTE(B24,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"2",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="38" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">SUM((LEN(B25)-LEN(SUBSTITUTE(B25,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="38" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"1",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"2",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"4",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"6",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"7",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">SUM((LEN(B26)-LEN(SUBSTITUTE(B26,"9",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"2",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"7",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">SUM((LEN(B27)-LEN(SUBSTITUTE(B27,"9",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"3",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"8",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <f aca="false">SUM((LEN(B28)-LEN(SUBSTITUTE(B28,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"0",""))))</f>
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"3",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"4",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"5",""))))</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"6",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <f aca="false">SUM((LEN(B29)-LEN(SUBSTITUTE(B29,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"0",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"1",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"3",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"5",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K30" s="38" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <f aca="false">SUM((LEN(B30)-LEN(SUBSTITUTE(B30,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"0",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"2",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"3",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"4",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"8",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <f aca="false">SUM((LEN(B31)-LEN(SUBSTITUTE(B31,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"0",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"1",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"3",""))))</f>
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"4",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"5",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="38" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"8",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <f aca="false">SUM((LEN(B32)-LEN(SUBSTITUTE(B32,"9",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"0",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="D33" s="38" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"1",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"2",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"4",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="H33" s="38" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"7",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"8",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <f aca="false">SUM((LEN(B33)-LEN(SUBSTITUTE(B33,"9",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H34" s="38" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K34" s="38" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <f aca="false">SUM((LEN(B34)-LEN(SUBSTITUTE(B34,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D35" s="38" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <f aca="false">SUM((LEN(B35)-LEN(SUBSTITUTE(B35,"9",""))))</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H:H">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K:K">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D:D">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="8.55102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="33" width="6.79591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.24489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.33673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="33" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="true" max="14" min="13" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="23" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="24" width="19.4642857142857"/>
+    <col collapsed="false" hidden="false" max="257" min="17" style="0" width="8.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"0",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="40" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"1",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"2",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"4",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="38" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"5",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"6",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"7",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="38" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"8",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">SUM((LEN(B3)-LEN(SUBSTITUTE(B3,"9",""))))</f>
+        <v>8</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"0",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="38" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"1",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"2",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"3",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"5",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"6",""))))</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"7",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">SUM((LEN(B4)-LEN(SUBSTITUTE(B4,"9",""))))</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"0",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"1",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"2",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"3",""))))</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"4",""))))</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="38" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"5",""))))</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"6",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"7",""))))</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"8",""))))</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM((LEN(B5)-LEN(SUBSTITUTE(B5,"9",""))))</f>
+        <v>9</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="32"/>
+     